--- a/Project/Resultat/Analyse des resultatsV2.xlsx
+++ b/Project/Resultat/Analyse des resultatsV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/464c61f4079a7534/Documents/GitHub/RecSys/Project/Resultat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{05055A83-D3E0-4BD4-8F83-76897CDF407D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{9E0C6F4F-3F99-45CC-8ADB-3051EA303054}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{05055A83-D3E0-4BD4-8F83-76897CDF407D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{A638E076-15CF-493E-A8E1-7A0547A61EF0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="2" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH1006" sheetId="3" r:id="rId1"/>
@@ -6231,10 +6231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6075CE3-C5DE-4132-B6B7-199C55931189}">
-  <dimension ref="A2:N9"/>
+  <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6312,6 +6312,24 @@
       <c r="F5" t="s">
         <v>134</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -6335,6 +6353,24 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
       <c r="N6">
         <v>2</v>
       </c>
@@ -6358,6 +6394,24 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
       <c r="N7">
         <v>3</v>
       </c>
@@ -6381,6 +6435,24 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
       <c r="N8">
         <v>4</v>
       </c>
@@ -6404,8 +6476,46 @@
       <c r="F9" t="s">
         <v>62</v>
       </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
       <c r="N9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CD6A43-0763-4EC0-BB42-E304A873C144}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6904,6 +7014,24 @@
       <c r="F5" t="s">
         <v>43</v>
       </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -6927,6 +7055,24 @@
       <c r="F6" t="s">
         <v>150</v>
       </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
       <c r="N6">
         <v>2</v>
       </c>
@@ -6950,6 +7096,24 @@
       <c r="F7" t="s">
         <v>114</v>
       </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
       <c r="N7">
         <v>3</v>
       </c>
@@ -6973,6 +7137,24 @@
       <c r="F8" t="s">
         <v>158</v>
       </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
       <c r="N8">
         <v>4</v>
       </c>
@@ -6996,8 +7178,46 @@
       <c r="F9" t="s">
         <v>156</v>
       </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
       <c r="N9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -7017,8 +7237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67507C4B-FE4A-4529-9CE9-3A2B1154733A}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7104,6 +7324,24 @@
       <c r="F5" t="s">
         <v>159</v>
       </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -7127,6 +7365,24 @@
       <c r="F6" t="s">
         <v>165</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
       <c r="N6">
         <v>2</v>
       </c>
@@ -7150,6 +7406,24 @@
       <c r="F7" t="s">
         <v>168</v>
       </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
       <c r="N7">
         <v>3</v>
       </c>
@@ -7173,6 +7447,24 @@
       <c r="F8" t="s">
         <v>161</v>
       </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
       <c r="N8">
         <v>4</v>
       </c>
@@ -7195,6 +7487,24 @@
       </c>
       <c r="F9" t="s">
         <v>172</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="N9">
         <v>5</v>

--- a/Project/Resultat/Analyse des resultatsV2.xlsx
+++ b/Project/Resultat/Analyse des resultatsV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/464c61f4079a7534/Documents/GitHub/RecSys/Project/Resultat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{05055A83-D3E0-4BD4-8F83-76897CDF407D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{A638E076-15CF-493E-A8E1-7A0547A61EF0}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{05055A83-D3E0-4BD4-8F83-76897CDF407D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{AB29C484-DCB9-4860-92D3-E77BCE0869E6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="2" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="2" activeTab="4" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH1006" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="184">
   <si>
     <t>terme.terme</t>
   </si>
@@ -63,9 +63,6 @@
     <t>INF4405</t>
   </si>
   <si>
-    <t>E-301</t>
-  </si>
-  <si>
     <t>MTH1110</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Z-032</t>
-  </si>
-  <si>
-    <t>ELE1300</t>
   </si>
   <si>
     <t>Cours</t>
@@ -114,37 +108,13 @@
     <t>MTH1115</t>
   </si>
   <si>
-    <t>SMC4562</t>
-  </si>
-  <si>
     <t>ELE1402</t>
   </si>
   <si>
     <t>CIV7911</t>
   </si>
   <si>
-    <t>ELE6423</t>
-  </si>
-  <si>
     <t>CY240</t>
-  </si>
-  <si>
-    <t>ELE4455</t>
-  </si>
-  <si>
-    <t>ELE2310</t>
-  </si>
-  <si>
-    <t>ELE6420</t>
-  </si>
-  <si>
-    <t>ELE3312</t>
-  </si>
-  <si>
-    <t>E-302</t>
-  </si>
-  <si>
-    <t>AR130</t>
   </si>
   <si>
     <t>R-110</t>
@@ -201,52 +171,7 @@
     <t>INF1005A</t>
   </si>
   <si>
-    <t>IND6912</t>
-  </si>
-  <si>
-    <t>GCH4150</t>
-  </si>
-  <si>
-    <t>IND1901</t>
-  </si>
-  <si>
-    <t>CIV6205</t>
-  </si>
-  <si>
-    <t>CIV6301</t>
-  </si>
-  <si>
-    <t>IND6914</t>
-  </si>
-  <si>
-    <t>SMC4560</t>
-  </si>
-  <si>
-    <t>SB320</t>
-  </si>
-  <si>
-    <t>SB120</t>
-  </si>
-  <si>
-    <t>INF8702</t>
-  </si>
-  <si>
     <t>GCH2120</t>
-  </si>
-  <si>
-    <t>CIV6302</t>
-  </si>
-  <si>
-    <t>CIV6210</t>
-  </si>
-  <si>
-    <t>IND7911</t>
-  </si>
-  <si>
-    <t>CIV2100</t>
-  </si>
-  <si>
-    <t>IND5115</t>
   </si>
   <si>
     <t>IND6212</t>
@@ -5638,7 +5563,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6234,7 +6159,7 @@
   <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6244,7 +6169,7 @@
   <sheetData>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -6266,7 +6191,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -6284,33 +6209,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -6336,22 +6261,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -6377,22 +6302,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -6418,22 +6343,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -6459,22 +6384,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -6516,6 +6441,30 @@
       </c>
       <c r="F11">
         <v>0.6</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(Table135[terme.terme])</f>
+        <v>4.2</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(Table135[tf.idf])</f>
+        <v>3.6</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(Table135[log.entropy])</f>
+        <v>4.2</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(Table135[lsa])</f>
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(Table135[lsa.ent])</f>
+        <v>2.6</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(Table135[lsa.tfidf])</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -6543,379 +6492,379 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6928,7 +6877,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6946,7 +6895,7 @@
     </row>
     <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6968,7 +6917,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -6986,33 +6935,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -7038,22 +6987,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -7079,22 +7028,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -7120,22 +7069,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -7161,22 +7110,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -7218,6 +7167,30 @@
       </c>
       <c r="F11">
         <v>0.2</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(Table137[terme.terme])</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(Table137[tf.idf])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(Table137[log.entropy])</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(Table137[lsa])</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(Table137[lsa.ent])</f>
+        <v>4.8</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(Table137[lsa.tfidf])</f>
+        <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7235,10 +7208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67507C4B-FE4A-4529-9CE9-3A2B1154733A}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7256,7 +7229,7 @@
     </row>
     <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7278,7 +7251,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -7296,33 +7269,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -7348,22 +7321,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -7389,22 +7362,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -7430,22 +7403,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -7471,22 +7444,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -7508,6 +7481,54 @@
       </c>
       <c r="N9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(Table139[terme.terme])</f>
+        <v>3.6</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(Table139[tf.idf])</f>
+        <v>2.4</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(Table139[log.entropy])</f>
+        <v>3.6</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(Table139[lsa])</f>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(Table139[lsa.ent])</f>
+        <v>1.4</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(Table139[lsa.tfidf])</f>
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <f>AVERAGE(Table139[Rang])</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7527,8 +7548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E557E0-1F20-4119-BBDF-3D1851626748}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7543,7 +7564,7 @@
     </row>
     <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7565,7 +7586,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -7583,51 +7604,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -7635,40 +7638,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -7676,40 +7661,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -7717,40 +7684,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -7758,40 +7707,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>182</v>
-      </c>
-      <c r="K9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -7814,8 +7745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A00B65-D8E2-42FE-8A66-5E573459333B}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7830,7 +7761,7 @@
     </row>
     <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -7852,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -7870,51 +7801,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -7922,40 +7835,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L6" t="s">
-        <v>189</v>
-      </c>
-      <c r="M6" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -7963,40 +7858,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -8004,40 +7881,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -8045,40 +7904,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" t="s">
-        <v>193</v>
-      </c>
-      <c r="M9" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -8128,7 +7969,7 @@
     </row>
     <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8150,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -8168,33 +8009,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -8202,22 +8043,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -8225,22 +8066,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -8248,22 +8089,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -8271,22 +8112,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -8322,22 +8163,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8349,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8370,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8391,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -8412,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -8437,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -8462,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -8483,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -8504,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -8525,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -8546,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -8567,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -8588,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -8609,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -8630,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -8651,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -8672,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -8693,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -8714,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -8735,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>9</v>
@@ -8756,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -8777,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8798,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -8819,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -8840,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -8861,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -8882,7 +8723,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -8903,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -8924,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -8945,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>9</v>
@@ -8966,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -8987,13 +8828,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -9008,13 +8849,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -9029,13 +8870,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -9050,13 +8891,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -9071,13 +8912,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -9092,13 +8933,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -9113,13 +8954,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -9134,13 +8975,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -9155,13 +8996,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -9176,13 +9017,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -9197,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -9218,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -9239,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -9260,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -9281,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -9302,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -9323,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -9344,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -9365,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -9386,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -9407,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -9428,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -9449,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -9470,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -9491,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -9512,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -9533,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -9554,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -9575,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -9596,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -9617,13 +9458,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -9638,13 +9479,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -9659,13 +9500,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -9680,13 +9521,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -9701,13 +9542,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -9722,13 +9563,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -9743,13 +9584,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -9764,13 +9605,13 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -9785,13 +9626,13 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F70">
         <v>3</v>
@@ -9806,13 +9647,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71">
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -9827,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -9848,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -9869,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -9890,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -9911,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -9932,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -9953,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>7</v>
@@ -9974,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -9995,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80">
         <v>9</v>
@@ -10016,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -10037,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -10058,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -10079,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -10100,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -10121,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -10142,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -10163,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>7</v>
@@ -10184,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -10205,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>9</v>
@@ -10226,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -10247,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -10268,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -10289,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -10310,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -10331,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -10352,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -10373,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>7</v>
@@ -10394,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -10415,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <v>9</v>
@@ -10436,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D101">
         <v>10</v>
@@ -10457,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -10478,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -10499,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -10520,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -10541,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -10562,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -10583,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>7</v>
@@ -10604,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -10625,7 +10466,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>9</v>
@@ -10646,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>10</v>
@@ -10667,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -10688,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -10709,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -10730,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -10751,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -10772,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>6</v>
@@ -10793,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>7</v>
@@ -10814,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D119">
         <v>8</v>
@@ -10835,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -10856,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>10</v>
@@ -10877,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -10898,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -10919,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -10940,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -10961,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -10982,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -11003,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D128">
         <v>7</v>
@@ -11024,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -11045,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -11066,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -11087,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -11108,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -11129,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -11150,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -11171,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D136">
         <v>5</v>
@@ -11192,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -11213,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D138">
         <v>7</v>
@@ -11234,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -11255,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D140">
         <v>9</v>
@@ -11276,7 +11117,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D141">
         <v>10</v>
@@ -11297,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -11318,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -11339,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -11360,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -11381,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -11402,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D147">
         <v>6</v>
@@ -11423,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D148">
         <v>7</v>
@@ -11444,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -11465,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D150">
         <v>9</v>
@@ -11486,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D151">
         <v>10</v>
@@ -11507,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -11528,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -11549,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -11570,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D155">
         <v>4</v>
@@ -11591,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D156">
         <v>5</v>
@@ -11612,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D157">
         <v>6</v>
@@ -11633,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -11654,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D159">
         <v>8</v>
@@ -11675,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D160">
         <v>9</v>
@@ -11696,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D161">
         <v>10</v>
@@ -11717,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -11738,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -11759,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -11780,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -11801,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -11822,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D167">
         <v>6</v>
@@ -11843,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D168">
         <v>7</v>
@@ -11864,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D169">
         <v>8</v>
@@ -11885,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D170">
         <v>9</v>
@@ -11906,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D171">
         <v>10</v>
@@ -11927,13 +11768,13 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F172">
         <v>3</v>
@@ -11948,13 +11789,13 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F173">
         <v>3</v>
@@ -11969,13 +11810,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F174">
         <v>3</v>
@@ -11990,13 +11831,13 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D175">
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -12011,13 +11852,13 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D176">
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -12032,13 +11873,13 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D177">
         <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -12053,13 +11894,13 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D178">
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -12074,13 +11915,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D179">
         <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F179">
         <v>5</v>
@@ -12095,13 +11936,13 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D180">
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F180">
         <v>4</v>
@@ -12116,13 +11957,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D181">
         <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F181">
         <v>3</v>
@@ -12137,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -12158,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -12179,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -12200,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D185">
         <v>4</v>
@@ -12221,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -12242,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D187">
         <v>6</v>
@@ -12263,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D188">
         <v>7</v>
@@ -12284,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D189">
         <v>8</v>
@@ -12305,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D190">
         <v>9</v>
@@ -12326,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D191">
         <v>10</v>
@@ -12347,13 +12188,13 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
         <v>19</v>
-      </c>
-      <c r="D192">
-        <v>1</v>
-      </c>
-      <c r="E192" t="s">
-        <v>21</v>
       </c>
       <c r="F192">
         <v>5</v>
@@ -12368,13 +12209,13 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
         <v>19</v>
-      </c>
-      <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="E193" t="s">
-        <v>21</v>
       </c>
       <c r="F193">
         <v>5</v>
@@ -12389,13 +12230,13 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
         <v>19</v>
-      </c>
-      <c r="D194">
-        <v>3</v>
-      </c>
-      <c r="E194" t="s">
-        <v>21</v>
       </c>
       <c r="F194">
         <v>5</v>
@@ -12410,13 +12251,13 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+      <c r="E195" t="s">
         <v>19</v>
-      </c>
-      <c r="D195">
-        <v>4</v>
-      </c>
-      <c r="E195" t="s">
-        <v>21</v>
       </c>
       <c r="F195">
         <v>5</v>
@@ -12431,13 +12272,13 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
         <v>19</v>
-      </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-      <c r="E196" t="s">
-        <v>21</v>
       </c>
       <c r="F196">
         <v>3</v>
@@ -12452,13 +12293,13 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D197">
         <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F197">
         <v>3</v>
@@ -12473,13 +12314,13 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D198">
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F198">
         <v>4</v>
@@ -12494,13 +12335,13 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D199">
         <v>8</v>
       </c>
       <c r="E199" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F199">
         <v>5</v>
@@ -12515,13 +12356,13 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D200">
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F200">
         <v>5</v>
@@ -12536,13 +12377,13 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D201">
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F201">
         <v>5</v>
@@ -12557,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -12578,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D203">
         <v>2</v>
@@ -12599,7 +12440,7 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -12620,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -12641,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D206">
         <v>5</v>
@@ -12662,7 +12503,7 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -12683,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D208">
         <v>7</v>
@@ -12704,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D209">
         <v>8</v>
@@ -12725,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D210">
         <v>9</v>
@@ -12746,7 +12587,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D211">
         <v>10</v>
@@ -12767,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -12788,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -12809,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -12830,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -12851,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D216">
         <v>5</v>
@@ -12872,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D217">
         <v>6</v>
@@ -12893,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D218">
         <v>7</v>
@@ -12914,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D219">
         <v>8</v>
@@ -12935,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D220">
         <v>9</v>
@@ -12956,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D221">
         <v>10</v>
@@ -12977,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -12998,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D223">
         <v>2</v>
@@ -13019,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -13040,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D225">
         <v>4</v>
@@ -13061,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D226">
         <v>5</v>
@@ -13082,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D227">
         <v>6</v>
@@ -13103,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D228">
         <v>7</v>
@@ -13124,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D229">
         <v>8</v>
@@ -13145,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D230">
         <v>9</v>
@@ -13166,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D231">
         <v>10</v>
@@ -13187,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -13208,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -13229,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D234">
         <v>3</v>
@@ -13250,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D235">
         <v>4</v>
@@ -13271,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D236">
         <v>5</v>
@@ -13292,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D237">
         <v>6</v>
@@ -13313,7 +13154,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D238">
         <v>7</v>
@@ -13334,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D239">
         <v>8</v>
@@ -13355,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D240">
         <v>9</v>
@@ -13376,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D241">
         <v>10</v>
@@ -13397,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -13418,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -13439,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -13460,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D245">
         <v>4</v>
@@ -13481,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D246">
         <v>5</v>
@@ -13502,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D247">
         <v>6</v>
@@ -13523,7 +13364,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D248">
         <v>7</v>
@@ -13544,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D249">
         <v>8</v>
@@ -13565,7 +13406,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D250">
         <v>9</v>
@@ -13586,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D251">
         <v>10</v>
@@ -13607,13 +13448,13 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -13628,13 +13469,13 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -13649,13 +13490,13 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D254">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -13670,13 +13511,13 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -13691,13 +13532,13 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D256">
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F256">
         <v>4</v>
@@ -13712,13 +13553,13 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D257">
         <v>6</v>
       </c>
       <c r="E257" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -13733,13 +13574,13 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D258">
         <v>7</v>
       </c>
       <c r="E258" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F258">
         <v>4</v>
@@ -13754,13 +13595,13 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D259">
         <v>8</v>
       </c>
       <c r="E259" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F259">
         <v>4</v>
@@ -13775,13 +13616,13 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D260">
         <v>9</v>
       </c>
       <c r="E260" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -13796,13 +13637,13 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D261">
         <v>10</v>
       </c>
       <c r="E261" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F261">
         <v>4</v>
@@ -13817,7 +13658,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -13838,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D263">
         <v>2</v>
@@ -13859,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -13880,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D265">
         <v>4</v>
@@ -13901,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D266">
         <v>5</v>
@@ -13922,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D267">
         <v>6</v>
@@ -13943,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D268">
         <v>7</v>
@@ -13964,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D269">
         <v>8</v>
@@ -13985,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D270">
         <v>9</v>
@@ -14006,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D271">
         <v>10</v>
@@ -14027,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -14048,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D273">
         <v>2</v>
@@ -14069,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D274">
         <v>3</v>
@@ -14090,7 +13931,7 @@
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D275">
         <v>4</v>
@@ -14111,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D276">
         <v>5</v>
@@ -14132,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D277">
         <v>6</v>
@@ -14153,7 +13994,7 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D278">
         <v>7</v>
@@ -14174,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D279">
         <v>8</v>
@@ -14195,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D280">
         <v>9</v>
@@ -14216,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D281">
         <v>10</v>
@@ -14237,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -14258,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -14279,7 +14120,7 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -14300,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D285">
         <v>4</v>
@@ -14321,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D286">
         <v>5</v>
@@ -14342,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D287">
         <v>6</v>
@@ -14363,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D288">
         <v>7</v>
@@ -14384,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D289">
         <v>8</v>
@@ -14405,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D290">
         <v>9</v>
@@ -14426,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D291">
         <v>10</v>
@@ -14447,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -14468,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -14489,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -14510,7 +14351,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D295">
         <v>4</v>
@@ -14531,7 +14372,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D296">
         <v>5</v>
@@ -14552,7 +14393,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D297">
         <v>6</v>
@@ -14573,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D298">
         <v>7</v>
@@ -14594,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D299">
         <v>8</v>
@@ -14615,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D300">
         <v>9</v>
@@ -14636,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D301">
         <v>10</v>
@@ -14657,7 +14498,7 @@
         <v>2</v>
       </c>
       <c r="C302" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -14678,7 +14519,7 @@
         <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -14699,7 +14540,7 @@
         <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -14720,7 +14561,7 @@
         <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D305">
         <v>4</v>
@@ -14741,7 +14582,7 @@
         <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D306">
         <v>5</v>
@@ -14762,7 +14603,7 @@
         <v>2</v>
       </c>
       <c r="C307" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D307">
         <v>6</v>
@@ -14783,7 +14624,7 @@
         <v>2</v>
       </c>
       <c r="C308" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D308">
         <v>7</v>
@@ -14804,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="C309" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D309">
         <v>8</v>
@@ -14825,7 +14666,7 @@
         <v>2</v>
       </c>
       <c r="C310" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D310">
         <v>9</v>
@@ -14846,7 +14687,7 @@
         <v>2</v>
       </c>
       <c r="C311" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D311">
         <v>10</v>
@@ -14867,7 +14708,7 @@
         <v>2</v>
       </c>
       <c r="C312" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -14888,7 +14729,7 @@
         <v>2</v>
       </c>
       <c r="C313" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D313">
         <v>2</v>
@@ -14909,7 +14750,7 @@
         <v>2</v>
       </c>
       <c r="C314" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D314">
         <v>3</v>
@@ -14930,7 +14771,7 @@
         <v>2</v>
       </c>
       <c r="C315" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D315">
         <v>4</v>
@@ -14951,7 +14792,7 @@
         <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D316">
         <v>5</v>
@@ -14972,7 +14813,7 @@
         <v>2</v>
       </c>
       <c r="C317" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D317">
         <v>6</v>
@@ -14993,7 +14834,7 @@
         <v>2</v>
       </c>
       <c r="C318" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D318">
         <v>7</v>
@@ -15014,7 +14855,7 @@
         <v>2</v>
       </c>
       <c r="C319" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D319">
         <v>8</v>
@@ -15035,7 +14876,7 @@
         <v>2</v>
       </c>
       <c r="C320" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D320">
         <v>9</v>
@@ -15056,7 +14897,7 @@
         <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D321">
         <v>10</v>
@@ -15077,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="C322" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -15098,7 +14939,7 @@
         <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -15119,7 +14960,7 @@
         <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D324">
         <v>3</v>
@@ -15140,7 +14981,7 @@
         <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D325">
         <v>4</v>
@@ -15161,7 +15002,7 @@
         <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D326">
         <v>5</v>
@@ -15182,7 +15023,7 @@
         <v>2</v>
       </c>
       <c r="C327" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D327">
         <v>6</v>
@@ -15203,7 +15044,7 @@
         <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D328">
         <v>7</v>
@@ -15224,7 +15065,7 @@
         <v>2</v>
       </c>
       <c r="C329" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D329">
         <v>8</v>
@@ -15245,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D330">
         <v>9</v>
@@ -15266,7 +15107,7 @@
         <v>2</v>
       </c>
       <c r="C331" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D331">
         <v>10</v>
@@ -15287,7 +15128,7 @@
         <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -15308,7 +15149,7 @@
         <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D333">
         <v>2</v>
@@ -15329,7 +15170,7 @@
         <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D334">
         <v>3</v>
@@ -15350,7 +15191,7 @@
         <v>2</v>
       </c>
       <c r="C335" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D335">
         <v>4</v>
@@ -15371,7 +15212,7 @@
         <v>2</v>
       </c>
       <c r="C336" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D336">
         <v>5</v>
@@ -15392,7 +15233,7 @@
         <v>2</v>
       </c>
       <c r="C337" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D337">
         <v>6</v>
@@ -15413,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="C338" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D338">
         <v>7</v>
@@ -15434,7 +15275,7 @@
         <v>2</v>
       </c>
       <c r="C339" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D339">
         <v>8</v>
@@ -15455,7 +15296,7 @@
         <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D340">
         <v>9</v>
@@ -15476,7 +15317,7 @@
         <v>2</v>
       </c>
       <c r="C341" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D341">
         <v>10</v>
@@ -15497,13 +15338,13 @@
         <v>2</v>
       </c>
       <c r="C342" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D342">
         <v>1</v>
       </c>
       <c r="E342" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -15518,13 +15359,13 @@
         <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D343">
         <v>2</v>
       </c>
       <c r="E343" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F343">
         <v>4</v>
@@ -15539,13 +15380,13 @@
         <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D344">
         <v>3</v>
       </c>
       <c r="E344" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F344">
         <v>5</v>
@@ -15560,13 +15401,13 @@
         <v>2</v>
       </c>
       <c r="C345" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D345">
         <v>4</v>
       </c>
       <c r="E345" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F345">
         <v>5</v>
@@ -15581,13 +15422,13 @@
         <v>2</v>
       </c>
       <c r="C346" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D346">
         <v>5</v>
       </c>
       <c r="E346" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F346">
         <v>5</v>
@@ -15602,13 +15443,13 @@
         <v>2</v>
       </c>
       <c r="C347" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D347">
         <v>6</v>
       </c>
       <c r="E347" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F347">
         <v>5</v>
@@ -15623,13 +15464,13 @@
         <v>2</v>
       </c>
       <c r="C348" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D348">
         <v>7</v>
       </c>
       <c r="E348" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F348">
         <v>5</v>
@@ -15644,13 +15485,13 @@
         <v>2</v>
       </c>
       <c r="C349" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D349">
         <v>8</v>
       </c>
       <c r="E349" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -15665,13 +15506,13 @@
         <v>2</v>
       </c>
       <c r="C350" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D350">
         <v>9</v>
       </c>
       <c r="E350" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F350">
         <v>5</v>
@@ -15686,13 +15527,13 @@
         <v>2</v>
       </c>
       <c r="C351" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D351">
         <v>10</v>
       </c>
       <c r="E351" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F351">
         <v>2</v>
@@ -15707,7 +15548,7 @@
         <v>2</v>
       </c>
       <c r="C352" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -15728,7 +15569,7 @@
         <v>2</v>
       </c>
       <c r="C353" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -15749,7 +15590,7 @@
         <v>2</v>
       </c>
       <c r="C354" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D354">
         <v>3</v>
@@ -15770,7 +15611,7 @@
         <v>2</v>
       </c>
       <c r="C355" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D355">
         <v>4</v>
@@ -15791,7 +15632,7 @@
         <v>2</v>
       </c>
       <c r="C356" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D356">
         <v>5</v>
@@ -15812,7 +15653,7 @@
         <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D357">
         <v>6</v>
@@ -15833,7 +15674,7 @@
         <v>2</v>
       </c>
       <c r="C358" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D358">
         <v>7</v>
@@ -15854,7 +15695,7 @@
         <v>2</v>
       </c>
       <c r="C359" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D359">
         <v>8</v>
@@ -15875,7 +15716,7 @@
         <v>2</v>
       </c>
       <c r="C360" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D360">
         <v>9</v>
@@ -15896,7 +15737,7 @@
         <v>2</v>
       </c>
       <c r="C361" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D361">
         <v>10</v>
@@ -15917,7 +15758,7 @@
         <v>2</v>
       </c>
       <c r="C362" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -15938,7 +15779,7 @@
         <v>2</v>
       </c>
       <c r="C363" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D363">
         <v>2</v>
@@ -15959,7 +15800,7 @@
         <v>2</v>
       </c>
       <c r="C364" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D364">
         <v>3</v>
@@ -15980,7 +15821,7 @@
         <v>2</v>
       </c>
       <c r="C365" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D365">
         <v>4</v>
@@ -16001,7 +15842,7 @@
         <v>2</v>
       </c>
       <c r="C366" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D366">
         <v>5</v>
@@ -16022,7 +15863,7 @@
         <v>2</v>
       </c>
       <c r="C367" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D367">
         <v>6</v>
@@ -16043,7 +15884,7 @@
         <v>2</v>
       </c>
       <c r="C368" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D368">
         <v>7</v>
@@ -16064,7 +15905,7 @@
         <v>2</v>
       </c>
       <c r="C369" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D369">
         <v>8</v>
@@ -16085,7 +15926,7 @@
         <v>2</v>
       </c>
       <c r="C370" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D370">
         <v>9</v>
@@ -16106,7 +15947,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D371">
         <v>10</v>
@@ -16127,7 +15968,7 @@
         <v>2</v>
       </c>
       <c r="C372" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -16148,7 +15989,7 @@
         <v>2</v>
       </c>
       <c r="C373" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D373">
         <v>2</v>
@@ -16169,7 +16010,7 @@
         <v>2</v>
       </c>
       <c r="C374" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -16190,7 +16031,7 @@
         <v>2</v>
       </c>
       <c r="C375" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D375">
         <v>4</v>
@@ -16211,7 +16052,7 @@
         <v>2</v>
       </c>
       <c r="C376" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D376">
         <v>5</v>
@@ -16232,7 +16073,7 @@
         <v>2</v>
       </c>
       <c r="C377" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D377">
         <v>6</v>
@@ -16253,7 +16094,7 @@
         <v>2</v>
       </c>
       <c r="C378" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D378">
         <v>7</v>
@@ -16274,7 +16115,7 @@
         <v>2</v>
       </c>
       <c r="C379" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D379">
         <v>8</v>
@@ -16295,7 +16136,7 @@
         <v>2</v>
       </c>
       <c r="C380" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D380">
         <v>9</v>
@@ -16316,7 +16157,7 @@
         <v>2</v>
       </c>
       <c r="C381" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D381">
         <v>10</v>
@@ -16337,7 +16178,7 @@
         <v>2</v>
       </c>
       <c r="C382" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -16358,7 +16199,7 @@
         <v>2</v>
       </c>
       <c r="C383" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D383">
         <v>2</v>
@@ -16379,7 +16220,7 @@
         <v>2</v>
       </c>
       <c r="C384" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D384">
         <v>3</v>
@@ -16400,7 +16241,7 @@
         <v>2</v>
       </c>
       <c r="C385" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D385">
         <v>4</v>
@@ -16421,7 +16262,7 @@
         <v>2</v>
       </c>
       <c r="C386" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D386">
         <v>5</v>
@@ -16442,7 +16283,7 @@
         <v>2</v>
       </c>
       <c r="C387" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D387">
         <v>6</v>
@@ -16463,7 +16304,7 @@
         <v>2</v>
       </c>
       <c r="C388" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D388">
         <v>7</v>
@@ -16484,7 +16325,7 @@
         <v>2</v>
       </c>
       <c r="C389" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D389">
         <v>8</v>
@@ -16505,7 +16346,7 @@
         <v>2</v>
       </c>
       <c r="C390" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D390">
         <v>9</v>
@@ -16526,7 +16367,7 @@
         <v>2</v>
       </c>
       <c r="C391" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D391">
         <v>10</v>
@@ -16547,7 +16388,7 @@
         <v>2</v>
       </c>
       <c r="C392" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -16568,7 +16409,7 @@
         <v>2</v>
       </c>
       <c r="C393" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D393">
         <v>2</v>
@@ -16589,7 +16430,7 @@
         <v>2</v>
       </c>
       <c r="C394" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D394">
         <v>3</v>
@@ -16610,7 +16451,7 @@
         <v>2</v>
       </c>
       <c r="C395" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D395">
         <v>4</v>
@@ -16631,7 +16472,7 @@
         <v>2</v>
       </c>
       <c r="C396" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D396">
         <v>5</v>
@@ -16652,7 +16493,7 @@
         <v>2</v>
       </c>
       <c r="C397" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D397">
         <v>6</v>
@@ -16673,7 +16514,7 @@
         <v>2</v>
       </c>
       <c r="C398" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D398">
         <v>7</v>
@@ -16694,7 +16535,7 @@
         <v>2</v>
       </c>
       <c r="C399" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D399">
         <v>8</v>
@@ -16715,7 +16556,7 @@
         <v>2</v>
       </c>
       <c r="C400" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D400">
         <v>9</v>
@@ -16736,7 +16577,7 @@
         <v>2</v>
       </c>
       <c r="C401" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D401">
         <v>10</v>
@@ -16757,13 +16598,13 @@
         <v>2</v>
       </c>
       <c r="C402" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D402">
         <v>1</v>
       </c>
       <c r="E402" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F402">
         <v>2</v>
@@ -16778,13 +16619,13 @@
         <v>2</v>
       </c>
       <c r="C403" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D403">
         <v>2</v>
       </c>
       <c r="E403" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F403">
         <v>5</v>
@@ -16799,13 +16640,13 @@
         <v>2</v>
       </c>
       <c r="C404" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D404">
         <v>3</v>
       </c>
       <c r="E404" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F404">
         <v>2</v>
@@ -16820,13 +16661,13 @@
         <v>2</v>
       </c>
       <c r="C405" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D405">
         <v>4</v>
       </c>
       <c r="E405" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F405">
         <v>5</v>
@@ -16841,13 +16682,13 @@
         <v>2</v>
       </c>
       <c r="C406" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D406">
         <v>5</v>
       </c>
       <c r="E406" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F406">
         <v>5</v>
@@ -16862,13 +16703,13 @@
         <v>2</v>
       </c>
       <c r="C407" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D407">
         <v>6</v>
       </c>
       <c r="E407" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F407">
         <v>1</v>
@@ -16883,13 +16724,13 @@
         <v>2</v>
       </c>
       <c r="C408" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D408">
         <v>7</v>
       </c>
       <c r="E408" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F408">
         <v>5</v>
@@ -16904,13 +16745,13 @@
         <v>2</v>
       </c>
       <c r="C409" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D409">
         <v>8</v>
       </c>
       <c r="E409" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F409">
         <v>2</v>
@@ -16925,13 +16766,13 @@
         <v>2</v>
       </c>
       <c r="C410" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D410">
         <v>9</v>
       </c>
       <c r="E410" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F410">
         <v>2</v>
@@ -16946,13 +16787,13 @@
         <v>2</v>
       </c>
       <c r="C411" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D411">
         <v>10</v>
       </c>
       <c r="E411" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -16967,7 +16808,7 @@
         <v>2</v>
       </c>
       <c r="C412" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -16988,7 +16829,7 @@
         <v>2</v>
       </c>
       <c r="C413" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D413">
         <v>2</v>
@@ -17009,7 +16850,7 @@
         <v>2</v>
       </c>
       <c r="C414" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D414">
         <v>3</v>
@@ -17030,7 +16871,7 @@
         <v>2</v>
       </c>
       <c r="C415" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D415">
         <v>4</v>
@@ -17051,7 +16892,7 @@
         <v>2</v>
       </c>
       <c r="C416" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D416">
         <v>5</v>
@@ -17072,7 +16913,7 @@
         <v>2</v>
       </c>
       <c r="C417" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D417">
         <v>6</v>
@@ -17093,7 +16934,7 @@
         <v>2</v>
       </c>
       <c r="C418" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D418">
         <v>7</v>
@@ -17114,7 +16955,7 @@
         <v>2</v>
       </c>
       <c r="C419" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D419">
         <v>8</v>
@@ -17135,7 +16976,7 @@
         <v>2</v>
       </c>
       <c r="C420" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D420">
         <v>9</v>
@@ -17156,7 +16997,7 @@
         <v>2</v>
       </c>
       <c r="C421" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D421">
         <v>10</v>
@@ -17177,7 +17018,7 @@
         <v>2</v>
       </c>
       <c r="C422" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -17198,7 +17039,7 @@
         <v>2</v>
       </c>
       <c r="C423" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D423">
         <v>2</v>
@@ -17219,7 +17060,7 @@
         <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D424">
         <v>3</v>
@@ -17240,7 +17081,7 @@
         <v>2</v>
       </c>
       <c r="C425" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D425">
         <v>4</v>
@@ -17261,7 +17102,7 @@
         <v>2</v>
       </c>
       <c r="C426" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D426">
         <v>5</v>
@@ -17282,7 +17123,7 @@
         <v>2</v>
       </c>
       <c r="C427" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D427">
         <v>6</v>
@@ -17303,7 +17144,7 @@
         <v>2</v>
       </c>
       <c r="C428" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D428">
         <v>7</v>
@@ -17324,7 +17165,7 @@
         <v>2</v>
       </c>
       <c r="C429" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D429">
         <v>8</v>
@@ -17345,7 +17186,7 @@
         <v>2</v>
       </c>
       <c r="C430" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D430">
         <v>9</v>
@@ -17366,7 +17207,7 @@
         <v>2</v>
       </c>
       <c r="C431" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D431">
         <v>10</v>
@@ -17387,7 +17228,7 @@
         <v>2</v>
       </c>
       <c r="C432" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -17408,7 +17249,7 @@
         <v>2</v>
       </c>
       <c r="C433" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D433">
         <v>2</v>
@@ -17429,7 +17270,7 @@
         <v>2</v>
       </c>
       <c r="C434" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D434">
         <v>3</v>
@@ -17450,7 +17291,7 @@
         <v>2</v>
       </c>
       <c r="C435" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D435">
         <v>4</v>
@@ -17471,7 +17312,7 @@
         <v>2</v>
       </c>
       <c r="C436" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D436">
         <v>5</v>
@@ -17492,7 +17333,7 @@
         <v>2</v>
       </c>
       <c r="C437" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D437">
         <v>6</v>
@@ -17513,7 +17354,7 @@
         <v>2</v>
       </c>
       <c r="C438" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D438">
         <v>7</v>
@@ -17534,7 +17375,7 @@
         <v>2</v>
       </c>
       <c r="C439" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D439">
         <v>8</v>
@@ -17555,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="C440" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D440">
         <v>9</v>
@@ -17576,7 +17417,7 @@
         <v>2</v>
       </c>
       <c r="C441" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D441">
         <v>10</v>
@@ -17597,7 +17438,7 @@
         <v>2</v>
       </c>
       <c r="C442" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -17618,7 +17459,7 @@
         <v>2</v>
       </c>
       <c r="C443" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D443">
         <v>2</v>
@@ -17639,7 +17480,7 @@
         <v>2</v>
       </c>
       <c r="C444" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D444">
         <v>3</v>
@@ -17660,7 +17501,7 @@
         <v>2</v>
       </c>
       <c r="C445" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D445">
         <v>4</v>
@@ -17681,7 +17522,7 @@
         <v>2</v>
       </c>
       <c r="C446" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D446">
         <v>5</v>
@@ -17702,7 +17543,7 @@
         <v>2</v>
       </c>
       <c r="C447" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D447">
         <v>6</v>
@@ -17723,7 +17564,7 @@
         <v>2</v>
       </c>
       <c r="C448" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D448">
         <v>7</v>
@@ -17744,7 +17585,7 @@
         <v>2</v>
       </c>
       <c r="C449" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D449">
         <v>8</v>
@@ -17765,7 +17606,7 @@
         <v>2</v>
       </c>
       <c r="C450" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D450">
         <v>9</v>
@@ -17786,7 +17627,7 @@
         <v>2</v>
       </c>
       <c r="C451" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D451">
         <v>10</v>
@@ -17807,7 +17648,7 @@
         <v>2</v>
       </c>
       <c r="C452" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -17828,7 +17669,7 @@
         <v>2</v>
       </c>
       <c r="C453" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D453">
         <v>2</v>
@@ -17849,7 +17690,7 @@
         <v>2</v>
       </c>
       <c r="C454" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D454">
         <v>3</v>
@@ -17870,7 +17711,7 @@
         <v>2</v>
       </c>
       <c r="C455" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D455">
         <v>4</v>
@@ -17891,7 +17732,7 @@
         <v>2</v>
       </c>
       <c r="C456" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D456">
         <v>5</v>
@@ -17912,7 +17753,7 @@
         <v>2</v>
       </c>
       <c r="C457" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D457">
         <v>6</v>
@@ -17933,7 +17774,7 @@
         <v>2</v>
       </c>
       <c r="C458" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D458">
         <v>7</v>
@@ -17954,7 +17795,7 @@
         <v>2</v>
       </c>
       <c r="C459" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D459">
         <v>8</v>
@@ -17975,7 +17816,7 @@
         <v>2</v>
       </c>
       <c r="C460" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D460">
         <v>9</v>
@@ -17996,7 +17837,7 @@
         <v>2</v>
       </c>
       <c r="C461" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D461">
         <v>10</v>
@@ -18017,13 +17858,13 @@
         <v>2</v>
       </c>
       <c r="C462" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D462">
         <v>1</v>
       </c>
       <c r="E462" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F462">
         <v>3</v>
@@ -18038,13 +17879,13 @@
         <v>2</v>
       </c>
       <c r="C463" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D463">
         <v>2</v>
       </c>
       <c r="E463" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F463">
         <v>1</v>
@@ -18059,13 +17900,13 @@
         <v>2</v>
       </c>
       <c r="C464" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D464">
         <v>3</v>
       </c>
       <c r="E464" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F464">
         <v>3</v>
@@ -18080,13 +17921,13 @@
         <v>2</v>
       </c>
       <c r="C465" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D465">
         <v>4</v>
       </c>
       <c r="E465" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F465">
         <v>2</v>
@@ -18101,13 +17942,13 @@
         <v>2</v>
       </c>
       <c r="C466" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D466">
         <v>5</v>
       </c>
       <c r="E466" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F466">
         <v>1</v>
@@ -18122,13 +17963,13 @@
         <v>2</v>
       </c>
       <c r="C467" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D467">
         <v>6</v>
       </c>
       <c r="E467" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F467">
         <v>3</v>
@@ -18143,13 +17984,13 @@
         <v>2</v>
       </c>
       <c r="C468" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D468">
         <v>7</v>
       </c>
       <c r="E468" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F468">
         <v>3</v>
@@ -18164,13 +18005,13 @@
         <v>2</v>
       </c>
       <c r="C469" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D469">
         <v>8</v>
       </c>
       <c r="E469" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F469">
         <v>2</v>
@@ -18185,13 +18026,13 @@
         <v>2</v>
       </c>
       <c r="C470" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D470">
         <v>9</v>
       </c>
       <c r="E470" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F470">
         <v>3</v>
@@ -18206,13 +18047,13 @@
         <v>2</v>
       </c>
       <c r="C471" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D471">
         <v>10</v>
       </c>
       <c r="E471" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F471">
         <v>3</v>
@@ -18227,7 +18068,7 @@
         <v>2</v>
       </c>
       <c r="C472" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -18248,7 +18089,7 @@
         <v>2</v>
       </c>
       <c r="C473" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D473">
         <v>2</v>
@@ -18269,7 +18110,7 @@
         <v>2</v>
       </c>
       <c r="C474" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D474">
         <v>3</v>
@@ -18290,7 +18131,7 @@
         <v>2</v>
       </c>
       <c r="C475" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D475">
         <v>4</v>
@@ -18311,7 +18152,7 @@
         <v>2</v>
       </c>
       <c r="C476" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D476">
         <v>5</v>
@@ -18332,7 +18173,7 @@
         <v>2</v>
       </c>
       <c r="C477" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D477">
         <v>6</v>
@@ -18353,7 +18194,7 @@
         <v>2</v>
       </c>
       <c r="C478" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D478">
         <v>7</v>
@@ -18374,7 +18215,7 @@
         <v>2</v>
       </c>
       <c r="C479" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D479">
         <v>8</v>
@@ -18395,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="C480" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D480">
         <v>9</v>
@@ -18416,7 +18257,7 @@
         <v>2</v>
       </c>
       <c r="C481" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D481">
         <v>10</v>
@@ -18437,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="C482" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -18458,7 +18299,7 @@
         <v>2</v>
       </c>
       <c r="C483" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D483">
         <v>2</v>
@@ -18479,7 +18320,7 @@
         <v>2</v>
       </c>
       <c r="C484" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D484">
         <v>3</v>
@@ -18500,7 +18341,7 @@
         <v>2</v>
       </c>
       <c r="C485" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D485">
         <v>4</v>
@@ -18521,7 +18362,7 @@
         <v>2</v>
       </c>
       <c r="C486" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D486">
         <v>5</v>
@@ -18542,7 +18383,7 @@
         <v>2</v>
       </c>
       <c r="C487" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D487">
         <v>6</v>
@@ -18563,7 +18404,7 @@
         <v>2</v>
       </c>
       <c r="C488" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D488">
         <v>7</v>
@@ -18584,7 +18425,7 @@
         <v>2</v>
       </c>
       <c r="C489" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D489">
         <v>8</v>
@@ -18605,7 +18446,7 @@
         <v>2</v>
       </c>
       <c r="C490" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D490">
         <v>9</v>
@@ -18626,7 +18467,7 @@
         <v>2</v>
       </c>
       <c r="C491" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D491">
         <v>10</v>
@@ -18647,7 +18488,7 @@
         <v>2</v>
       </c>
       <c r="C492" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -18668,7 +18509,7 @@
         <v>2</v>
       </c>
       <c r="C493" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D493">
         <v>2</v>
@@ -18689,7 +18530,7 @@
         <v>2</v>
       </c>
       <c r="C494" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D494">
         <v>3</v>
@@ -18710,7 +18551,7 @@
         <v>2</v>
       </c>
       <c r="C495" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D495">
         <v>4</v>
@@ -18731,7 +18572,7 @@
         <v>2</v>
       </c>
       <c r="C496" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D496">
         <v>5</v>
@@ -18752,7 +18593,7 @@
         <v>2</v>
       </c>
       <c r="C497" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D497">
         <v>6</v>
@@ -18773,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="C498" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D498">
         <v>7</v>
@@ -18794,7 +18635,7 @@
         <v>2</v>
       </c>
       <c r="C499" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D499">
         <v>8</v>
@@ -18815,7 +18656,7 @@
         <v>2</v>
       </c>
       <c r="C500" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D500">
         <v>9</v>
@@ -18836,7 +18677,7 @@
         <v>2</v>
       </c>
       <c r="C501" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D501">
         <v>10</v>
@@ -18857,7 +18698,7 @@
         <v>2</v>
       </c>
       <c r="C502" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -18878,7 +18719,7 @@
         <v>2</v>
       </c>
       <c r="C503" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D503">
         <v>2</v>
@@ -18899,7 +18740,7 @@
         <v>2</v>
       </c>
       <c r="C504" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D504">
         <v>3</v>
@@ -18920,7 +18761,7 @@
         <v>2</v>
       </c>
       <c r="C505" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D505">
         <v>4</v>
@@ -18941,7 +18782,7 @@
         <v>2</v>
       </c>
       <c r="C506" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D506">
         <v>5</v>
@@ -18962,7 +18803,7 @@
         <v>2</v>
       </c>
       <c r="C507" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D507">
         <v>6</v>
@@ -18983,7 +18824,7 @@
         <v>2</v>
       </c>
       <c r="C508" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D508">
         <v>7</v>
@@ -19004,7 +18845,7 @@
         <v>2</v>
       </c>
       <c r="C509" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D509">
         <v>8</v>
@@ -19025,7 +18866,7 @@
         <v>2</v>
       </c>
       <c r="C510" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D510">
         <v>9</v>
@@ -19046,7 +18887,7 @@
         <v>2</v>
       </c>
       <c r="C511" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D511">
         <v>10</v>
@@ -19067,7 +18908,7 @@
         <v>2</v>
       </c>
       <c r="C512" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -19088,7 +18929,7 @@
         <v>2</v>
       </c>
       <c r="C513" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D513">
         <v>2</v>
@@ -19109,7 +18950,7 @@
         <v>2</v>
       </c>
       <c r="C514" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D514">
         <v>3</v>
@@ -19130,7 +18971,7 @@
         <v>2</v>
       </c>
       <c r="C515" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D515">
         <v>4</v>
@@ -19151,7 +18992,7 @@
         <v>2</v>
       </c>
       <c r="C516" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D516">
         <v>5</v>
@@ -19172,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="C517" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D517">
         <v>6</v>
@@ -19193,7 +19034,7 @@
         <v>2</v>
       </c>
       <c r="C518" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D518">
         <v>7</v>
@@ -19214,7 +19055,7 @@
         <v>2</v>
       </c>
       <c r="C519" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D519">
         <v>8</v>
@@ -19235,7 +19076,7 @@
         <v>2</v>
       </c>
       <c r="C520" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D520">
         <v>9</v>
@@ -19256,7 +19097,7 @@
         <v>2</v>
       </c>
       <c r="C521" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D521">
         <v>10</v>
@@ -19277,13 +19118,13 @@
         <v>2</v>
       </c>
       <c r="C522" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D522">
         <v>1</v>
       </c>
       <c r="E522" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F522">
         <v>3</v>
@@ -19298,13 +19139,13 @@
         <v>2</v>
       </c>
       <c r="C523" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D523">
         <v>2</v>
       </c>
       <c r="E523" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F523">
         <v>2</v>
@@ -19319,13 +19160,13 @@
         <v>2</v>
       </c>
       <c r="C524" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D524">
         <v>3</v>
       </c>
       <c r="E524" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F524">
         <v>1</v>
@@ -19340,13 +19181,13 @@
         <v>2</v>
       </c>
       <c r="C525" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D525">
         <v>4</v>
       </c>
       <c r="E525" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F525">
         <v>1</v>
@@ -19361,13 +19202,13 @@
         <v>2</v>
       </c>
       <c r="C526" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D526">
         <v>5</v>
       </c>
       <c r="E526" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F526">
         <v>4</v>
@@ -19382,13 +19223,13 @@
         <v>2</v>
       </c>
       <c r="C527" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D527">
         <v>6</v>
       </c>
       <c r="E527" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F527">
         <v>1</v>
@@ -19403,13 +19244,13 @@
         <v>2</v>
       </c>
       <c r="C528" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D528">
         <v>7</v>
       </c>
       <c r="E528" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F528">
         <v>3</v>
@@ -19424,13 +19265,13 @@
         <v>2</v>
       </c>
       <c r="C529" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D529">
         <v>8</v>
       </c>
       <c r="E529" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F529">
         <v>1</v>
@@ -19445,13 +19286,13 @@
         <v>2</v>
       </c>
       <c r="C530" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D530">
         <v>9</v>
       </c>
       <c r="E530" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F530">
         <v>4</v>
@@ -19466,13 +19307,13 @@
         <v>2</v>
       </c>
       <c r="C531" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D531">
         <v>10</v>
       </c>
       <c r="E531" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F531">
         <v>5</v>
@@ -19487,7 +19328,7 @@
         <v>2</v>
       </c>
       <c r="C532" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D532">
         <v>1</v>
@@ -19508,7 +19349,7 @@
         <v>2</v>
       </c>
       <c r="C533" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D533">
         <v>2</v>
@@ -19529,7 +19370,7 @@
         <v>2</v>
       </c>
       <c r="C534" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D534">
         <v>3</v>
@@ -19550,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="C535" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D535">
         <v>4</v>
@@ -19571,7 +19412,7 @@
         <v>2</v>
       </c>
       <c r="C536" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D536">
         <v>5</v>
@@ -19592,7 +19433,7 @@
         <v>2</v>
       </c>
       <c r="C537" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D537">
         <v>6</v>
@@ -19613,7 +19454,7 @@
         <v>2</v>
       </c>
       <c r="C538" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D538">
         <v>7</v>
@@ -19634,7 +19475,7 @@
         <v>2</v>
       </c>
       <c r="C539" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D539">
         <v>8</v>
@@ -19655,7 +19496,7 @@
         <v>2</v>
       </c>
       <c r="C540" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D540">
         <v>9</v>
@@ -19676,7 +19517,7 @@
         <v>2</v>
       </c>
       <c r="C541" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D541">
         <v>10</v>
@@ -19697,7 +19538,7 @@
         <v>2</v>
       </c>
       <c r="C542" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -19718,7 +19559,7 @@
         <v>2</v>
       </c>
       <c r="C543" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D543">
         <v>2</v>
@@ -19739,7 +19580,7 @@
         <v>2</v>
       </c>
       <c r="C544" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D544">
         <v>3</v>
@@ -19760,7 +19601,7 @@
         <v>2</v>
       </c>
       <c r="C545" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D545">
         <v>4</v>
@@ -19781,7 +19622,7 @@
         <v>2</v>
       </c>
       <c r="C546" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D546">
         <v>5</v>
@@ -19802,7 +19643,7 @@
         <v>2</v>
       </c>
       <c r="C547" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D547">
         <v>6</v>
@@ -19823,7 +19664,7 @@
         <v>2</v>
       </c>
       <c r="C548" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D548">
         <v>7</v>
@@ -19844,7 +19685,7 @@
         <v>2</v>
       </c>
       <c r="C549" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D549">
         <v>8</v>
@@ -19865,7 +19706,7 @@
         <v>2</v>
       </c>
       <c r="C550" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D550">
         <v>9</v>
@@ -19886,7 +19727,7 @@
         <v>2</v>
       </c>
       <c r="C551" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D551">
         <v>10</v>
@@ -19907,7 +19748,7 @@
         <v>2</v>
       </c>
       <c r="C552" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -19928,7 +19769,7 @@
         <v>2</v>
       </c>
       <c r="C553" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D553">
         <v>2</v>
@@ -19949,7 +19790,7 @@
         <v>2</v>
       </c>
       <c r="C554" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D554">
         <v>3</v>
@@ -19970,7 +19811,7 @@
         <v>2</v>
       </c>
       <c r="C555" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D555">
         <v>4</v>
@@ -19991,7 +19832,7 @@
         <v>2</v>
       </c>
       <c r="C556" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D556">
         <v>5</v>
@@ -20012,7 +19853,7 @@
         <v>2</v>
       </c>
       <c r="C557" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D557">
         <v>6</v>
@@ -20033,7 +19874,7 @@
         <v>2</v>
       </c>
       <c r="C558" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D558">
         <v>7</v>
@@ -20054,7 +19895,7 @@
         <v>2</v>
       </c>
       <c r="C559" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D559">
         <v>8</v>
@@ -20075,7 +19916,7 @@
         <v>2</v>
       </c>
       <c r="C560" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D560">
         <v>9</v>
@@ -20096,7 +19937,7 @@
         <v>2</v>
       </c>
       <c r="C561" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D561">
         <v>10</v>
@@ -20117,7 +19958,7 @@
         <v>2</v>
       </c>
       <c r="C562" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D562">
         <v>1</v>
@@ -20138,7 +19979,7 @@
         <v>2</v>
       </c>
       <c r="C563" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D563">
         <v>2</v>
@@ -20159,7 +20000,7 @@
         <v>2</v>
       </c>
       <c r="C564" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D564">
         <v>3</v>
@@ -20180,7 +20021,7 @@
         <v>2</v>
       </c>
       <c r="C565" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D565">
         <v>4</v>
@@ -20201,7 +20042,7 @@
         <v>2</v>
       </c>
       <c r="C566" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D566">
         <v>5</v>
@@ -20222,7 +20063,7 @@
         <v>2</v>
       </c>
       <c r="C567" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D567">
         <v>6</v>
@@ -20243,7 +20084,7 @@
         <v>2</v>
       </c>
       <c r="C568" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D568">
         <v>7</v>
@@ -20264,7 +20105,7 @@
         <v>2</v>
       </c>
       <c r="C569" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D569">
         <v>8</v>
@@ -20285,7 +20126,7 @@
         <v>2</v>
       </c>
       <c r="C570" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D570">
         <v>9</v>
@@ -20306,7 +20147,7 @@
         <v>2</v>
       </c>
       <c r="C571" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D571">
         <v>10</v>
@@ -20327,7 +20168,7 @@
         <v>2</v>
       </c>
       <c r="C572" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D572">
         <v>1</v>
@@ -20348,7 +20189,7 @@
         <v>2</v>
       </c>
       <c r="C573" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D573">
         <v>2</v>
@@ -20369,7 +20210,7 @@
         <v>2</v>
       </c>
       <c r="C574" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D574">
         <v>3</v>
@@ -20390,7 +20231,7 @@
         <v>2</v>
       </c>
       <c r="C575" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D575">
         <v>4</v>
@@ -20411,7 +20252,7 @@
         <v>2</v>
       </c>
       <c r="C576" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D576">
         <v>5</v>
@@ -20432,7 +20273,7 @@
         <v>2</v>
       </c>
       <c r="C577" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D577">
         <v>6</v>
@@ -20453,7 +20294,7 @@
         <v>2</v>
       </c>
       <c r="C578" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D578">
         <v>7</v>
@@ -20474,7 +20315,7 @@
         <v>2</v>
       </c>
       <c r="C579" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D579">
         <v>8</v>
@@ -20495,7 +20336,7 @@
         <v>2</v>
       </c>
       <c r="C580" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D580">
         <v>9</v>
@@ -20516,7 +20357,7 @@
         <v>2</v>
       </c>
       <c r="C581" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D581">
         <v>10</v>
@@ -20537,13 +20378,13 @@
         <v>2</v>
       </c>
       <c r="C582" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D582">
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F582">
         <v>4</v>
@@ -20558,13 +20399,13 @@
         <v>2</v>
       </c>
       <c r="C583" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D583">
         <v>2</v>
       </c>
       <c r="E583" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F583">
         <v>5</v>
@@ -20579,13 +20420,13 @@
         <v>2</v>
       </c>
       <c r="C584" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D584">
         <v>3</v>
       </c>
       <c r="E584" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F584">
         <v>3</v>
@@ -20600,13 +20441,13 @@
         <v>2</v>
       </c>
       <c r="C585" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D585">
         <v>4</v>
       </c>
       <c r="E585" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F585">
         <v>4</v>
@@ -20621,13 +20462,13 @@
         <v>2</v>
       </c>
       <c r="C586" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D586">
         <v>5</v>
       </c>
       <c r="E586" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F586">
         <v>1</v>
@@ -20642,13 +20483,13 @@
         <v>2</v>
       </c>
       <c r="C587" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D587">
         <v>6</v>
       </c>
       <c r="E587" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F587">
         <v>2</v>
@@ -20663,13 +20504,13 @@
         <v>2</v>
       </c>
       <c r="C588" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D588">
         <v>7</v>
       </c>
       <c r="E588" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F588">
         <v>2</v>
@@ -20684,13 +20525,13 @@
         <v>2</v>
       </c>
       <c r="C589" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D589">
         <v>8</v>
       </c>
       <c r="E589" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F589">
         <v>5</v>
@@ -20705,13 +20546,13 @@
         <v>2</v>
       </c>
       <c r="C590" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D590">
         <v>9</v>
       </c>
       <c r="E590" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F590">
         <v>1</v>
@@ -20726,13 +20567,13 @@
         <v>2</v>
       </c>
       <c r="C591" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D591">
         <v>10</v>
       </c>
       <c r="E591" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F591">
         <v>5</v>
@@ -20747,7 +20588,7 @@
         <v>2</v>
       </c>
       <c r="C592" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D592">
         <v>1</v>
@@ -20768,7 +20609,7 @@
         <v>2</v>
       </c>
       <c r="C593" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D593">
         <v>2</v>
@@ -20789,7 +20630,7 @@
         <v>2</v>
       </c>
       <c r="C594" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D594">
         <v>3</v>
@@ -20810,7 +20651,7 @@
         <v>2</v>
       </c>
       <c r="C595" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D595">
         <v>4</v>
@@ -20831,7 +20672,7 @@
         <v>2</v>
       </c>
       <c r="C596" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D596">
         <v>5</v>
@@ -20852,7 +20693,7 @@
         <v>2</v>
       </c>
       <c r="C597" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D597">
         <v>6</v>
@@ -20873,7 +20714,7 @@
         <v>2</v>
       </c>
       <c r="C598" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D598">
         <v>7</v>
@@ -20894,7 +20735,7 @@
         <v>2</v>
       </c>
       <c r="C599" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D599">
         <v>8</v>
@@ -20915,7 +20756,7 @@
         <v>2</v>
       </c>
       <c r="C600" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D600">
         <v>9</v>
@@ -20936,7 +20777,7 @@
         <v>2</v>
       </c>
       <c r="C601" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D601">
         <v>10</v>
@@ -20973,15 +20814,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -20990,7 +20831,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -21023,7 +20864,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7">
         <v>2.9</v>
@@ -21079,7 +20920,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B9" s="7">
         <v>3.2333333333333334</v>
@@ -21112,18 +20953,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -21134,7 +20975,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -21145,7 +20986,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -21156,10 +20997,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -21167,7 +21008,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -21178,7 +21019,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -21189,10 +21030,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -21200,7 +21041,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -21211,7 +21052,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -21222,7 +21063,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -21233,7 +21074,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -21244,7 +21085,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -21255,7 +21096,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -21266,7 +21107,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -21277,7 +21118,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -21288,7 +21129,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -21299,7 +21140,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -21310,10 +21151,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -21321,7 +21162,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -21332,10 +21173,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -21343,7 +21184,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -21354,7 +21195,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -21365,7 +21206,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -21376,7 +21217,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -21387,7 +21228,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -21398,10 +21239,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -21409,7 +21250,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -21420,7 +21261,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -21431,7 +21272,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -21442,7 +21283,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>

--- a/Project/Resultat/Analyse des resultatsV2.xlsx
+++ b/Project/Resultat/Analyse des resultatsV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/464c61f4079a7534/Documents/GitHub/RecSys/Project/Resultat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudedb\Documents\GitHub\RecSys\Project\Resultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{05055A83-D3E0-4BD4-8F83-76897CDF407D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{AB29C484-DCB9-4860-92D3-E77BCE0869E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52B3B8B3-160D-4BC5-AFD6-DA1066CB7F9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="2" activeTab="4" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="2" activeTab="6" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH1006" sheetId="3" r:id="rId1"/>
@@ -24,26 +24,20 @@
     <sheet name="Mapping" sheetId="13" r:id="rId9"/>
     <sheet name="Exploration" sheetId="15" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="187">
   <si>
     <t>terme.terme</t>
   </si>
@@ -602,6 +596,15 @@
   <si>
     <t>IND6133</t>
   </si>
+  <si>
+    <t>INF2010</t>
+  </si>
+  <si>
+    <t>AR320</t>
+  </si>
+  <si>
+    <t>IND4704</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +704,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5563,7 +5597,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -5707,8 +5741,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4BF9DD66-AD1B-4D66-B72C-B1C00E8CD6CB}" name="resultats" displayName="resultats" ref="A1:F601" totalsRowShown="0">
-  <autoFilter ref="A1:F601" xr:uid="{47F141B5-45CD-4665-A9C3-1AA52A3C34E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4BF9DD66-AD1B-4D66-B72C-B1C00E8CD6CB}" name="resultats" displayName="resultats" ref="A1:F691" totalsRowShown="0">
+  <autoFilter ref="A1:F691" xr:uid="{47F141B5-45CD-4665-A9C3-1AA52A3C34E7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{64DD2EDC-12DE-48C0-A867-7C817F4ED21F}" name="id">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -5860,7 +5894,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6162,12 +6196,12 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>118</v>
       </c>
@@ -6177,7 +6211,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6218,7 +6252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -6259,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6300,7 +6334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -6341,7 +6375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6382,7 +6416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6423,7 +6457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.4</v>
       </c>
@@ -6488,14 +6522,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -6509,7 +6543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -6520,7 +6554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -6531,7 +6565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -6542,7 +6576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -6553,7 +6587,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -6564,7 +6598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6575,7 +6609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -6586,7 +6620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -6597,7 +6631,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -6608,7 +6642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -6619,7 +6653,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -6633,7 +6667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -6644,7 +6678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -6655,7 +6689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -6666,7 +6700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
@@ -6677,7 +6711,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -6688,7 +6722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -6699,7 +6733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -6710,7 +6744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
@@ -6721,7 +6755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -6732,7 +6766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -6743,7 +6777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -6757,7 +6791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -6768,7 +6802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -6779,7 +6813,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -6790,7 +6824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
@@ -6801,7 +6835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -6812,7 +6846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>54</v>
       </c>
@@ -6823,7 +6857,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -6834,7 +6868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
@@ -6845,7 +6879,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
@@ -6856,7 +6890,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
@@ -6880,12 +6914,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6893,7 +6927,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>119</v>
       </c>
@@ -6903,7 +6937,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6944,7 +6978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6985,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -7026,7 +7060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -7067,7 +7101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -7108,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -7149,7 +7183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -7214,12 +7248,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7227,7 +7261,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>120</v>
       </c>
@@ -7237,7 +7271,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7278,7 +7312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -7319,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -7360,7 +7394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -7401,7 +7435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -7442,7 +7476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -7483,7 +7517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.6</v>
       </c>
@@ -7548,13 +7582,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E557E0-1F20-4119-BBDF-3D1851626748}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7562,7 +7596,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -7572,7 +7606,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7613,7 +7647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -7632,11 +7666,29 @@
       <c r="F5" t="s">
         <v>148</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
       <c r="N5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -7655,11 +7707,29 @@
       <c r="F6" t="s">
         <v>149</v>
       </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
       <c r="N6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -7678,11 +7748,29 @@
       <c r="F7" t="s">
         <v>152</v>
       </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
       <c r="N7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -7701,11 +7789,29 @@
       <c r="F8" t="s">
         <v>156</v>
       </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
       <c r="N8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -7723,6 +7829,24 @@
       </c>
       <c r="F9" t="s">
         <v>34</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -7733,6 +7857,9 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A5:F9">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -7745,13 +7872,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A00B65-D8E2-42FE-8A66-5E573459333B}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -7759,7 +7886,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>122</v>
       </c>
@@ -7769,7 +7896,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7810,7 +7937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -7829,11 +7956,29 @@
       <c r="F5" t="s">
         <v>162</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
       <c r="N5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -7852,11 +7997,29 @@
       <c r="F6" t="s">
         <v>165</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
       <c r="N6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -7875,11 +8038,29 @@
       <c r="F7" t="s">
         <v>160</v>
       </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
       <c r="N7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -7898,11 +8079,29 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
       <c r="N8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -7920,6 +8119,24 @@
       </c>
       <c r="F9" t="s">
         <v>159</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -7930,6 +8147,9 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A5:F9">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -7943,23 +8163,23 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H5" sqref="H5:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5234375" customWidth="1"/>
+    <col min="3" max="3" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="11.3125" customWidth="1"/>
+    <col min="8" max="8" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7967,7 +8187,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>123</v>
       </c>
@@ -7977,7 +8197,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8018,7 +8238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -8037,11 +8257,29 @@
       <c r="F5" t="s">
         <v>172</v>
       </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
       <c r="N5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -8060,11 +8298,29 @@
       <c r="F6" t="s">
         <v>174</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
       <c r="N6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -8083,11 +8339,29 @@
       <c r="F7" t="s">
         <v>173</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
       <c r="N7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -8106,11 +8380,29 @@
       <c r="F8" t="s">
         <v>180</v>
       </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
       <c r="N8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -8128,6 +8420,24 @@
       </c>
       <c r="F9" t="s">
         <v>183</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -8138,6 +8448,9 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A5:F9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
@@ -8149,19 +8462,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBE396-7256-413C-88E3-204C4A5F543B}">
-  <dimension ref="A1:J601"/>
+  <dimension ref="A1:J691"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I687" sqref="I687"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8181,7 +8494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -8202,7 +8515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -8223,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">ROW()-1</f>
         <v>3</v>
@@ -8244,7 +8557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8269,7 +8582,7 @@
         <v>3.2333333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8294,7 +8607,7 @@
         <v>2.9033333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8315,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8336,7 +8649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8357,7 +8670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8378,7 +8691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8399,7 +8712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" ref="A12:A21" si="1">ROW()-1</f>
         <v>11</v>
@@ -8420,7 +8733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8441,7 +8754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8462,7 +8775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8483,7 +8796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8504,7 +8817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8525,7 +8838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -8546,7 +8859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -8567,7 +8880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -8588,7 +8901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8609,7 +8922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" ref="A22:A31" si="2">ROW()-1</f>
         <v>21</v>
@@ -8630,7 +8943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -8651,7 +8964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -8672,7 +8985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -8693,7 +9006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -8714,7 +9027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8735,7 +9048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8756,7 +9069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8777,7 +9090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8798,7 +9111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -8819,7 +9132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <f t="shared" ref="A32:A41" si="3">ROW()-1</f>
         <v>31</v>
@@ -8840,7 +9153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -8861,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -8882,7 +9195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -8903,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -8924,7 +9237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -8945,7 +9258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -8966,7 +9279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -8987,7 +9300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -9008,7 +9321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -9029,7 +9342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <f t="shared" ref="A42:A51" si="4">ROW()-1</f>
         <v>41</v>
@@ -9050,7 +9363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -9071,7 +9384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -9092,7 +9405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -9113,7 +9426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -9134,7 +9447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -9155,7 +9468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -9176,7 +9489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -9197,7 +9510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -9218,7 +9531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -9239,7 +9552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <f t="shared" ref="A52:A61" si="5">ROW()-1</f>
         <v>51</v>
@@ -9260,7 +9573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <f t="shared" si="5"/>
         <v>52</v>
@@ -9281,7 +9594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>53</v>
@@ -9302,7 +9615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>54</v>
@@ -9323,7 +9636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -9344,7 +9657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>56</v>
@@ -9365,7 +9678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>57</v>
@@ -9386,7 +9699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -9407,7 +9720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -9428,7 +9741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -9449,7 +9762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <f t="shared" ref="A62:A93" si="6">ROW()-1</f>
         <v>61</v>
@@ -9470,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -9491,7 +9804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -9512,7 +9825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -9533,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -9554,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -9575,7 +9888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -9596,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -9617,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -9638,7 +9951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -9659,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -9680,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -9701,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -9722,7 +10035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -9743,7 +10056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -9764,7 +10077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -9785,7 +10098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -9806,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -9827,7 +10140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -9848,7 +10161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -9869,7 +10182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -9890,7 +10203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -9911,7 +10224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -9932,7 +10245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -9953,7 +10266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -9974,7 +10287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -9995,7 +10308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -10016,7 +10329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -10037,7 +10350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -10058,7 +10371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -10079,7 +10392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -10100,7 +10413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -10121,7 +10434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <f t="shared" ref="A94:A121" si="7">ROW()-1</f>
         <v>93</v>
@@ -10142,7 +10455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <f t="shared" si="7"/>
         <v>94</v>
@@ -10163,7 +10476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -10184,7 +10497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -10205,7 +10518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -10226,7 +10539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -10247,7 +10560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -10268,7 +10581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -10289,7 +10602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -10310,7 +10623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -10331,7 +10644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -10352,7 +10665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -10373,7 +10686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -10394,7 +10707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -10415,7 +10728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -10436,7 +10749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -10457,7 +10770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -10478,7 +10791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -10499,7 +10812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -10520,7 +10833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -10541,7 +10854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -10562,7 +10875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -10583,7 +10896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -10604,7 +10917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -10625,7 +10938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -10646,7 +10959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -10667,7 +10980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -10688,7 +11001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -10709,7 +11022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <f t="shared" ref="A122:A153" si="8">ROW()-1</f>
         <v>121</v>
@@ -10730,7 +11043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <f t="shared" si="8"/>
         <v>122</v>
@@ -10751,7 +11064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <f t="shared" si="8"/>
         <v>123</v>
@@ -10772,7 +11085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <f t="shared" si="8"/>
         <v>124</v>
@@ -10793,7 +11106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <f t="shared" si="8"/>
         <v>125</v>
@@ -10814,7 +11127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <f t="shared" si="8"/>
         <v>126</v>
@@ -10835,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <f t="shared" si="8"/>
         <v>127</v>
@@ -10856,7 +11169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <f t="shared" si="8"/>
         <v>128</v>
@@ -10877,7 +11190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -10898,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <f t="shared" si="8"/>
         <v>130</v>
@@ -10919,7 +11232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <f t="shared" si="8"/>
         <v>131</v>
@@ -10940,7 +11253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -10961,7 +11274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -10982,7 +11295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <f t="shared" si="8"/>
         <v>134</v>
@@ -11003,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <f t="shared" si="8"/>
         <v>135</v>
@@ -11024,7 +11337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -11045,7 +11358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <f t="shared" si="8"/>
         <v>137</v>
@@ -11066,7 +11379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <f t="shared" si="8"/>
         <v>138</v>
@@ -11087,7 +11400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <f t="shared" si="8"/>
         <v>139</v>
@@ -11108,7 +11421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <f t="shared" si="8"/>
         <v>140</v>
@@ -11129,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <f t="shared" si="8"/>
         <v>141</v>
@@ -11150,7 +11463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <f t="shared" si="8"/>
         <v>142</v>
@@ -11171,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <f t="shared" si="8"/>
         <v>143</v>
@@ -11192,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <f t="shared" si="8"/>
         <v>144</v>
@@ -11213,7 +11526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <f t="shared" si="8"/>
         <v>145</v>
@@ -11234,7 +11547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <f t="shared" si="8"/>
         <v>146</v>
@@ -11255,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <f t="shared" si="8"/>
         <v>147</v>
@@ -11276,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <f t="shared" si="8"/>
         <v>148</v>
@@ -11297,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <f t="shared" si="8"/>
         <v>149</v>
@@ -11318,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <f t="shared" si="8"/>
         <v>150</v>
@@ -11339,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <f t="shared" si="8"/>
         <v>151</v>
@@ -11360,7 +11673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <f t="shared" si="8"/>
         <v>152</v>
@@ -11381,7 +11694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <f t="shared" ref="A154:A181" si="9">ROW()-1</f>
         <v>153</v>
@@ -11402,7 +11715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <f t="shared" si="9"/>
         <v>154</v>
@@ -11423,7 +11736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <f t="shared" si="9"/>
         <v>155</v>
@@ -11444,7 +11757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <f t="shared" si="9"/>
         <v>156</v>
@@ -11465,7 +11778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <f t="shared" si="9"/>
         <v>157</v>
@@ -11486,7 +11799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <f t="shared" si="9"/>
         <v>158</v>
@@ -11507,7 +11820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <f t="shared" si="9"/>
         <v>159</v>
@@ -11528,7 +11841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <f t="shared" si="9"/>
         <v>160</v>
@@ -11549,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <f t="shared" si="9"/>
         <v>161</v>
@@ -11570,7 +11883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <f t="shared" si="9"/>
         <v>162</v>
@@ -11591,7 +11904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <f t="shared" si="9"/>
         <v>163</v>
@@ -11612,7 +11925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <f t="shared" si="9"/>
         <v>164</v>
@@ -11633,7 +11946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <f t="shared" si="9"/>
         <v>165</v>
@@ -11654,7 +11967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <f t="shared" si="9"/>
         <v>166</v>
@@ -11675,7 +11988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <f t="shared" si="9"/>
         <v>167</v>
@@ -11696,7 +12009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <f t="shared" si="9"/>
         <v>168</v>
@@ -11717,7 +12030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <f t="shared" si="9"/>
         <v>169</v>
@@ -11738,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <f t="shared" si="9"/>
         <v>170</v>
@@ -11759,7 +12072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <f t="shared" si="9"/>
         <v>171</v>
@@ -11780,7 +12093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <f t="shared" si="9"/>
         <v>172</v>
@@ -11801,7 +12114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <f t="shared" si="9"/>
         <v>173</v>
@@ -11822,7 +12135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <f t="shared" si="9"/>
         <v>174</v>
@@ -11843,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <f t="shared" si="9"/>
         <v>175</v>
@@ -11864,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <f t="shared" si="9"/>
         <v>176</v>
@@ -11885,7 +12198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <f t="shared" si="9"/>
         <v>177</v>
@@ -11906,7 +12219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <f t="shared" si="9"/>
         <v>178</v>
@@ -11927,7 +12240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <f t="shared" si="9"/>
         <v>179</v>
@@ -11948,7 +12261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <f t="shared" si="9"/>
         <v>180</v>
@@ -11969,7 +12282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <f t="shared" ref="A182:A213" si="10">ROW()-1</f>
         <v>181</v>
@@ -11990,7 +12303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <f t="shared" si="10"/>
         <v>182</v>
@@ -12011,7 +12324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <f t="shared" si="10"/>
         <v>183</v>
@@ -12032,7 +12345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <f t="shared" si="10"/>
         <v>184</v>
@@ -12053,7 +12366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <f t="shared" si="10"/>
         <v>185</v>
@@ -12074,7 +12387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <f t="shared" si="10"/>
         <v>186</v>
@@ -12095,7 +12408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <f t="shared" si="10"/>
         <v>187</v>
@@ -12116,7 +12429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <f t="shared" si="10"/>
         <v>188</v>
@@ -12137,7 +12450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <f t="shared" si="10"/>
         <v>189</v>
@@ -12158,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <f t="shared" si="10"/>
         <v>190</v>
@@ -12179,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <f t="shared" si="10"/>
         <v>191</v>
@@ -12200,7 +12513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <f t="shared" si="10"/>
         <v>192</v>
@@ -12221,7 +12534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <f t="shared" si="10"/>
         <v>193</v>
@@ -12242,7 +12555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <f t="shared" si="10"/>
         <v>194</v>
@@ -12263,7 +12576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <f t="shared" si="10"/>
         <v>195</v>
@@ -12284,7 +12597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <f t="shared" si="10"/>
         <v>196</v>
@@ -12305,7 +12618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <f t="shared" si="10"/>
         <v>197</v>
@@ -12326,7 +12639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <f t="shared" si="10"/>
         <v>198</v>
@@ -12347,7 +12660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <f t="shared" si="10"/>
         <v>199</v>
@@ -12368,7 +12681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <f t="shared" si="10"/>
         <v>200</v>
@@ -12389,7 +12702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <f t="shared" si="10"/>
         <v>201</v>
@@ -12410,7 +12723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <f t="shared" si="10"/>
         <v>202</v>
@@ -12431,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -12452,7 +12765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <f t="shared" si="10"/>
         <v>204</v>
@@ -12473,7 +12786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <f t="shared" si="10"/>
         <v>205</v>
@@ -12494,7 +12807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <f t="shared" si="10"/>
         <v>206</v>
@@ -12515,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <f t="shared" si="10"/>
         <v>207</v>
@@ -12536,7 +12849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <f t="shared" si="10"/>
         <v>208</v>
@@ -12557,7 +12870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <f t="shared" si="10"/>
         <v>209</v>
@@ -12578,7 +12891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <f t="shared" si="10"/>
         <v>210</v>
@@ -12599,7 +12912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <f t="shared" si="10"/>
         <v>211</v>
@@ -12620,7 +12933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <f t="shared" si="10"/>
         <v>212</v>
@@ -12641,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <f t="shared" ref="A214:A241" si="11">ROW()-1</f>
         <v>213</v>
@@ -12662,7 +12975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <f t="shared" si="11"/>
         <v>214</v>
@@ -12683,7 +12996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <f t="shared" si="11"/>
         <v>215</v>
@@ -12704,7 +13017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <f t="shared" si="11"/>
         <v>216</v>
@@ -12725,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <f t="shared" si="11"/>
         <v>217</v>
@@ -12746,7 +13059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <f t="shared" si="11"/>
         <v>218</v>
@@ -12767,7 +13080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <f t="shared" si="11"/>
         <v>219</v>
@@ -12788,7 +13101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <f t="shared" si="11"/>
         <v>220</v>
@@ -12809,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <f t="shared" si="11"/>
         <v>221</v>
@@ -12830,7 +13143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <f t="shared" si="11"/>
         <v>222</v>
@@ -12851,7 +13164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <f t="shared" si="11"/>
         <v>223</v>
@@ -12872,7 +13185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <f t="shared" si="11"/>
         <v>224</v>
@@ -12893,7 +13206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <f t="shared" si="11"/>
         <v>225</v>
@@ -12914,7 +13227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <f t="shared" si="11"/>
         <v>226</v>
@@ -12935,7 +13248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <f t="shared" si="11"/>
         <v>227</v>
@@ -12956,7 +13269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <f t="shared" si="11"/>
         <v>228</v>
@@ -12977,7 +13290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <f t="shared" si="11"/>
         <v>229</v>
@@ -12998,7 +13311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <f t="shared" si="11"/>
         <v>230</v>
@@ -13019,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <f t="shared" si="11"/>
         <v>231</v>
@@ -13040,7 +13353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <f t="shared" si="11"/>
         <v>232</v>
@@ -13061,7 +13374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <f t="shared" si="11"/>
         <v>233</v>
@@ -13082,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <f t="shared" si="11"/>
         <v>234</v>
@@ -13103,7 +13416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <f t="shared" si="11"/>
         <v>235</v>
@@ -13124,7 +13437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <f t="shared" si="11"/>
         <v>236</v>
@@ -13145,7 +13458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <f t="shared" si="11"/>
         <v>237</v>
@@ -13166,7 +13479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <f t="shared" si="11"/>
         <v>238</v>
@@ -13187,7 +13500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <f t="shared" si="11"/>
         <v>239</v>
@@ -13208,7 +13521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <f t="shared" si="11"/>
         <v>240</v>
@@ -13229,7 +13542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <f t="shared" ref="A242:A273" si="12">ROW()-1</f>
         <v>241</v>
@@ -13250,7 +13563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <f t="shared" si="12"/>
         <v>242</v>
@@ -13271,7 +13584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <f t="shared" si="12"/>
         <v>243</v>
@@ -13292,7 +13605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <f t="shared" si="12"/>
         <v>244</v>
@@ -13313,7 +13626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <f t="shared" si="12"/>
         <v>245</v>
@@ -13334,7 +13647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <f t="shared" si="12"/>
         <v>246</v>
@@ -13355,7 +13668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <f t="shared" si="12"/>
         <v>247</v>
@@ -13376,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <f t="shared" si="12"/>
         <v>248</v>
@@ -13397,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <f t="shared" si="12"/>
         <v>249</v>
@@ -13418,7 +13731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <f t="shared" si="12"/>
         <v>250</v>
@@ -13439,7 +13752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <f t="shared" si="12"/>
         <v>251</v>
@@ -13460,7 +13773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <f t="shared" si="12"/>
         <v>252</v>
@@ -13481,7 +13794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <f t="shared" si="12"/>
         <v>253</v>
@@ -13502,7 +13815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <f t="shared" si="12"/>
         <v>254</v>
@@ -13523,7 +13836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <f t="shared" si="12"/>
         <v>255</v>
@@ -13544,7 +13857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <f t="shared" si="12"/>
         <v>256</v>
@@ -13565,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <f t="shared" si="12"/>
         <v>257</v>
@@ -13586,7 +13899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <f t="shared" si="12"/>
         <v>258</v>
@@ -13607,7 +13920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <f t="shared" si="12"/>
         <v>259</v>
@@ -13628,7 +13941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <f t="shared" si="12"/>
         <v>260</v>
@@ -13649,7 +13962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <f t="shared" si="12"/>
         <v>261</v>
@@ -13670,7 +13983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <f t="shared" si="12"/>
         <v>262</v>
@@ -13691,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <f t="shared" si="12"/>
         <v>263</v>
@@ -13712,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <f t="shared" si="12"/>
         <v>264</v>
@@ -13733,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <f t="shared" si="12"/>
         <v>265</v>
@@ -13754,7 +14067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <f t="shared" si="12"/>
         <v>266</v>
@@ -13775,7 +14088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <f t="shared" si="12"/>
         <v>267</v>
@@ -13796,7 +14109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <f t="shared" si="12"/>
         <v>268</v>
@@ -13817,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <f t="shared" si="12"/>
         <v>269</v>
@@ -13838,7 +14151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <f t="shared" si="12"/>
         <v>270</v>
@@ -13859,7 +14172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <f t="shared" si="12"/>
         <v>271</v>
@@ -13880,7 +14193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <f t="shared" si="12"/>
         <v>272</v>
@@ -13901,7 +14214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <f t="shared" ref="A274:A301" si="13">ROW()-1</f>
         <v>273</v>
@@ -13922,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <f t="shared" si="13"/>
         <v>274</v>
@@ -13943,7 +14256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <f t="shared" si="13"/>
         <v>275</v>
@@ -13964,7 +14277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <f t="shared" si="13"/>
         <v>276</v>
@@ -13985,7 +14298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <f t="shared" si="13"/>
         <v>277</v>
@@ -14006,7 +14319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <f t="shared" si="13"/>
         <v>278</v>
@@ -14027,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <f t="shared" si="13"/>
         <v>279</v>
@@ -14048,7 +14361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <f t="shared" si="13"/>
         <v>280</v>
@@ -14069,7 +14382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <f t="shared" si="13"/>
         <v>281</v>
@@ -14090,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <f t="shared" si="13"/>
         <v>282</v>
@@ -14111,7 +14424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <f t="shared" si="13"/>
         <v>283</v>
@@ -14132,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <f t="shared" si="13"/>
         <v>284</v>
@@ -14153,7 +14466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <f t="shared" si="13"/>
         <v>285</v>
@@ -14174,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <f t="shared" si="13"/>
         <v>286</v>
@@ -14195,7 +14508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <f t="shared" si="13"/>
         <v>287</v>
@@ -14216,7 +14529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <f t="shared" si="13"/>
         <v>288</v>
@@ -14237,7 +14550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <f t="shared" si="13"/>
         <v>289</v>
@@ -14258,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <f t="shared" si="13"/>
         <v>290</v>
@@ -14279,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <f t="shared" si="13"/>
         <v>291</v>
@@ -14300,7 +14613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <f t="shared" si="13"/>
         <v>292</v>
@@ -14321,7 +14634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <f t="shared" si="13"/>
         <v>293</v>
@@ -14342,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <f t="shared" si="13"/>
         <v>294</v>
@@ -14363,7 +14676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <f t="shared" si="13"/>
         <v>295</v>
@@ -14384,7 +14697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <f t="shared" si="13"/>
         <v>296</v>
@@ -14405,7 +14718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <f t="shared" si="13"/>
         <v>297</v>
@@ -14426,7 +14739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <f t="shared" si="13"/>
         <v>298</v>
@@ -14447,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <f t="shared" si="13"/>
         <v>299</v>
@@ -14468,7 +14781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <f t="shared" si="13"/>
         <v>300</v>
@@ -14489,7 +14802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <f t="shared" ref="A302:A365" si="14">ROW()-1</f>
         <v>301</v>
@@ -14510,7 +14823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <f t="shared" si="14"/>
         <v>302</v>
@@ -14531,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <f t="shared" si="14"/>
         <v>303</v>
@@ -14552,7 +14865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <f t="shared" si="14"/>
         <v>304</v>
@@ -14573,7 +14886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <f t="shared" si="14"/>
         <v>305</v>
@@ -14594,7 +14907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <f t="shared" si="14"/>
         <v>306</v>
@@ -14615,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <f t="shared" si="14"/>
         <v>307</v>
@@ -14636,7 +14949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <f t="shared" si="14"/>
         <v>308</v>
@@ -14657,7 +14970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <f t="shared" si="14"/>
         <v>309</v>
@@ -14678,7 +14991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <f t="shared" si="14"/>
         <v>310</v>
@@ -14699,7 +15012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <f t="shared" si="14"/>
         <v>311</v>
@@ -14720,7 +15033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <f t="shared" si="14"/>
         <v>312</v>
@@ -14741,7 +15054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <f t="shared" si="14"/>
         <v>313</v>
@@ -14762,7 +15075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <f t="shared" si="14"/>
         <v>314</v>
@@ -14783,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <f t="shared" si="14"/>
         <v>315</v>
@@ -14804,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <f t="shared" si="14"/>
         <v>316</v>
@@ -14825,7 +15138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <f t="shared" si="14"/>
         <v>317</v>
@@ -14846,7 +15159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <f t="shared" si="14"/>
         <v>318</v>
@@ -14867,7 +15180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <f t="shared" si="14"/>
         <v>319</v>
@@ -14888,7 +15201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <f t="shared" si="14"/>
         <v>320</v>
@@ -14909,7 +15222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <f t="shared" si="14"/>
         <v>321</v>
@@ -14930,7 +15243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <f t="shared" si="14"/>
         <v>322</v>
@@ -14951,7 +15264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <f t="shared" si="14"/>
         <v>323</v>
@@ -14972,7 +15285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <f t="shared" si="14"/>
         <v>324</v>
@@ -14993,7 +15306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <f t="shared" si="14"/>
         <v>325</v>
@@ -15014,7 +15327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <f t="shared" si="14"/>
         <v>326</v>
@@ -15035,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <f t="shared" si="14"/>
         <v>327</v>
@@ -15056,7 +15369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <f t="shared" si="14"/>
         <v>328</v>
@@ -15077,7 +15390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <f t="shared" si="14"/>
         <v>329</v>
@@ -15098,7 +15411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A331">
         <f t="shared" si="14"/>
         <v>330</v>
@@ -15119,7 +15432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <f t="shared" si="14"/>
         <v>331</v>
@@ -15140,7 +15453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <f t="shared" si="14"/>
         <v>332</v>
@@ -15161,7 +15474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <f t="shared" si="14"/>
         <v>333</v>
@@ -15182,7 +15495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <f t="shared" si="14"/>
         <v>334</v>
@@ -15203,7 +15516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <f t="shared" si="14"/>
         <v>335</v>
@@ -15224,7 +15537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <f t="shared" si="14"/>
         <v>336</v>
@@ -15245,7 +15558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <f t="shared" si="14"/>
         <v>337</v>
@@ -15266,7 +15579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <f t="shared" si="14"/>
         <v>338</v>
@@ -15287,7 +15600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <f t="shared" si="14"/>
         <v>339</v>
@@ -15308,7 +15621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <f t="shared" si="14"/>
         <v>340</v>
@@ -15329,7 +15642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <f t="shared" si="14"/>
         <v>341</v>
@@ -15350,7 +15663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <f t="shared" si="14"/>
         <v>342</v>
@@ -15371,7 +15684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <f t="shared" si="14"/>
         <v>343</v>
@@ -15392,7 +15705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <f t="shared" si="14"/>
         <v>344</v>
@@ -15413,7 +15726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <f t="shared" si="14"/>
         <v>345</v>
@@ -15434,7 +15747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <f t="shared" si="14"/>
         <v>346</v>
@@ -15455,7 +15768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <f t="shared" si="14"/>
         <v>347</v>
@@ -15476,7 +15789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <f t="shared" si="14"/>
         <v>348</v>
@@ -15497,7 +15810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <f t="shared" si="14"/>
         <v>349</v>
@@ -15518,7 +15831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <f t="shared" si="14"/>
         <v>350</v>
@@ -15539,7 +15852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <f t="shared" si="14"/>
         <v>351</v>
@@ -15560,7 +15873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <f t="shared" si="14"/>
         <v>352</v>
@@ -15581,7 +15894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <f t="shared" si="14"/>
         <v>353</v>
@@ -15602,7 +15915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <f t="shared" si="14"/>
         <v>354</v>
@@ -15623,7 +15936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <f t="shared" si="14"/>
         <v>355</v>
@@ -15644,7 +15957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <f t="shared" si="14"/>
         <v>356</v>
@@ -15665,7 +15978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <f t="shared" si="14"/>
         <v>357</v>
@@ -15686,7 +15999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <f t="shared" si="14"/>
         <v>358</v>
@@ -15707,7 +16020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <f t="shared" si="14"/>
         <v>359</v>
@@ -15728,7 +16041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <f t="shared" si="14"/>
         <v>360</v>
@@ -15749,7 +16062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <f t="shared" si="14"/>
         <v>361</v>
@@ -15770,7 +16083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <f t="shared" si="14"/>
         <v>362</v>
@@ -15791,7 +16104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <f t="shared" si="14"/>
         <v>363</v>
@@ -15812,7 +16125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <f t="shared" si="14"/>
         <v>364</v>
@@ -15833,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <f t="shared" ref="A366:A429" si="15">ROW()-1</f>
         <v>365</v>
@@ -15854,7 +16167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <f t="shared" si="15"/>
         <v>366</v>
@@ -15875,7 +16188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <f t="shared" si="15"/>
         <v>367</v>
@@ -15896,7 +16209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <f t="shared" si="15"/>
         <v>368</v>
@@ -15917,7 +16230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <f t="shared" si="15"/>
         <v>369</v>
@@ -15938,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <f t="shared" si="15"/>
         <v>370</v>
@@ -15959,7 +16272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <f t="shared" si="15"/>
         <v>371</v>
@@ -15980,7 +16293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <f t="shared" si="15"/>
         <v>372</v>
@@ -16001,7 +16314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <f t="shared" si="15"/>
         <v>373</v>
@@ -16022,7 +16335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <f t="shared" si="15"/>
         <v>374</v>
@@ -16043,7 +16356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <f t="shared" si="15"/>
         <v>375</v>
@@ -16064,7 +16377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <f t="shared" si="15"/>
         <v>376</v>
@@ -16085,7 +16398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <f t="shared" si="15"/>
         <v>377</v>
@@ -16106,7 +16419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <f t="shared" si="15"/>
         <v>378</v>
@@ -16127,7 +16440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <f t="shared" si="15"/>
         <v>379</v>
@@ -16148,7 +16461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <f t="shared" si="15"/>
         <v>380</v>
@@ -16169,7 +16482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <f t="shared" si="15"/>
         <v>381</v>
@@ -16190,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <f t="shared" si="15"/>
         <v>382</v>
@@ -16211,7 +16524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <f t="shared" si="15"/>
         <v>383</v>
@@ -16232,7 +16545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <f t="shared" si="15"/>
         <v>384</v>
@@ -16253,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <f t="shared" si="15"/>
         <v>385</v>
@@ -16274,7 +16587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <f t="shared" si="15"/>
         <v>386</v>
@@ -16295,7 +16608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <f t="shared" si="15"/>
         <v>387</v>
@@ -16316,7 +16629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <f t="shared" si="15"/>
         <v>388</v>
@@ -16337,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <f t="shared" si="15"/>
         <v>389</v>
@@ -16358,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <f t="shared" si="15"/>
         <v>390</v>
@@ -16379,7 +16692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <f t="shared" si="15"/>
         <v>391</v>
@@ -16400,7 +16713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <f t="shared" si="15"/>
         <v>392</v>
@@ -16421,7 +16734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
         <f t="shared" si="15"/>
         <v>393</v>
@@ -16442,7 +16755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
         <f t="shared" si="15"/>
         <v>394</v>
@@ -16463,7 +16776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
         <f t="shared" si="15"/>
         <v>395</v>
@@ -16484,7 +16797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
         <f t="shared" si="15"/>
         <v>396</v>
@@ -16505,7 +16818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
         <f t="shared" si="15"/>
         <v>397</v>
@@ -16526,7 +16839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
         <f t="shared" si="15"/>
         <v>398</v>
@@ -16547,7 +16860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A400">
         <f t="shared" si="15"/>
         <v>399</v>
@@ -16568,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401">
         <f t="shared" si="15"/>
         <v>400</v>
@@ -16589,7 +16902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402">
         <f t="shared" si="15"/>
         <v>401</v>
@@ -16610,7 +16923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403">
         <f t="shared" si="15"/>
         <v>402</v>
@@ -16631,7 +16944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
         <f t="shared" si="15"/>
         <v>403</v>
@@ -16652,7 +16965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A405">
         <f t="shared" si="15"/>
         <v>404</v>
@@ -16673,7 +16986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406">
         <f t="shared" si="15"/>
         <v>405</v>
@@ -16694,7 +17007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A407">
         <f t="shared" si="15"/>
         <v>406</v>
@@ -16715,7 +17028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A408">
         <f t="shared" si="15"/>
         <v>407</v>
@@ -16736,7 +17049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409">
         <f t="shared" si="15"/>
         <v>408</v>
@@ -16757,7 +17070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A410">
         <f t="shared" si="15"/>
         <v>409</v>
@@ -16778,7 +17091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411">
         <f t="shared" si="15"/>
         <v>410</v>
@@ -16799,7 +17112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A412">
         <f t="shared" si="15"/>
         <v>411</v>
@@ -16820,7 +17133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
         <f t="shared" si="15"/>
         <v>412</v>
@@ -16841,7 +17154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414">
         <f t="shared" si="15"/>
         <v>413</v>
@@ -16862,7 +17175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A415">
         <f t="shared" si="15"/>
         <v>414</v>
@@ -16883,7 +17196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A416">
         <f t="shared" si="15"/>
         <v>415</v>
@@ -16904,7 +17217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A417">
         <f t="shared" si="15"/>
         <v>416</v>
@@ -16925,7 +17238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A418">
         <f t="shared" si="15"/>
         <v>417</v>
@@ -16946,7 +17259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A419">
         <f t="shared" si="15"/>
         <v>418</v>
@@ -16967,7 +17280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A420">
         <f t="shared" si="15"/>
         <v>419</v>
@@ -16988,7 +17301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A421">
         <f t="shared" si="15"/>
         <v>420</v>
@@ -17009,7 +17322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A422">
         <f t="shared" si="15"/>
         <v>421</v>
@@ -17030,7 +17343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
         <f t="shared" si="15"/>
         <v>422</v>
@@ -17051,7 +17364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A424">
         <f t="shared" si="15"/>
         <v>423</v>
@@ -17072,7 +17385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A425">
         <f t="shared" si="15"/>
         <v>424</v>
@@ -17093,7 +17406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A426">
         <f t="shared" si="15"/>
         <v>425</v>
@@ -17114,7 +17427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A427">
         <f t="shared" si="15"/>
         <v>426</v>
@@ -17135,7 +17448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A428">
         <f t="shared" si="15"/>
         <v>427</v>
@@ -17156,7 +17469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A429">
         <f t="shared" si="15"/>
         <v>428</v>
@@ -17177,7 +17490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A430">
         <f t="shared" ref="A430:A493" si="16">ROW()-1</f>
         <v>429</v>
@@ -17198,7 +17511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A431">
         <f t="shared" si="16"/>
         <v>430</v>
@@ -17219,7 +17532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A432">
         <f t="shared" si="16"/>
         <v>431</v>
@@ -17240,7 +17553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433">
         <f t="shared" si="16"/>
         <v>432</v>
@@ -17261,7 +17574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
         <f t="shared" si="16"/>
         <v>433</v>
@@ -17282,7 +17595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435">
         <f t="shared" si="16"/>
         <v>434</v>
@@ -17303,7 +17616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A436">
         <f t="shared" si="16"/>
         <v>435</v>
@@ -17324,7 +17637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437">
         <f t="shared" si="16"/>
         <v>436</v>
@@ -17345,7 +17658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A438">
         <f t="shared" si="16"/>
         <v>437</v>
@@ -17366,7 +17679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439">
         <f t="shared" si="16"/>
         <v>438</v>
@@ -17387,7 +17700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A440">
         <f t="shared" si="16"/>
         <v>439</v>
@@ -17408,7 +17721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441">
         <f t="shared" si="16"/>
         <v>440</v>
@@ -17429,7 +17742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A442">
         <f t="shared" si="16"/>
         <v>441</v>
@@ -17450,7 +17763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A443">
         <f t="shared" si="16"/>
         <v>442</v>
@@ -17471,7 +17784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A444">
         <f t="shared" si="16"/>
         <v>443</v>
@@ -17492,7 +17805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A445">
         <f t="shared" si="16"/>
         <v>444</v>
@@ -17513,7 +17826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
         <f t="shared" si="16"/>
         <v>445</v>
@@ -17534,7 +17847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447">
         <f t="shared" si="16"/>
         <v>446</v>
@@ -17555,7 +17868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448">
         <f t="shared" si="16"/>
         <v>447</v>
@@ -17576,7 +17889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A449">
         <f t="shared" si="16"/>
         <v>448</v>
@@ -17597,7 +17910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A450">
         <f t="shared" si="16"/>
         <v>449</v>
@@ -17618,7 +17931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A451">
         <f t="shared" si="16"/>
         <v>450</v>
@@ -17639,7 +17952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A452">
         <f t="shared" si="16"/>
         <v>451</v>
@@ -17660,7 +17973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A453">
         <f t="shared" si="16"/>
         <v>452</v>
@@ -17681,7 +17994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A454">
         <f t="shared" si="16"/>
         <v>453</v>
@@ -17702,7 +18015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A455">
         <f t="shared" si="16"/>
         <v>454</v>
@@ -17723,7 +18036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A456">
         <f t="shared" si="16"/>
         <v>455</v>
@@ -17744,7 +18057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A457">
         <f t="shared" si="16"/>
         <v>456</v>
@@ -17765,7 +18078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A458">
         <f t="shared" si="16"/>
         <v>457</v>
@@ -17786,7 +18099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
         <f t="shared" si="16"/>
         <v>458</v>
@@ -17807,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A460">
         <f t="shared" si="16"/>
         <v>459</v>
@@ -17828,7 +18141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461">
         <f t="shared" si="16"/>
         <v>460</v>
@@ -17849,7 +18162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A462">
         <f t="shared" si="16"/>
         <v>461</v>
@@ -17870,7 +18183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463">
         <f t="shared" si="16"/>
         <v>462</v>
@@ -17891,7 +18204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A464">
         <f t="shared" si="16"/>
         <v>463</v>
@@ -17912,7 +18225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A465">
         <f t="shared" si="16"/>
         <v>464</v>
@@ -17933,7 +18246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A466">
         <f t="shared" si="16"/>
         <v>465</v>
@@ -17954,7 +18267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467">
         <f t="shared" si="16"/>
         <v>466</v>
@@ -17975,7 +18288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A468">
         <f t="shared" si="16"/>
         <v>467</v>
@@ -17996,7 +18309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A469">
         <f t="shared" si="16"/>
         <v>468</v>
@@ -18017,7 +18330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A470">
         <f t="shared" si="16"/>
         <v>469</v>
@@ -18038,7 +18351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A471">
         <f t="shared" si="16"/>
         <v>470</v>
@@ -18059,7 +18372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A472">
         <f t="shared" si="16"/>
         <v>471</v>
@@ -18080,7 +18393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
         <f t="shared" si="16"/>
         <v>472</v>
@@ -18101,7 +18414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A474">
         <f t="shared" si="16"/>
         <v>473</v>
@@ -18122,7 +18435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A475">
         <f t="shared" si="16"/>
         <v>474</v>
@@ -18143,7 +18456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A476">
         <f t="shared" si="16"/>
         <v>475</v>
@@ -18164,7 +18477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A477">
         <f t="shared" si="16"/>
         <v>476</v>
@@ -18185,7 +18498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A478">
         <f t="shared" si="16"/>
         <v>477</v>
@@ -18206,7 +18519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A479">
         <f t="shared" si="16"/>
         <v>478</v>
@@ -18227,7 +18540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A480">
         <f t="shared" si="16"/>
         <v>479</v>
@@ -18248,7 +18561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481">
         <f t="shared" si="16"/>
         <v>480</v>
@@ -18269,7 +18582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A482">
         <f t="shared" si="16"/>
         <v>481</v>
@@ -18290,7 +18603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A483">
         <f t="shared" si="16"/>
         <v>482</v>
@@ -18311,7 +18624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A484">
         <f t="shared" si="16"/>
         <v>483</v>
@@ -18332,7 +18645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A485">
         <f t="shared" si="16"/>
         <v>484</v>
@@ -18353,7 +18666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A486">
         <f t="shared" si="16"/>
         <v>485</v>
@@ -18374,7 +18687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A487">
         <f t="shared" si="16"/>
         <v>486</v>
@@ -18395,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
         <f t="shared" si="16"/>
         <v>487</v>
@@ -18416,7 +18729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A489">
         <f t="shared" si="16"/>
         <v>488</v>
@@ -18437,7 +18750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A490">
         <f t="shared" si="16"/>
         <v>489</v>
@@ -18458,7 +18771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A491">
         <f t="shared" si="16"/>
         <v>490</v>
@@ -18479,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A492">
         <f t="shared" si="16"/>
         <v>491</v>
@@ -18500,7 +18813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A493">
         <f t="shared" si="16"/>
         <v>492</v>
@@ -18521,7 +18834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A494">
         <f t="shared" ref="A494:A557" si="17">ROW()-1</f>
         <v>493</v>
@@ -18542,7 +18855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A495">
         <f t="shared" si="17"/>
         <v>494</v>
@@ -18563,7 +18876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A496">
         <f t="shared" si="17"/>
         <v>495</v>
@@ -18584,7 +18897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A497">
         <f t="shared" si="17"/>
         <v>496</v>
@@ -18605,7 +18918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A498">
         <f t="shared" si="17"/>
         <v>497</v>
@@ -18626,7 +18939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A499">
         <f t="shared" si="17"/>
         <v>498</v>
@@ -18647,7 +18960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A500">
         <f t="shared" si="17"/>
         <v>499</v>
@@ -18668,7 +18981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A501">
         <f t="shared" si="17"/>
         <v>500</v>
@@ -18689,7 +19002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A502">
         <f t="shared" si="17"/>
         <v>501</v>
@@ -18710,7 +19023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A503">
         <f t="shared" si="17"/>
         <v>502</v>
@@ -18731,7 +19044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
         <f t="shared" si="17"/>
         <v>503</v>
@@ -18752,7 +19065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A505">
         <f t="shared" si="17"/>
         <v>504</v>
@@ -18773,7 +19086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A506">
         <f t="shared" si="17"/>
         <v>505</v>
@@ -18794,7 +19107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A507">
         <f t="shared" si="17"/>
         <v>506</v>
@@ -18815,7 +19128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A508">
         <f t="shared" si="17"/>
         <v>507</v>
@@ -18836,7 +19149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A509">
         <f t="shared" si="17"/>
         <v>508</v>
@@ -18857,7 +19170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A510">
         <f t="shared" si="17"/>
         <v>509</v>
@@ -18878,7 +19191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A511">
         <f t="shared" si="17"/>
         <v>510</v>
@@ -18899,7 +19212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A512">
         <f t="shared" si="17"/>
         <v>511</v>
@@ -18920,7 +19233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A513">
         <f t="shared" si="17"/>
         <v>512</v>
@@ -18941,7 +19254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A514">
         <f t="shared" si="17"/>
         <v>513</v>
@@ -18962,7 +19275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A515">
         <f t="shared" si="17"/>
         <v>514</v>
@@ -18983,7 +19296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A516">
         <f t="shared" si="17"/>
         <v>515</v>
@@ -19004,7 +19317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A517">
         <f t="shared" si="17"/>
         <v>516</v>
@@ -19025,7 +19338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A518">
         <f t="shared" si="17"/>
         <v>517</v>
@@ -19046,7 +19359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A519">
         <f t="shared" si="17"/>
         <v>518</v>
@@ -19067,7 +19380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A520">
         <f t="shared" si="17"/>
         <v>519</v>
@@ -19088,7 +19401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
         <f t="shared" si="17"/>
         <v>520</v>
@@ -19109,7 +19422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A522">
         <f t="shared" si="17"/>
         <v>521</v>
@@ -19130,7 +19443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A523">
         <f t="shared" si="17"/>
         <v>522</v>
@@ -19151,7 +19464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A524">
         <f t="shared" si="17"/>
         <v>523</v>
@@ -19172,7 +19485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A525">
         <f t="shared" si="17"/>
         <v>524</v>
@@ -19193,7 +19506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A526">
         <f t="shared" si="17"/>
         <v>525</v>
@@ -19214,7 +19527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A527">
         <f t="shared" si="17"/>
         <v>526</v>
@@ -19235,7 +19548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A528">
         <f t="shared" si="17"/>
         <v>527</v>
@@ -19256,7 +19569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A529">
         <f t="shared" si="17"/>
         <v>528</v>
@@ -19277,7 +19590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A530">
         <f t="shared" si="17"/>
         <v>529</v>
@@ -19298,7 +19611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A531">
         <f t="shared" si="17"/>
         <v>530</v>
@@ -19319,7 +19632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A532">
         <f t="shared" si="17"/>
         <v>531</v>
@@ -19340,7 +19653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A533">
         <f t="shared" si="17"/>
         <v>532</v>
@@ -19361,7 +19674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A534">
         <f t="shared" si="17"/>
         <v>533</v>
@@ -19382,7 +19695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A535">
         <f t="shared" si="17"/>
         <v>534</v>
@@ -19403,7 +19716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A536">
         <f t="shared" si="17"/>
         <v>535</v>
@@ -19424,7 +19737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A537">
         <f t="shared" si="17"/>
         <v>536</v>
@@ -19445,7 +19758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A538">
         <f t="shared" si="17"/>
         <v>537</v>
@@ -19466,7 +19779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
         <f t="shared" si="17"/>
         <v>538</v>
@@ -19487,7 +19800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
         <f t="shared" si="17"/>
         <v>539</v>
@@ -19508,7 +19821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
         <f t="shared" si="17"/>
         <v>540</v>
@@ -19529,7 +19842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
         <f t="shared" si="17"/>
         <v>541</v>
@@ -19550,7 +19863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
         <f t="shared" si="17"/>
         <v>542</v>
@@ -19571,7 +19884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
         <f t="shared" si="17"/>
         <v>543</v>
@@ -19592,7 +19905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
         <f t="shared" si="17"/>
         <v>544</v>
@@ -19613,7 +19926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
         <f t="shared" si="17"/>
         <v>545</v>
@@ -19634,7 +19947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
         <f t="shared" si="17"/>
         <v>546</v>
@@ -19655,7 +19968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A548">
         <f t="shared" si="17"/>
         <v>547</v>
@@ -19676,7 +19989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A549">
         <f t="shared" si="17"/>
         <v>548</v>
@@ -19697,7 +20010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A550">
         <f t="shared" si="17"/>
         <v>549</v>
@@ -19718,7 +20031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A551">
         <f t="shared" si="17"/>
         <v>550</v>
@@ -19739,7 +20052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A552">
         <f t="shared" si="17"/>
         <v>551</v>
@@ -19760,7 +20073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A553">
         <f t="shared" si="17"/>
         <v>552</v>
@@ -19781,7 +20094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A554">
         <f t="shared" si="17"/>
         <v>553</v>
@@ -19802,7 +20115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A555">
         <f t="shared" si="17"/>
         <v>554</v>
@@ -19823,7 +20136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A556">
         <f t="shared" si="17"/>
         <v>555</v>
@@ -19844,7 +20157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A557">
         <f t="shared" si="17"/>
         <v>556</v>
@@ -19865,7 +20178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A558">
         <f t="shared" ref="A558:A601" si="18">ROW()-1</f>
         <v>557</v>
@@ -19886,7 +20199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A559">
         <f t="shared" si="18"/>
         <v>558</v>
@@ -19907,7 +20220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A560">
         <f t="shared" si="18"/>
         <v>559</v>
@@ -19928,7 +20241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A561">
         <f t="shared" si="18"/>
         <v>560</v>
@@ -19949,7 +20262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A562">
         <f t="shared" si="18"/>
         <v>561</v>
@@ -19970,7 +20283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A563">
         <f t="shared" si="18"/>
         <v>562</v>
@@ -19991,7 +20304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A564">
         <f t="shared" si="18"/>
         <v>563</v>
@@ -20012,7 +20325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A565">
         <f t="shared" si="18"/>
         <v>564</v>
@@ -20033,7 +20346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A566">
         <f t="shared" si="18"/>
         <v>565</v>
@@ -20054,7 +20367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A567">
         <f t="shared" si="18"/>
         <v>566</v>
@@ -20075,7 +20388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A568">
         <f t="shared" si="18"/>
         <v>567</v>
@@ -20096,7 +20409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A569">
         <f t="shared" si="18"/>
         <v>568</v>
@@ -20117,7 +20430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A570">
         <f t="shared" si="18"/>
         <v>569</v>
@@ -20138,7 +20451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A571">
         <f t="shared" si="18"/>
         <v>570</v>
@@ -20159,7 +20472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A572">
         <f t="shared" si="18"/>
         <v>571</v>
@@ -20180,7 +20493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A573">
         <f t="shared" si="18"/>
         <v>572</v>
@@ -20201,7 +20514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A574">
         <f t="shared" si="18"/>
         <v>573</v>
@@ -20222,7 +20535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A575">
         <f t="shared" si="18"/>
         <v>574</v>
@@ -20243,7 +20556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A576">
         <f t="shared" si="18"/>
         <v>575</v>
@@ -20264,7 +20577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A577">
         <f t="shared" si="18"/>
         <v>576</v>
@@ -20285,7 +20598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A578">
         <f t="shared" si="18"/>
         <v>577</v>
@@ -20306,7 +20619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A579">
         <f t="shared" si="18"/>
         <v>578</v>
@@ -20327,7 +20640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A580">
         <f t="shared" si="18"/>
         <v>579</v>
@@ -20348,7 +20661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A581">
         <f t="shared" si="18"/>
         <v>580</v>
@@ -20369,7 +20682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A582">
         <f t="shared" si="18"/>
         <v>581</v>
@@ -20390,7 +20703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A583">
         <f t="shared" si="18"/>
         <v>582</v>
@@ -20411,7 +20724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A584">
         <f t="shared" si="18"/>
         <v>583</v>
@@ -20432,7 +20745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A585">
         <f t="shared" si="18"/>
         <v>584</v>
@@ -20453,7 +20766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A586">
         <f t="shared" si="18"/>
         <v>585</v>
@@ -20474,7 +20787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A587">
         <f t="shared" si="18"/>
         <v>586</v>
@@ -20495,7 +20808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A588">
         <f t="shared" si="18"/>
         <v>587</v>
@@ -20516,7 +20829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A589">
         <f t="shared" si="18"/>
         <v>588</v>
@@ -20537,7 +20850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A590">
         <f t="shared" si="18"/>
         <v>589</v>
@@ -20558,7 +20871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A591">
         <f t="shared" si="18"/>
         <v>590</v>
@@ -20579,7 +20892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A592">
         <f t="shared" si="18"/>
         <v>591</v>
@@ -20600,7 +20913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A593">
         <f t="shared" si="18"/>
         <v>592</v>
@@ -20621,7 +20934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A594">
         <f t="shared" si="18"/>
         <v>593</v>
@@ -20642,7 +20955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A595">
         <f t="shared" si="18"/>
         <v>594</v>
@@ -20663,7 +20976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A596">
         <f t="shared" si="18"/>
         <v>595</v>
@@ -20684,7 +20997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A597">
         <f t="shared" si="18"/>
         <v>596</v>
@@ -20705,7 +21018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A598">
         <f t="shared" si="18"/>
         <v>597</v>
@@ -20726,7 +21039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A599">
         <f t="shared" si="18"/>
         <v>598</v>
@@ -20747,7 +21060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A600">
         <f t="shared" si="18"/>
         <v>599</v>
@@ -20768,7 +21081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A601">
         <f t="shared" si="18"/>
         <v>600</v>
@@ -20787,6 +21100,1896 @@
       </c>
       <c r="F601">
         <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A602">
+        <f>ROW()-1</f>
+        <v>601</v>
+      </c>
+      <c r="B602">
+        <v>2</v>
+      </c>
+      <c r="C602" t="s">
+        <v>184</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602" t="s">
+        <v>0</v>
+      </c>
+      <c r="F602">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A603">
+        <f>ROW()-1</f>
+        <v>602</v>
+      </c>
+      <c r="B603">
+        <v>2</v>
+      </c>
+      <c r="C603" t="s">
+        <v>184</v>
+      </c>
+      <c r="D603">
+        <v>2</v>
+      </c>
+      <c r="E603" t="s">
+        <v>0</v>
+      </c>
+      <c r="F603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A604">
+        <f>ROW()-1</f>
+        <v>603</v>
+      </c>
+      <c r="B604">
+        <v>2</v>
+      </c>
+      <c r="C604" t="s">
+        <v>184</v>
+      </c>
+      <c r="D604">
+        <v>3</v>
+      </c>
+      <c r="E604" t="s">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A605">
+        <f>ROW()-1</f>
+        <v>604</v>
+      </c>
+      <c r="B605">
+        <v>2</v>
+      </c>
+      <c r="C605" t="s">
+        <v>184</v>
+      </c>
+      <c r="D605">
+        <v>4</v>
+      </c>
+      <c r="E605" t="s">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A606">
+        <f>ROW()-1</f>
+        <v>605</v>
+      </c>
+      <c r="B606">
+        <v>2</v>
+      </c>
+      <c r="C606" t="s">
+        <v>184</v>
+      </c>
+      <c r="D606">
+        <v>5</v>
+      </c>
+      <c r="E606" t="s">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A607">
+        <f t="shared" ref="A607:A611" si="19">ROW()-1</f>
+        <v>606</v>
+      </c>
+      <c r="B607">
+        <v>2</v>
+      </c>
+      <c r="C607" t="s">
+        <v>184</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1</v>
+      </c>
+      <c r="F607">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A608">
+        <f t="shared" si="19"/>
+        <v>607</v>
+      </c>
+      <c r="B608">
+        <v>2</v>
+      </c>
+      <c r="C608" t="s">
+        <v>184</v>
+      </c>
+      <c r="D608">
+        <v>2</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1</v>
+      </c>
+      <c r="F608">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A609">
+        <f t="shared" si="19"/>
+        <v>608</v>
+      </c>
+      <c r="B609">
+        <v>2</v>
+      </c>
+      <c r="C609" t="s">
+        <v>184</v>
+      </c>
+      <c r="D609">
+        <v>3</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1</v>
+      </c>
+      <c r="F609">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A610">
+        <f t="shared" si="19"/>
+        <v>609</v>
+      </c>
+      <c r="B610">
+        <v>2</v>
+      </c>
+      <c r="C610" t="s">
+        <v>184</v>
+      </c>
+      <c r="D610">
+        <v>4</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1</v>
+      </c>
+      <c r="F610">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A611">
+        <f t="shared" si="19"/>
+        <v>610</v>
+      </c>
+      <c r="B611">
+        <v>2</v>
+      </c>
+      <c r="C611" t="s">
+        <v>184</v>
+      </c>
+      <c r="D611">
+        <v>5</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A612">
+        <f t="shared" ref="A612:A616" si="20">ROW()-1</f>
+        <v>611</v>
+      </c>
+      <c r="B612">
+        <v>2</v>
+      </c>
+      <c r="C612" t="s">
+        <v>184</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
+        <v>2</v>
+      </c>
+      <c r="F612">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A613">
+        <f t="shared" si="20"/>
+        <v>612</v>
+      </c>
+      <c r="B613">
+        <v>2</v>
+      </c>
+      <c r="C613" t="s">
+        <v>184</v>
+      </c>
+      <c r="D613">
+        <v>2</v>
+      </c>
+      <c r="E613" t="s">
+        <v>2</v>
+      </c>
+      <c r="F613">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A614">
+        <f t="shared" si="20"/>
+        <v>613</v>
+      </c>
+      <c r="B614">
+        <v>2</v>
+      </c>
+      <c r="C614" t="s">
+        <v>184</v>
+      </c>
+      <c r="D614">
+        <v>3</v>
+      </c>
+      <c r="E614" t="s">
+        <v>2</v>
+      </c>
+      <c r="F614">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A615">
+        <f t="shared" si="20"/>
+        <v>614</v>
+      </c>
+      <c r="B615">
+        <v>2</v>
+      </c>
+      <c r="C615" t="s">
+        <v>184</v>
+      </c>
+      <c r="D615">
+        <v>4</v>
+      </c>
+      <c r="E615" t="s">
+        <v>2</v>
+      </c>
+      <c r="F615">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A616">
+        <f t="shared" si="20"/>
+        <v>615</v>
+      </c>
+      <c r="B616">
+        <v>2</v>
+      </c>
+      <c r="C616" t="s">
+        <v>184</v>
+      </c>
+      <c r="D616">
+        <v>5</v>
+      </c>
+      <c r="E616" t="s">
+        <v>2</v>
+      </c>
+      <c r="F616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A617">
+        <f t="shared" ref="A617:A621" si="21">ROW()-1</f>
+        <v>616</v>
+      </c>
+      <c r="B617">
+        <v>2</v>
+      </c>
+      <c r="C617" t="s">
+        <v>184</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617" t="s">
+        <v>3</v>
+      </c>
+      <c r="F617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A618">
+        <f t="shared" si="21"/>
+        <v>617</v>
+      </c>
+      <c r="B618">
+        <v>2</v>
+      </c>
+      <c r="C618" t="s">
+        <v>184</v>
+      </c>
+      <c r="D618">
+        <v>2</v>
+      </c>
+      <c r="E618" t="s">
+        <v>3</v>
+      </c>
+      <c r="F618">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A619">
+        <f t="shared" si="21"/>
+        <v>618</v>
+      </c>
+      <c r="B619">
+        <v>2</v>
+      </c>
+      <c r="C619" t="s">
+        <v>184</v>
+      </c>
+      <c r="D619">
+        <v>3</v>
+      </c>
+      <c r="E619" t="s">
+        <v>3</v>
+      </c>
+      <c r="F619">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A620">
+        <f t="shared" si="21"/>
+        <v>619</v>
+      </c>
+      <c r="B620">
+        <v>2</v>
+      </c>
+      <c r="C620" t="s">
+        <v>184</v>
+      </c>
+      <c r="D620">
+        <v>4</v>
+      </c>
+      <c r="E620" t="s">
+        <v>3</v>
+      </c>
+      <c r="F620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A621">
+        <f t="shared" si="21"/>
+        <v>620</v>
+      </c>
+      <c r="B621">
+        <v>2</v>
+      </c>
+      <c r="C621" t="s">
+        <v>184</v>
+      </c>
+      <c r="D621">
+        <v>5</v>
+      </c>
+      <c r="E621" t="s">
+        <v>3</v>
+      </c>
+      <c r="F621">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A622">
+        <f t="shared" ref="A622:A626" si="22">ROW()-1</f>
+        <v>621</v>
+      </c>
+      <c r="B622">
+        <v>2</v>
+      </c>
+      <c r="C622" t="s">
+        <v>184</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="E622" t="s">
+        <v>19</v>
+      </c>
+      <c r="F622">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A623">
+        <f t="shared" si="22"/>
+        <v>622</v>
+      </c>
+      <c r="B623">
+        <v>2</v>
+      </c>
+      <c r="C623" t="s">
+        <v>184</v>
+      </c>
+      <c r="D623">
+        <v>2</v>
+      </c>
+      <c r="E623" t="s">
+        <v>19</v>
+      </c>
+      <c r="F623">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A624">
+        <f t="shared" si="22"/>
+        <v>623</v>
+      </c>
+      <c r="B624">
+        <v>2</v>
+      </c>
+      <c r="C624" t="s">
+        <v>184</v>
+      </c>
+      <c r="D624">
+        <v>3</v>
+      </c>
+      <c r="E624" t="s">
+        <v>19</v>
+      </c>
+      <c r="F624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A625">
+        <f t="shared" si="22"/>
+        <v>624</v>
+      </c>
+      <c r="B625">
+        <v>2</v>
+      </c>
+      <c r="C625" t="s">
+        <v>184</v>
+      </c>
+      <c r="D625">
+        <v>4</v>
+      </c>
+      <c r="E625" t="s">
+        <v>19</v>
+      </c>
+      <c r="F625">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A626">
+        <f t="shared" si="22"/>
+        <v>625</v>
+      </c>
+      <c r="B626">
+        <v>2</v>
+      </c>
+      <c r="C626" t="s">
+        <v>184</v>
+      </c>
+      <c r="D626">
+        <v>5</v>
+      </c>
+      <c r="E626" t="s">
+        <v>19</v>
+      </c>
+      <c r="F626">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A627">
+        <f t="shared" ref="A627:A631" si="23">ROW()-1</f>
+        <v>626</v>
+      </c>
+      <c r="B627">
+        <v>2</v>
+      </c>
+      <c r="C627" t="s">
+        <v>184</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
+      </c>
+      <c r="E627" t="s">
+        <v>4</v>
+      </c>
+      <c r="F627">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A628">
+        <f t="shared" si="23"/>
+        <v>627</v>
+      </c>
+      <c r="B628">
+        <v>2</v>
+      </c>
+      <c r="C628" t="s">
+        <v>184</v>
+      </c>
+      <c r="D628">
+        <v>2</v>
+      </c>
+      <c r="E628" t="s">
+        <v>4</v>
+      </c>
+      <c r="F628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A629">
+        <f t="shared" si="23"/>
+        <v>628</v>
+      </c>
+      <c r="B629">
+        <v>2</v>
+      </c>
+      <c r="C629" t="s">
+        <v>184</v>
+      </c>
+      <c r="D629">
+        <v>3</v>
+      </c>
+      <c r="E629" t="s">
+        <v>4</v>
+      </c>
+      <c r="F629">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A630">
+        <f t="shared" si="23"/>
+        <v>629</v>
+      </c>
+      <c r="B630">
+        <v>2</v>
+      </c>
+      <c r="C630" t="s">
+        <v>184</v>
+      </c>
+      <c r="D630">
+        <v>4</v>
+      </c>
+      <c r="E630" t="s">
+        <v>4</v>
+      </c>
+      <c r="F630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A631">
+        <f t="shared" si="23"/>
+        <v>630</v>
+      </c>
+      <c r="B631">
+        <v>2</v>
+      </c>
+      <c r="C631" t="s">
+        <v>184</v>
+      </c>
+      <c r="D631">
+        <v>5</v>
+      </c>
+      <c r="E631" t="s">
+        <v>4</v>
+      </c>
+      <c r="F631">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A632">
+        <f t="shared" ref="A632:A661" si="24">ROW()-1</f>
+        <v>631</v>
+      </c>
+      <c r="B632">
+        <v>2</v>
+      </c>
+      <c r="C632" t="s">
+        <v>185</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+      <c r="E632" t="s">
+        <v>0</v>
+      </c>
+      <c r="F632">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A633">
+        <f t="shared" si="24"/>
+        <v>632</v>
+      </c>
+      <c r="B633">
+        <v>2</v>
+      </c>
+      <c r="C633" t="s">
+        <v>185</v>
+      </c>
+      <c r="D633">
+        <v>2</v>
+      </c>
+      <c r="E633" t="s">
+        <v>0</v>
+      </c>
+      <c r="F633">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A634">
+        <f t="shared" si="24"/>
+        <v>633</v>
+      </c>
+      <c r="B634">
+        <v>2</v>
+      </c>
+      <c r="C634" t="s">
+        <v>185</v>
+      </c>
+      <c r="D634">
+        <v>3</v>
+      </c>
+      <c r="E634" t="s">
+        <v>0</v>
+      </c>
+      <c r="F634">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A635">
+        <f t="shared" si="24"/>
+        <v>634</v>
+      </c>
+      <c r="B635">
+        <v>2</v>
+      </c>
+      <c r="C635" t="s">
+        <v>185</v>
+      </c>
+      <c r="D635">
+        <v>4</v>
+      </c>
+      <c r="E635" t="s">
+        <v>0</v>
+      </c>
+      <c r="F635">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A636">
+        <f t="shared" si="24"/>
+        <v>635</v>
+      </c>
+      <c r="B636">
+        <v>2</v>
+      </c>
+      <c r="C636" t="s">
+        <v>185</v>
+      </c>
+      <c r="D636">
+        <v>5</v>
+      </c>
+      <c r="E636" t="s">
+        <v>0</v>
+      </c>
+      <c r="F636">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A637">
+        <f t="shared" si="24"/>
+        <v>636</v>
+      </c>
+      <c r="B637">
+        <v>2</v>
+      </c>
+      <c r="C637" t="s">
+        <v>185</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1</v>
+      </c>
+      <c r="F637">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A638">
+        <f t="shared" si="24"/>
+        <v>637</v>
+      </c>
+      <c r="B638">
+        <v>2</v>
+      </c>
+      <c r="C638" t="s">
+        <v>185</v>
+      </c>
+      <c r="D638">
+        <v>2</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1</v>
+      </c>
+      <c r="F638">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A639">
+        <f t="shared" si="24"/>
+        <v>638</v>
+      </c>
+      <c r="B639">
+        <v>2</v>
+      </c>
+      <c r="C639" t="s">
+        <v>185</v>
+      </c>
+      <c r="D639">
+        <v>3</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1</v>
+      </c>
+      <c r="F639">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A640">
+        <f t="shared" si="24"/>
+        <v>639</v>
+      </c>
+      <c r="B640">
+        <v>2</v>
+      </c>
+      <c r="C640" t="s">
+        <v>185</v>
+      </c>
+      <c r="D640">
+        <v>4</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1</v>
+      </c>
+      <c r="F640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A641">
+        <f t="shared" si="24"/>
+        <v>640</v>
+      </c>
+      <c r="B641">
+        <v>2</v>
+      </c>
+      <c r="C641" t="s">
+        <v>185</v>
+      </c>
+      <c r="D641">
+        <v>5</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1</v>
+      </c>
+      <c r="F641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A642">
+        <f t="shared" si="24"/>
+        <v>641</v>
+      </c>
+      <c r="B642">
+        <v>2</v>
+      </c>
+      <c r="C642" t="s">
+        <v>185</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642" t="s">
+        <v>2</v>
+      </c>
+      <c r="F642">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A643">
+        <f t="shared" si="24"/>
+        <v>642</v>
+      </c>
+      <c r="B643">
+        <v>2</v>
+      </c>
+      <c r="C643" t="s">
+        <v>185</v>
+      </c>
+      <c r="D643">
+        <v>2</v>
+      </c>
+      <c r="E643" t="s">
+        <v>2</v>
+      </c>
+      <c r="F643">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A644">
+        <f t="shared" si="24"/>
+        <v>643</v>
+      </c>
+      <c r="B644">
+        <v>2</v>
+      </c>
+      <c r="C644" t="s">
+        <v>185</v>
+      </c>
+      <c r="D644">
+        <v>3</v>
+      </c>
+      <c r="E644" t="s">
+        <v>2</v>
+      </c>
+      <c r="F644">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A645">
+        <f t="shared" si="24"/>
+        <v>644</v>
+      </c>
+      <c r="B645">
+        <v>2</v>
+      </c>
+      <c r="C645" t="s">
+        <v>185</v>
+      </c>
+      <c r="D645">
+        <v>4</v>
+      </c>
+      <c r="E645" t="s">
+        <v>2</v>
+      </c>
+      <c r="F645">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A646">
+        <f t="shared" si="24"/>
+        <v>645</v>
+      </c>
+      <c r="B646">
+        <v>2</v>
+      </c>
+      <c r="C646" t="s">
+        <v>185</v>
+      </c>
+      <c r="D646">
+        <v>5</v>
+      </c>
+      <c r="E646" t="s">
+        <v>2</v>
+      </c>
+      <c r="F646">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A647">
+        <f t="shared" si="24"/>
+        <v>646</v>
+      </c>
+      <c r="B647">
+        <v>2</v>
+      </c>
+      <c r="C647" t="s">
+        <v>185</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
+      </c>
+      <c r="E647" t="s">
+        <v>3</v>
+      </c>
+      <c r="F647">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A648">
+        <f t="shared" si="24"/>
+        <v>647</v>
+      </c>
+      <c r="B648">
+        <v>2</v>
+      </c>
+      <c r="C648" t="s">
+        <v>185</v>
+      </c>
+      <c r="D648">
+        <v>2</v>
+      </c>
+      <c r="E648" t="s">
+        <v>3</v>
+      </c>
+      <c r="F648">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A649">
+        <f t="shared" si="24"/>
+        <v>648</v>
+      </c>
+      <c r="B649">
+        <v>2</v>
+      </c>
+      <c r="C649" t="s">
+        <v>185</v>
+      </c>
+      <c r="D649">
+        <v>3</v>
+      </c>
+      <c r="E649" t="s">
+        <v>3</v>
+      </c>
+      <c r="F649">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A650">
+        <f t="shared" si="24"/>
+        <v>649</v>
+      </c>
+      <c r="B650">
+        <v>2</v>
+      </c>
+      <c r="C650" t="s">
+        <v>185</v>
+      </c>
+      <c r="D650">
+        <v>4</v>
+      </c>
+      <c r="E650" t="s">
+        <v>3</v>
+      </c>
+      <c r="F650">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A651">
+        <f t="shared" si="24"/>
+        <v>650</v>
+      </c>
+      <c r="B651">
+        <v>2</v>
+      </c>
+      <c r="C651" t="s">
+        <v>185</v>
+      </c>
+      <c r="D651">
+        <v>5</v>
+      </c>
+      <c r="E651" t="s">
+        <v>3</v>
+      </c>
+      <c r="F651">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A652">
+        <f t="shared" si="24"/>
+        <v>651</v>
+      </c>
+      <c r="B652">
+        <v>2</v>
+      </c>
+      <c r="C652" t="s">
+        <v>185</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652" t="s">
+        <v>19</v>
+      </c>
+      <c r="F652">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A653">
+        <f t="shared" si="24"/>
+        <v>652</v>
+      </c>
+      <c r="B653">
+        <v>2</v>
+      </c>
+      <c r="C653" t="s">
+        <v>185</v>
+      </c>
+      <c r="D653">
+        <v>2</v>
+      </c>
+      <c r="E653" t="s">
+        <v>19</v>
+      </c>
+      <c r="F653">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A654">
+        <f t="shared" si="24"/>
+        <v>653</v>
+      </c>
+      <c r="B654">
+        <v>2</v>
+      </c>
+      <c r="C654" t="s">
+        <v>185</v>
+      </c>
+      <c r="D654">
+        <v>3</v>
+      </c>
+      <c r="E654" t="s">
+        <v>19</v>
+      </c>
+      <c r="F654">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A655">
+        <f t="shared" si="24"/>
+        <v>654</v>
+      </c>
+      <c r="B655">
+        <v>2</v>
+      </c>
+      <c r="C655" t="s">
+        <v>185</v>
+      </c>
+      <c r="D655">
+        <v>4</v>
+      </c>
+      <c r="E655" t="s">
+        <v>19</v>
+      </c>
+      <c r="F655">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A656">
+        <f t="shared" si="24"/>
+        <v>655</v>
+      </c>
+      <c r="B656">
+        <v>2</v>
+      </c>
+      <c r="C656" t="s">
+        <v>185</v>
+      </c>
+      <c r="D656">
+        <v>5</v>
+      </c>
+      <c r="E656" t="s">
+        <v>19</v>
+      </c>
+      <c r="F656">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A657">
+        <f t="shared" si="24"/>
+        <v>656</v>
+      </c>
+      <c r="B657">
+        <v>2</v>
+      </c>
+      <c r="C657" t="s">
+        <v>185</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657" t="s">
+        <v>4</v>
+      </c>
+      <c r="F657">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A658">
+        <f t="shared" si="24"/>
+        <v>657</v>
+      </c>
+      <c r="B658">
+        <v>2</v>
+      </c>
+      <c r="C658" t="s">
+        <v>185</v>
+      </c>
+      <c r="D658">
+        <v>2</v>
+      </c>
+      <c r="E658" t="s">
+        <v>4</v>
+      </c>
+      <c r="F658">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A659">
+        <f t="shared" si="24"/>
+        <v>658</v>
+      </c>
+      <c r="B659">
+        <v>2</v>
+      </c>
+      <c r="C659" t="s">
+        <v>185</v>
+      </c>
+      <c r="D659">
+        <v>3</v>
+      </c>
+      <c r="E659" t="s">
+        <v>4</v>
+      </c>
+      <c r="F659">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A660">
+        <f t="shared" si="24"/>
+        <v>659</v>
+      </c>
+      <c r="B660">
+        <v>2</v>
+      </c>
+      <c r="C660" t="s">
+        <v>185</v>
+      </c>
+      <c r="D660">
+        <v>4</v>
+      </c>
+      <c r="E660" t="s">
+        <v>4</v>
+      </c>
+      <c r="F660">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A661">
+        <f t="shared" si="24"/>
+        <v>660</v>
+      </c>
+      <c r="B661">
+        <v>2</v>
+      </c>
+      <c r="C661" t="s">
+        <v>185</v>
+      </c>
+      <c r="D661">
+        <v>5</v>
+      </c>
+      <c r="E661" t="s">
+        <v>4</v>
+      </c>
+      <c r="F661">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A662">
+        <f t="shared" ref="A662:A691" si="25">ROW()-1</f>
+        <v>661</v>
+      </c>
+      <c r="B662">
+        <v>2</v>
+      </c>
+      <c r="C662" t="s">
+        <v>186</v>
+      </c>
+      <c r="D662">
+        <v>1</v>
+      </c>
+      <c r="E662" t="s">
+        <v>0</v>
+      </c>
+      <c r="F662">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A663">
+        <f t="shared" si="25"/>
+        <v>662</v>
+      </c>
+      <c r="B663">
+        <v>2</v>
+      </c>
+      <c r="C663" t="s">
+        <v>186</v>
+      </c>
+      <c r="D663">
+        <v>2</v>
+      </c>
+      <c r="E663" t="s">
+        <v>0</v>
+      </c>
+      <c r="F663">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A664">
+        <f t="shared" si="25"/>
+        <v>663</v>
+      </c>
+      <c r="B664">
+        <v>2</v>
+      </c>
+      <c r="C664" t="s">
+        <v>186</v>
+      </c>
+      <c r="D664">
+        <v>3</v>
+      </c>
+      <c r="E664" t="s">
+        <v>0</v>
+      </c>
+      <c r="F664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A665">
+        <f t="shared" si="25"/>
+        <v>664</v>
+      </c>
+      <c r="B665">
+        <v>2</v>
+      </c>
+      <c r="C665" t="s">
+        <v>186</v>
+      </c>
+      <c r="D665">
+        <v>4</v>
+      </c>
+      <c r="E665" t="s">
+        <v>0</v>
+      </c>
+      <c r="F665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A666">
+        <f t="shared" si="25"/>
+        <v>665</v>
+      </c>
+      <c r="B666">
+        <v>2</v>
+      </c>
+      <c r="C666" t="s">
+        <v>186</v>
+      </c>
+      <c r="D666">
+        <v>5</v>
+      </c>
+      <c r="E666" t="s">
+        <v>0</v>
+      </c>
+      <c r="F666">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A667">
+        <f t="shared" si="25"/>
+        <v>666</v>
+      </c>
+      <c r="B667">
+        <v>2</v>
+      </c>
+      <c r="C667" t="s">
+        <v>186</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1</v>
+      </c>
+      <c r="F667">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A668">
+        <f t="shared" si="25"/>
+        <v>667</v>
+      </c>
+      <c r="B668">
+        <v>2</v>
+      </c>
+      <c r="C668" t="s">
+        <v>186</v>
+      </c>
+      <c r="D668">
+        <v>2</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1</v>
+      </c>
+      <c r="F668">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A669">
+        <f t="shared" si="25"/>
+        <v>668</v>
+      </c>
+      <c r="B669">
+        <v>2</v>
+      </c>
+      <c r="C669" t="s">
+        <v>186</v>
+      </c>
+      <c r="D669">
+        <v>3</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1</v>
+      </c>
+      <c r="F669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A670">
+        <f t="shared" si="25"/>
+        <v>669</v>
+      </c>
+      <c r="B670">
+        <v>2</v>
+      </c>
+      <c r="C670" t="s">
+        <v>186</v>
+      </c>
+      <c r="D670">
+        <v>4</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1</v>
+      </c>
+      <c r="F670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A671">
+        <f t="shared" si="25"/>
+        <v>670</v>
+      </c>
+      <c r="B671">
+        <v>2</v>
+      </c>
+      <c r="C671" t="s">
+        <v>186</v>
+      </c>
+      <c r="D671">
+        <v>5</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1</v>
+      </c>
+      <c r="F671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A672">
+        <f t="shared" si="25"/>
+        <v>671</v>
+      </c>
+      <c r="B672">
+        <v>2</v>
+      </c>
+      <c r="C672" t="s">
+        <v>186</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672" t="s">
+        <v>2</v>
+      </c>
+      <c r="F672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A673">
+        <f t="shared" si="25"/>
+        <v>672</v>
+      </c>
+      <c r="B673">
+        <v>2</v>
+      </c>
+      <c r="C673" t="s">
+        <v>186</v>
+      </c>
+      <c r="D673">
+        <v>2</v>
+      </c>
+      <c r="E673" t="s">
+        <v>2</v>
+      </c>
+      <c r="F673">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A674">
+        <f t="shared" si="25"/>
+        <v>673</v>
+      </c>
+      <c r="B674">
+        <v>2</v>
+      </c>
+      <c r="C674" t="s">
+        <v>186</v>
+      </c>
+      <c r="D674">
+        <v>3</v>
+      </c>
+      <c r="E674" t="s">
+        <v>2</v>
+      </c>
+      <c r="F674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A675">
+        <f t="shared" si="25"/>
+        <v>674</v>
+      </c>
+      <c r="B675">
+        <v>2</v>
+      </c>
+      <c r="C675" t="s">
+        <v>186</v>
+      </c>
+      <c r="D675">
+        <v>4</v>
+      </c>
+      <c r="E675" t="s">
+        <v>2</v>
+      </c>
+      <c r="F675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A676">
+        <f t="shared" si="25"/>
+        <v>675</v>
+      </c>
+      <c r="B676">
+        <v>2</v>
+      </c>
+      <c r="C676" t="s">
+        <v>186</v>
+      </c>
+      <c r="D676">
+        <v>5</v>
+      </c>
+      <c r="E676" t="s">
+        <v>2</v>
+      </c>
+      <c r="F676">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A677">
+        <f t="shared" si="25"/>
+        <v>676</v>
+      </c>
+      <c r="B677">
+        <v>2</v>
+      </c>
+      <c r="C677" t="s">
+        <v>186</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677" t="s">
+        <v>3</v>
+      </c>
+      <c r="F677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A678">
+        <f t="shared" si="25"/>
+        <v>677</v>
+      </c>
+      <c r="B678">
+        <v>2</v>
+      </c>
+      <c r="C678" t="s">
+        <v>186</v>
+      </c>
+      <c r="D678">
+        <v>2</v>
+      </c>
+      <c r="E678" t="s">
+        <v>3</v>
+      </c>
+      <c r="F678">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A679">
+        <f t="shared" si="25"/>
+        <v>678</v>
+      </c>
+      <c r="B679">
+        <v>2</v>
+      </c>
+      <c r="C679" t="s">
+        <v>186</v>
+      </c>
+      <c r="D679">
+        <v>3</v>
+      </c>
+      <c r="E679" t="s">
+        <v>3</v>
+      </c>
+      <c r="F679">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A680">
+        <f t="shared" si="25"/>
+        <v>679</v>
+      </c>
+      <c r="B680">
+        <v>2</v>
+      </c>
+      <c r="C680" t="s">
+        <v>186</v>
+      </c>
+      <c r="D680">
+        <v>4</v>
+      </c>
+      <c r="E680" t="s">
+        <v>3</v>
+      </c>
+      <c r="F680">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A681">
+        <f t="shared" si="25"/>
+        <v>680</v>
+      </c>
+      <c r="B681">
+        <v>2</v>
+      </c>
+      <c r="C681" t="s">
+        <v>186</v>
+      </c>
+      <c r="D681">
+        <v>5</v>
+      </c>
+      <c r="E681" t="s">
+        <v>3</v>
+      </c>
+      <c r="F681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A682">
+        <f t="shared" si="25"/>
+        <v>681</v>
+      </c>
+      <c r="B682">
+        <v>2</v>
+      </c>
+      <c r="C682" t="s">
+        <v>186</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682" t="s">
+        <v>19</v>
+      </c>
+      <c r="F682">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A683">
+        <f t="shared" si="25"/>
+        <v>682</v>
+      </c>
+      <c r="B683">
+        <v>2</v>
+      </c>
+      <c r="C683" t="s">
+        <v>186</v>
+      </c>
+      <c r="D683">
+        <v>2</v>
+      </c>
+      <c r="E683" t="s">
+        <v>19</v>
+      </c>
+      <c r="F683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A684">
+        <f t="shared" si="25"/>
+        <v>683</v>
+      </c>
+      <c r="B684">
+        <v>2</v>
+      </c>
+      <c r="C684" t="s">
+        <v>186</v>
+      </c>
+      <c r="D684">
+        <v>3</v>
+      </c>
+      <c r="E684" t="s">
+        <v>19</v>
+      </c>
+      <c r="F684">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A685">
+        <f t="shared" si="25"/>
+        <v>684</v>
+      </c>
+      <c r="B685">
+        <v>2</v>
+      </c>
+      <c r="C685" t="s">
+        <v>186</v>
+      </c>
+      <c r="D685">
+        <v>4</v>
+      </c>
+      <c r="E685" t="s">
+        <v>19</v>
+      </c>
+      <c r="F685">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A686">
+        <f t="shared" si="25"/>
+        <v>685</v>
+      </c>
+      <c r="B686">
+        <v>2</v>
+      </c>
+      <c r="C686" t="s">
+        <v>186</v>
+      </c>
+      <c r="D686">
+        <v>5</v>
+      </c>
+      <c r="E686" t="s">
+        <v>19</v>
+      </c>
+      <c r="F686">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A687">
+        <f t="shared" si="25"/>
+        <v>686</v>
+      </c>
+      <c r="B687">
+        <v>2</v>
+      </c>
+      <c r="C687" t="s">
+        <v>186</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687" t="s">
+        <v>4</v>
+      </c>
+      <c r="F687">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A688">
+        <f t="shared" si="25"/>
+        <v>687</v>
+      </c>
+      <c r="B688">
+        <v>2</v>
+      </c>
+      <c r="C688" t="s">
+        <v>186</v>
+      </c>
+      <c r="D688">
+        <v>2</v>
+      </c>
+      <c r="E688" t="s">
+        <v>4</v>
+      </c>
+      <c r="F688">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A689">
+        <f t="shared" si="25"/>
+        <v>688</v>
+      </c>
+      <c r="B689">
+        <v>2</v>
+      </c>
+      <c r="C689" t="s">
+        <v>186</v>
+      </c>
+      <c r="D689">
+        <v>3</v>
+      </c>
+      <c r="E689" t="s">
+        <v>4</v>
+      </c>
+      <c r="F689">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A690">
+        <f t="shared" si="25"/>
+        <v>689</v>
+      </c>
+      <c r="B690">
+        <v>2</v>
+      </c>
+      <c r="C690" t="s">
+        <v>186</v>
+      </c>
+      <c r="D690">
+        <v>4</v>
+      </c>
+      <c r="E690" t="s">
+        <v>4</v>
+      </c>
+      <c r="F690">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A691">
+        <f t="shared" si="25"/>
+        <v>690</v>
+      </c>
+      <c r="B691">
+        <v>2</v>
+      </c>
+      <c r="C691" t="s">
+        <v>186</v>
+      </c>
+      <c r="D691">
+        <v>5</v>
+      </c>
+      <c r="E691" t="s">
+        <v>4</v>
+      </c>
+      <c r="F691">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -20805,14 +23008,14 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>76</v>
       </c>
@@ -20820,7 +23023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
@@ -20834,7 +23037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -20848,7 +23051,7 @@
         <v>3.6285714285714286</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -20862,7 +23065,7 @@
         <v>3.3142857142857145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -20876,7 +23079,7 @@
         <v>3.0428571428571427</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -20890,7 +23093,7 @@
         <v>3.5285714285714285</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -20904,7 +23107,7 @@
         <v>3.5714285714285716</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -20918,7 +23121,7 @@
         <v>2.3142857142857145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -20945,13 +23148,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -20962,7 +23165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -20973,7 +23176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -20984,7 +23187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -20995,7 +23198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -21006,7 +23209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -21017,7 +23220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -21028,7 +23231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -21039,7 +23242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -21050,7 +23253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -21061,7 +23264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -21072,7 +23275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -21083,7 +23286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -21094,7 +23297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -21105,7 +23308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -21116,7 +23319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -21127,7 +23330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -21138,7 +23341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -21149,7 +23352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -21160,7 +23363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -21171,7 +23374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -21182,7 +23385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -21193,7 +23396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -21204,7 +23407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -21215,7 +23418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -21226,7 +23429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -21237,7 +23440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -21248,7 +23451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -21259,7 +23462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -21270,7 +23473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -21281,7 +23484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>18</v>
       </c>

--- a/Project/Resultat/Analyse des resultatsV2.xlsx
+++ b/Project/Resultat/Analyse des resultatsV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudedb\Documents\GitHub\RecSys\Project\Resultat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikap\OneDrive\Documents\GitHub\RecSys\Project\Resultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E1F91FB-95AA-4059-AB2F-2CA2E7C717B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="6_{61F55F46-62AD-410E-A8F0-8750BC2A3725}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{94404CEE-BF35-45E4-A630-5463CCC02063}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="7" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="1" activeTab="1" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH1006" sheetId="3" r:id="rId1"/>
@@ -22,22 +22,29 @@
     <sheet name="Resultat" sheetId="12" r:id="rId7"/>
     <sheet name="Analyse" sheetId="14" r:id="rId8"/>
     <sheet name="Mapping" sheetId="13" r:id="rId9"/>
-    <sheet name="Exploration" sheetId="15" r:id="rId10"/>
+    <sheet name="TFIDF" sheetId="16" r:id="rId10"/>
+    <sheet name="Correlation-Termes" sheetId="17" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId11"/>
+    <pivotCache cacheId="13" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="193">
   <si>
     <t>terme.terme</t>
   </si>
@@ -54,9 +61,6 @@
     <t>lsa.tfidf</t>
   </si>
   <si>
-    <t>INF4405</t>
-  </si>
-  <si>
     <t>MTH1110</t>
   </si>
   <si>
@@ -102,42 +106,12 @@
     <t>MTH1115</t>
   </si>
   <si>
-    <t>ELE1402</t>
-  </si>
-  <si>
-    <t>CIV7911</t>
-  </si>
-  <si>
-    <t>CY240</t>
-  </si>
-  <si>
     <t>R-110</t>
   </si>
   <si>
-    <t>ELE6215</t>
-  </si>
-  <si>
-    <t>GBM6103A</t>
-  </si>
-  <si>
-    <t>ELE4704</t>
-  </si>
-  <si>
-    <t>CY150</t>
-  </si>
-  <si>
-    <t>PL050</t>
-  </si>
-  <si>
     <t>AE4165</t>
   </si>
   <si>
-    <t>ELE1600A</t>
-  </si>
-  <si>
-    <t>ELE6903</t>
-  </si>
-  <si>
     <t>PHS1104</t>
   </si>
   <si>
@@ -156,9 +130,6 @@
     <t>GCH6912A</t>
   </si>
   <si>
-    <t>GML6203</t>
-  </si>
-  <si>
     <t>IND1201</t>
   </si>
   <si>
@@ -171,51 +142,6 @@
     <t>IND6212</t>
   </si>
   <si>
-    <t>ELE1409</t>
-  </si>
-  <si>
-    <t>ELE6429</t>
-  </si>
-  <si>
-    <t>ELE2400</t>
-  </si>
-  <si>
-    <t>ELE4203</t>
-  </si>
-  <si>
-    <t>ELE1001</t>
-  </si>
-  <si>
-    <t>GBM2214</t>
-  </si>
-  <si>
-    <t>CP110</t>
-  </si>
-  <si>
-    <t>GBM4214</t>
-  </si>
-  <si>
-    <t>ELE2200</t>
-  </si>
-  <si>
-    <t>CP120</t>
-  </si>
-  <si>
-    <t>ELE2305</t>
-  </si>
-  <si>
-    <t>AR310</t>
-  </si>
-  <si>
-    <t>ELE6503</t>
-  </si>
-  <si>
-    <t>AE3100</t>
-  </si>
-  <si>
-    <t>ELE4705</t>
-  </si>
-  <si>
     <t>IND8138</t>
   </si>
   <si>
@@ -225,133 +151,25 @@
     <t>MTH2210B</t>
   </si>
   <si>
-    <t>ENE6905</t>
-  </si>
-  <si>
     <t>INF6500</t>
   </si>
   <si>
-    <t>GML6002</t>
-  </si>
-  <si>
-    <t>GLQ3410</t>
-  </si>
-  <si>
-    <t>MIN2707</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
     <t>INF4705</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>Average of Note</t>
   </si>
   <si>
-    <t>lsa.tfidf-50</t>
-  </si>
-  <si>
-    <t>lsa.tfidf-100</t>
-  </si>
-  <si>
-    <t>lsa-tfidf-focus</t>
-  </si>
-  <si>
-    <t>lsa-tfidf-shuffle</t>
-  </si>
-  <si>
-    <t>ELE4306</t>
-  </si>
-  <si>
-    <t>GCH2310</t>
-  </si>
-  <si>
-    <t>GCH1201</t>
-  </si>
-  <si>
-    <t>LOG4430</t>
-  </si>
-  <si>
-    <t>ICM4319</t>
-  </si>
-  <si>
-    <t>MEC4210</t>
-  </si>
-  <si>
-    <t>GCH6903</t>
-  </si>
-  <si>
-    <t>TI460</t>
-  </si>
-  <si>
     <t>MEC3215</t>
   </si>
   <si>
-    <t>GCH8620</t>
-  </si>
-  <si>
-    <t>GLQ2200</t>
-  </si>
-  <si>
-    <t>lsa.log-50</t>
-  </si>
-  <si>
-    <t>lsa.log-100</t>
-  </si>
-  <si>
-    <t>lsa-log-focus</t>
-  </si>
-  <si>
-    <t>lsa-log-shuffle</t>
-  </si>
-  <si>
-    <t>CIV6910</t>
-  </si>
-  <si>
-    <t>MTR1000D</t>
-  </si>
-  <si>
     <t>GBM2330</t>
   </si>
   <si>
-    <t>PHS4210</t>
-  </si>
-  <si>
     <t>GLQ1700</t>
-  </si>
-  <si>
-    <t>ELE2302</t>
-  </si>
-  <si>
-    <t>lsa-50</t>
-  </si>
-  <si>
-    <t>lsa-100</t>
-  </si>
-  <si>
-    <t>lsa-focus</t>
-  </si>
-  <si>
-    <t>lsa-shuffle</t>
-  </si>
-  <si>
-    <t>ELE4458</t>
-  </si>
-  <si>
-    <t>MTR1120</t>
-  </si>
-  <si>
-    <t>ELE3703</t>
   </si>
   <si>
     <t>MTH0102</t>
@@ -598,19 +416,238 @@
   </si>
   <si>
     <t>MEC1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVEC TF IDF avec valeurs nulles </t>
+  </si>
+  <si>
+    <t>lsa.entropy</t>
+  </si>
+  <si>
+    <t>MET6209</t>
+  </si>
+  <si>
+    <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>CP310</t>
+  </si>
+  <si>
+    <t>TS4600</t>
+  </si>
+  <si>
+    <t>CP330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec 100 dimensions </t>
+  </si>
+  <si>
+    <t>Correction termes nuls</t>
+  </si>
+  <si>
+    <t>Aucune correction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               mots</t>
+  </si>
+  <si>
+    <t>1              null</t>
+  </si>
+  <si>
+    <t>2         titrecour</t>
+  </si>
+  <si>
+    <t>3   descriptioncour</t>
+  </si>
+  <si>
+    <t>4                de</t>
+  </si>
+  <si>
+    <t>5                un</t>
+  </si>
+  <si>
+    <t>6               dan</t>
+  </si>
+  <si>
+    <t>7            analys</t>
+  </si>
+  <si>
+    <t>8            applic</t>
+  </si>
+  <si>
+    <t>9           concept</t>
+  </si>
+  <si>
+    <t>10              aux</t>
+  </si>
+  <si>
+    <t>11           system</t>
+  </si>
+  <si>
+    <t>12         techniqu</t>
+  </si>
+  <si>
+    <t>13          travail</t>
+  </si>
+  <si>
+    <t>14          rapport</t>
+  </si>
+  <si>
+    <t>15           method</t>
+  </si>
+  <si>
+    <t>16           projet</t>
+  </si>
+  <si>
+    <t>17              sou</t>
+  </si>
+  <si>
+    <t>18        introduct</t>
+  </si>
+  <si>
+    <t>19           notion</t>
+  </si>
+  <si>
+    <t>20          gestion</t>
+  </si>
+  <si>
+    <t>21          problem</t>
+  </si>
+  <si>
+    <t>22          princip</t>
+  </si>
+  <si>
+    <t>23         structur</t>
+  </si>
+  <si>
+    <t>24             tude</t>
+  </si>
+  <si>
+    <t>25         programm</t>
+  </si>
+  <si>
+    <t>Top tf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Least tf </t>
+  </si>
+  <si>
+    <t>1       prcontraint</t>
+  </si>
+  <si>
+    <t>2               jat</t>
+  </si>
+  <si>
+    <t>3           surtens</t>
+  </si>
+  <si>
+    <t>4           chausse</t>
+  </si>
+  <si>
+    <t>5      manufacturir</t>
+  </si>
+  <si>
+    <t>6              houl</t>
+  </si>
+  <si>
+    <t>7               ada</t>
+  </si>
+  <si>
+    <t>8          temporis</t>
+  </si>
+  <si>
+    <t>9             lumir</t>
+  </si>
+  <si>
+    <t>10              sst</t>
+  </si>
+  <si>
+    <t>11       formabilit</t>
+  </si>
+  <si>
+    <t>12              ctl</t>
+  </si>
+  <si>
+    <t>13               cp</t>
+  </si>
+  <si>
+    <t>14              cfd</t>
+  </si>
+  <si>
+    <t>15        decrochag</t>
+  </si>
+  <si>
+    <t>16          huileus</t>
+  </si>
+  <si>
+    <t>17             pass</t>
+  </si>
+  <si>
+    <t>18         cologiqu</t>
+  </si>
+  <si>
+    <t>19             dgel</t>
+  </si>
+  <si>
+    <t>20      arolasticit</t>
+  </si>
+  <si>
+    <t>21   microcontrleur</t>
+  </si>
+  <si>
+    <t>22          nerveux</t>
+  </si>
+  <si>
+    <t>23              mef</t>
+  </si>
+  <si>
+    <t>24   biomicrosystem</t>
+  </si>
+  <si>
+    <t>25        diphasiqu</t>
+  </si>
+  <si>
+    <t>GCH6905A</t>
+  </si>
+  <si>
+    <t>Z-926</t>
+  </si>
+  <si>
+    <t>Avant LSA (termes.termes)</t>
+  </si>
+  <si>
+    <t>Après LSA (sur X.LSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus sur IND </t>
+  </si>
+  <si>
+    <t>Avec dimensions focus  MEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -622,12 +659,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -635,48 +672,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -693,6 +697,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,8 +752,194 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E40C94D-D907-44E6-9DBA-61CB020761EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="7200000" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355398</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6B16F4-BCF9-463B-B7ED-8C1B30BFD33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2560320"/>
+          <a:ext cx="6695238" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247124</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37B18E0-F06A-4114-92DE-DF53D3F4310D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="4209524" cy="2961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428076</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>64396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60534E76-72C9-4447-BC80-A7049AAF5C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3657600"/>
+          <a:ext cx="4390476" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="claudedb" refreshedDate="43429.563043865739" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="180" xr:uid="{C5D11006-AA91-4232-921B-DF186D999E3E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mikaël Perreault" refreshedDate="43429.633738773147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="180" xr:uid="{C5D11006-AA91-4232-921B-DF186D999E3E}">
   <cacheSource type="worksheet">
     <worksheetSource name="resultats"/>
   </cacheSource>
@@ -769,8 +965,8 @@
         <s v="tf.idf"/>
         <s v="log.entropy"/>
         <s v="lsa"/>
+        <s v="lsa.tfidf"/>
         <s v="lsa.ent"/>
-        <s v="lsa.tfidf"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Note" numFmtId="0">
@@ -2231,7 +2427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2248,8 +2444,8 @@
       <items count="7">
         <item x="2"/>
         <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
@@ -2528,7 +2724,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2827,25 +3023,25 @@
   <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="H5:M9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.89453125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2877,157 +3073,157 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
       <c r="H8">
         <v>4</v>
       </c>
@@ -3050,24 +3246,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -3091,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.4</v>
       </c>
@@ -3149,429 +3345,306 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7FEA74-A9BB-448A-92DE-07989B366054}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A117668-AAA7-494E-A27B-66DAD06A9750}">
+  <dimension ref="A10:D51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC1471-891F-4EC8-8AD9-E9C3FE34A095}">
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CD6A43-0763-4EC0-BB42-E304A873C144}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3603,33 +3676,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -3653,24 +3726,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -3694,24 +3767,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -3735,24 +3808,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -3776,24 +3849,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -3817,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -3859,6 +3932,269 @@
       <c r="M11">
         <f>AVERAGE(Table137[lsa.tfidf])</f>
         <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3876,36 +4212,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67507C4B-FE4A-4529-9CE9-3A2B1154733A}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M9"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="17.68359375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3919,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3937,33 +4273,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -3987,24 +4323,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -4028,24 +4364,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -4069,24 +4405,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -4110,24 +4446,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4151,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.6</v>
       </c>
@@ -4196,6 +4532,205 @@
       </c>
       <c r="N11">
         <f>AVERAGE(Table139[Rang])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f>AVERAGE(K18:K22)</f>
+        <v>3.8</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:M23" si="0">AVERAGE(L18:L22)</f>
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4220,27 +4755,27 @@
       <selection activeCell="H5" sqref="H5:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -4272,33 +4807,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -4322,24 +4857,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -4363,24 +4898,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -4404,24 +4939,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -4445,24 +4980,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -4507,30 +5042,33 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:N9"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -4562,33 +5100,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -4612,24 +5150,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -4653,24 +5191,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -4694,24 +5232,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -4735,24 +5273,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -4794,44 +5332,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345D38B0-4F1D-45F0-ABD1-C29168900DC4}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:N9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.5234375" customWidth="1"/>
-    <col min="6" max="6" width="11.3125" customWidth="1"/>
-    <col min="8" max="8" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4845,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -4863,33 +5401,33 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -4913,24 +5451,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -4954,65 +5492,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
         <v>111</v>
       </c>
-      <c r="C7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>174</v>
-      </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -5036,24 +5574,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -5075,6 +5613,146 @@
       </c>
       <c r="N9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5098,37 +5776,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBE396-7256-413C-88E3-204C4A5F543B}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -5137,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5149,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -5158,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5170,7 +5848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>ROW()-1</f>
         <v>3</v>
@@ -5179,7 +5857,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -5191,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>ROW()-1</f>
         <v>4</v>
@@ -5200,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -5212,7 +5890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>ROW()-1</f>
         <v>5</v>
@@ -5221,7 +5899,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -5233,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ref="A7:A11" si="0">ROW()-1</f>
         <v>6</v>
@@ -5242,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5254,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5263,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -5275,7 +5953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5284,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -5296,7 +5974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5305,7 +5983,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -5317,7 +5995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5326,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -5338,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ref="A12:A16" si="1">ROW()-1</f>
         <v>11</v>
@@ -5347,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5359,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5368,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -5380,7 +6058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5389,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -5401,7 +6079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5410,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -5422,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5431,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -5443,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ref="A17:A21" si="2">ROW()-1</f>
         <v>16</v>
@@ -5452,7 +6130,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5464,7 +6142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -5473,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -5485,7 +6163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -5494,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -5506,7 +6184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -5515,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -5527,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -5536,7 +6214,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -5548,7 +6226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ref="A22:A26" si="3">ROW()-1</f>
         <v>21</v>
@@ -5557,19 +6235,19 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -5578,19 +6256,19 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -5599,19 +6277,19 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -5620,19 +6298,19 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -5641,19 +6319,19 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A31" si="4">ROW()-1</f>
         <v>26</v>
@@ -5662,19 +6340,19 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -5683,19 +6361,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -5704,19 +6382,19 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -5725,19 +6403,19 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -5746,19 +6424,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ref="A32:A61" si="5">ROW()-1</f>
         <v>31</v>
@@ -5767,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -5779,7 +6457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -5788,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -5800,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -5809,7 +6487,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -5821,7 +6499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -5830,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -5842,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -5851,7 +6529,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -5863,7 +6541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -5872,7 +6550,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -5884,7 +6562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="5"/>
         <v>37</v>
@@ -5893,7 +6571,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5905,7 +6583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="5"/>
         <v>38</v>
@@ -5914,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -5926,7 +6604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="5"/>
         <v>39</v>
@@ -5935,7 +6613,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -5947,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -5956,7 +6634,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -5968,7 +6646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -5977,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -5989,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="5"/>
         <v>42</v>
@@ -5998,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -6010,7 +6688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="5"/>
         <v>43</v>
@@ -6019,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -6031,7 +6709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="5"/>
         <v>44</v>
@@ -6040,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -6052,7 +6730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -6061,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -6073,7 +6751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -6082,7 +6760,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -6094,7 +6772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="5"/>
         <v>47</v>
@@ -6103,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -6115,7 +6793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="5"/>
         <v>48</v>
@@ -6124,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -6136,7 +6814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="5"/>
         <v>49</v>
@@ -6145,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -6157,7 +6835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -6166,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -6178,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="5"/>
         <v>51</v>
@@ -6187,19 +6865,19 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="5"/>
         <v>52</v>
@@ -6208,19 +6886,19 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>53</v>
@@ -6229,19 +6907,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>54</v>
@@ -6250,19 +6928,19 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -6271,19 +6949,19 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>56</v>
@@ -6292,19 +6970,19 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>57</v>
@@ -6313,19 +6991,19 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -6334,19 +7012,19 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -6355,19 +7033,19 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -6376,19 +7054,19 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" ref="A62:A91" si="6">ROW()-1</f>
         <v>61</v>
@@ -6397,7 +7075,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -6409,7 +7087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -6418,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -6430,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -6439,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -6451,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -6460,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -6472,7 +7150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -6481,7 +7159,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -6493,7 +7171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -6502,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6514,7 +7192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -6523,7 +7201,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -6535,7 +7213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -6544,7 +7222,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -6556,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -6565,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -6577,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -6586,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -6598,7 +7276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -6607,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -6619,7 +7297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -6628,7 +7306,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -6640,7 +7318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -6649,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -6661,7 +7339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -6670,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -6682,7 +7360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -6691,7 +7369,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -6703,7 +7381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -6712,7 +7390,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -6724,7 +7402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -6733,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -6745,7 +7423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -6754,7 +7432,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -6766,7 +7444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -6775,7 +7453,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -6787,7 +7465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -6796,7 +7474,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -6808,7 +7486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -6817,19 +7495,19 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -6838,19 +7516,19 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -6859,19 +7537,19 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -6880,19 +7558,19 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -6901,19 +7579,19 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -6922,19 +7600,19 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -6943,19 +7621,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -6964,19 +7642,19 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -6985,19 +7663,19 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -7006,19 +7684,19 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" ref="A92:A123" si="7">ROW()-1</f>
         <v>91</v>
@@ -7027,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -7039,7 +7717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="7"/>
         <v>92</v>
@@ -7048,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -7060,7 +7738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="7"/>
         <v>93</v>
@@ -7069,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -7081,7 +7759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="7"/>
         <v>94</v>
@@ -7090,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -7102,7 +7780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -7111,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -7123,7 +7801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -7132,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -7144,7 +7822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -7153,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -7165,7 +7843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -7174,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -7186,7 +7864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -7195,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -7207,7 +7885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -7216,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -7228,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -7237,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -7249,7 +7927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -7258,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -7270,7 +7948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -7279,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -7291,7 +7969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -7300,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -7312,7 +7990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -7321,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -7333,7 +8011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -7342,7 +8020,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -7354,7 +8032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -7363,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -7375,7 +8053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -7384,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -7396,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -7405,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -7417,7 +8095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -7426,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -7438,7 +8116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -7447,19 +8125,19 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F112">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -7468,19 +8146,19 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -7489,19 +8167,19 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D114">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -7510,19 +8188,19 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D115">
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -7531,19 +8209,19 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F116">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -7552,19 +8230,19 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F117">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -7573,19 +8251,19 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F118">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -7594,19 +8272,19 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F119">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -7615,19 +8293,19 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D120">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F120">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -7636,19 +8314,19 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D121">
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="7"/>
         <v>121</v>
@@ -7657,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -7669,7 +8347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="7"/>
         <v>122</v>
@@ -7678,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -7690,7 +8368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" ref="A124:A155" si="8">ROW()-1</f>
         <v>123</v>
@@ -7699,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -7711,7 +8389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="8"/>
         <v>124</v>
@@ -7720,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -7732,7 +8410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="8"/>
         <v>125</v>
@@ -7741,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -7753,7 +8431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="8"/>
         <v>126</v>
@@ -7762,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -7774,7 +8452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="8"/>
         <v>127</v>
@@ -7783,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -7795,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="8"/>
         <v>128</v>
@@ -7804,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -7816,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -7825,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -7837,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="8"/>
         <v>130</v>
@@ -7846,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -7858,7 +8536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="8"/>
         <v>131</v>
@@ -7867,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -7879,7 +8557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -7888,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -7900,7 +8578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -7909,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -7921,7 +8599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="8"/>
         <v>134</v>
@@ -7930,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -7942,7 +8620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="8"/>
         <v>135</v>
@@ -7951,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D136">
         <v>5</v>
@@ -7963,7 +8641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -7972,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -7984,7 +8662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="8"/>
         <v>137</v>
@@ -7993,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -8005,7 +8683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="8"/>
         <v>138</v>
@@ -8014,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -8026,7 +8704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="8"/>
         <v>139</v>
@@ -8035,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D140">
         <v>4</v>
@@ -8047,7 +8725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="8"/>
         <v>140</v>
@@ -8056,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -8068,7 +8746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="8"/>
         <v>141</v>
@@ -8077,19 +8755,19 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F142">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="8"/>
         <v>142</v>
@@ -8098,19 +8776,19 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F143">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="8"/>
         <v>143</v>
@@ -8119,19 +8797,19 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D144">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F144">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="8"/>
         <v>144</v>
@@ -8140,19 +8818,19 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F145">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="8"/>
         <v>145</v>
@@ -8161,19 +8839,19 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D146">
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F146">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="8"/>
         <v>146</v>
@@ -8182,19 +8860,19 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F147">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="8"/>
         <v>147</v>
@@ -8203,19 +8881,19 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F148">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="8"/>
         <v>148</v>
@@ -8224,19 +8902,19 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D149">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F149">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="8"/>
         <v>149</v>
@@ -8245,19 +8923,19 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D150">
         <v>4</v>
       </c>
       <c r="E150" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F150">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="8"/>
         <v>150</v>
@@ -8266,19 +8944,19 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D151">
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F151">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="8"/>
         <v>151</v>
@@ -8287,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -8299,7 +8977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="8"/>
         <v>152</v>
@@ -8308,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -8320,7 +8998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" si="8"/>
         <v>153</v>
@@ -8329,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -8341,7 +9019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="8"/>
         <v>154</v>
@@ -8350,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D155">
         <v>4</v>
@@ -8362,7 +9040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" ref="A156:A181" si="9">ROW()-1</f>
         <v>155</v>
@@ -8371,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D156">
         <v>5</v>
@@ -8383,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="9"/>
         <v>156</v>
@@ -8392,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -8404,7 +9082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="9"/>
         <v>157</v>
@@ -8413,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -8425,7 +9103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="9"/>
         <v>158</v>
@@ -8434,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -8446,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="9"/>
         <v>159</v>
@@ -8455,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D160">
         <v>4</v>
@@ -8467,7 +9145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="9"/>
         <v>160</v>
@@ -8476,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D161">
         <v>5</v>
@@ -8488,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="9"/>
         <v>161</v>
@@ -8497,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -8509,7 +9187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="9"/>
         <v>162</v>
@@ -8518,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -8530,7 +9208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="9"/>
         <v>163</v>
@@ -8539,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -8551,7 +9229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="9"/>
         <v>164</v>
@@ -8560,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -8572,7 +9250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="9"/>
         <v>165</v>
@@ -8581,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -8593,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="9"/>
         <v>166</v>
@@ -8602,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -8614,7 +9292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="9"/>
         <v>167</v>
@@ -8623,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -8635,7 +9313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="9"/>
         <v>168</v>
@@ -8644,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -8656,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="9"/>
         <v>169</v>
@@ -8665,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -8677,7 +9355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="9"/>
         <v>170</v>
@@ -8686,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D171">
         <v>5</v>
@@ -8698,7 +9376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="9"/>
         <v>171</v>
@@ -8707,19 +9385,19 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="9"/>
         <v>172</v>
@@ -8728,19 +9406,19 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="9"/>
         <v>173</v>
@@ -8749,19 +9427,19 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F174">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="9"/>
         <v>174</v>
@@ -8770,19 +9448,19 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D175">
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F175">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="9"/>
         <v>175</v>
@@ -8791,19 +9469,19 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D176">
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="9"/>
         <v>176</v>
@@ -8812,19 +9490,19 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="9"/>
         <v>177</v>
@@ -8833,19 +9511,19 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D178">
         <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="9"/>
         <v>178</v>
@@ -8854,19 +9532,19 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D179">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="9"/>
         <v>179</v>
@@ -8875,19 +9553,19 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D180">
         <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F180">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="9"/>
         <v>180</v>
@@ -8896,13 +9574,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D181">
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -8920,28 +9598,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6789FC-F8F8-4A93-9D72-5B0F3616F6CF}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>69</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8950,104 +9628,104 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>4.1333333333333337</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>4.2666666666666666</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>4.5333333333333332</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>3.7333333333333334</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>4.1333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.1333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.9333333333333331</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="3">
         <v>4.4666666666666668</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="C7" s="3">
         <v>4.2666666666666666</v>
       </c>
-      <c r="D6" s="6">
-        <v>4.1333333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4.1333333333333337</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4.2666666666666666</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
         <v>2.5333333333333332</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="3">
         <v>3.7111111111111112</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>4.0555555555555554</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>3.8833333333333333</v>
       </c>
     </row>
@@ -9064,26 +9742,26 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7890625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -9092,9 +9770,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -9103,9 +9781,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -9114,20 +9792,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -9136,9 +9814,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -9147,20 +9825,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -9169,9 +9847,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -9180,9 +9858,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -9191,9 +9869,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -9202,9 +9880,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -9213,9 +9891,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -9224,9 +9902,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -9235,9 +9913,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -9246,9 +9924,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -9257,9 +9935,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -9268,20 +9946,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -9290,20 +9968,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -9312,9 +9990,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -9323,9 +10001,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -9334,9 +10012,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -9345,31 +10023,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -9378,9 +10056,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -9389,9 +10067,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -9400,9 +10078,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>

--- a/Project/Resultat/Analyse des resultatsV2.xlsx
+++ b/Project/Resultat/Analyse des resultatsV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikap\OneDrive\Documents\GitHub\RecSys\Project\Resultat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudedb\Documents\GitHub\RecSys\Project\Resultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="6_{61F55F46-62AD-410E-A8F0-8750BC2A3725}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{94404CEE-BF35-45E4-A630-5463CCC02063}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{597C642F-4453-4F01-BEF6-E97F0B19E570}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="1" activeTab="1" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="2" activeTab="6" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH1006" sheetId="3" r:id="rId1"/>
@@ -25,26 +25,20 @@
     <sheet name="TFIDF" sheetId="16" r:id="rId10"/>
     <sheet name="Correlation-Termes" sheetId="17" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId12"/>
+    <pivotCache cacheId="15" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="202">
   <si>
     <t>terme.terme</t>
   </si>
@@ -427,15 +421,6 @@
     <t>MET6209</t>
   </si>
   <si>
-    <t>Étiquettes de colonnes</t>
-  </si>
-  <si>
-    <t>Étiquettes de lignes</t>
-  </si>
-  <si>
-    <t>Total général</t>
-  </si>
-  <si>
     <t>CP310</t>
   </si>
   <si>
@@ -629,6 +614,42 @@
   </si>
   <si>
     <t>Avec dimensions focus  MEC</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of id</t>
+  </si>
+  <si>
+    <t>LSA</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Methode 2</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Terme</t>
+  </si>
+  <si>
+    <t>Log Entropy</t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+  </si>
+  <si>
+    <t>Before LSA</t>
+  </si>
+  <si>
+    <t>After LSA</t>
   </si>
 </sst>
 </file>
@@ -676,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -685,6 +706,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -698,11 +725,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +776,1230 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analyse des resultatsV2.xlsx]Analyse!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyse!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log Entropy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Analyse!$F$8:$F$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>.</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyse!$G$8:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C37-458B-AD32-657B8A95CD10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyse!$H$6:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Terme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Analyse!$F$8:$F$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>.</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyse!$H$8:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7C37-458B-AD32-657B8A95CD10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyse!$I$6:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TF-IDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Analyse!$F$8:$F$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LSA</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>.</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyse!$I$8:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7C37-458B-AD32-657B8A95CD10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="348543736"/>
+        <c:axId val="348546032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="348543736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348546032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348546032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348543736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4BBE21-2C3A-4CA1-AA4D-7AB3D41DD0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -845,7 +2092,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -939,11 +2186,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mikaël Perreault" refreshedDate="43429.633738773147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="180" xr:uid="{C5D11006-AA91-4232-921B-DF186D999E3E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="claudedb" refreshedDate="43432.429498148151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="180" xr:uid="{C5D11006-AA91-4232-921B-DF186D999E3E}">
   <cacheSource type="worksheet">
     <worksheetSource name="resultats"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="8">
     <cacheField name="id" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="180"/>
     </cacheField>
@@ -969,8 +2216,28 @@
         <s v="lsa.ent"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Methode 2" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Terme"/>
+        <s v="TF-IDF"/>
+        <s v="Log Entropy"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="LSA" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="."/>
+        <s v="LSA"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Note" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="5"/>
+        <n v="4"/>
+        <n v="2"/>
+        <n v="1"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -989,7 +2256,9 @@
     <s v="INF2010"/>
     <n v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -997,7 +2266,9 @@
     <s v="INF2010"/>
     <n v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -1005,7 +2276,9 @@
     <s v="INF2010"/>
     <n v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="4"/>
@@ -1013,7 +2286,9 @@
     <s v="INF2010"/>
     <n v="4"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="5"/>
@@ -1021,7 +2296,9 @@
     <s v="INF2010"/>
     <n v="5"/>
     <x v="0"/>
-    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="6"/>
@@ -1029,7 +2306,9 @@
     <s v="INF2010"/>
     <n v="1"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="7"/>
@@ -1037,7 +2316,9 @@
     <s v="INF2010"/>
     <n v="2"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="8"/>
@@ -1045,7 +2326,9 @@
     <s v="INF2010"/>
     <n v="3"/>
     <x v="1"/>
-    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="9"/>
@@ -1053,7 +2336,9 @@
     <s v="INF2010"/>
     <n v="4"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="10"/>
@@ -1061,7 +2346,9 @@
     <s v="INF2010"/>
     <n v="5"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="11"/>
@@ -1069,7 +2356,9 @@
     <s v="INF2010"/>
     <n v="1"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="12"/>
@@ -1077,7 +2366,9 @@
     <s v="INF2010"/>
     <n v="2"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="13"/>
@@ -1085,7 +2376,9 @@
     <s v="INF2010"/>
     <n v="3"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="14"/>
@@ -1093,7 +2386,9 @@
     <s v="INF2010"/>
     <n v="4"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="15"/>
@@ -1101,7 +2396,9 @@
     <s v="INF2010"/>
     <n v="5"/>
     <x v="2"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="16"/>
@@ -1109,7 +2406,9 @@
     <s v="INF2010"/>
     <n v="1"/>
     <x v="3"/>
-    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="17"/>
@@ -1117,7 +2416,9 @@
     <s v="INF2010"/>
     <n v="2"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="18"/>
@@ -1125,7 +2426,9 @@
     <s v="INF2010"/>
     <n v="3"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="19"/>
@@ -1133,7 +2436,9 @@
     <s v="INF2010"/>
     <n v="4"/>
     <x v="3"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="20"/>
@@ -1141,7 +2446,9 @@
     <s v="INF2010"/>
     <n v="5"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="21"/>
@@ -1149,7 +2456,9 @@
     <s v="INF2010"/>
     <n v="1"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="22"/>
@@ -1157,7 +2466,9 @@
     <s v="INF2010"/>
     <n v="2"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="23"/>
@@ -1165,7 +2476,9 @@
     <s v="INF2010"/>
     <n v="3"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="24"/>
@@ -1173,7 +2486,9 @@
     <s v="INF2010"/>
     <n v="4"/>
     <x v="4"/>
-    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="25"/>
@@ -1181,7 +2496,9 @@
     <s v="INF2010"/>
     <n v="5"/>
     <x v="4"/>
-    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="26"/>
@@ -1189,7 +2506,9 @@
     <s v="INF2010"/>
     <n v="1"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="27"/>
@@ -1197,7 +2516,9 @@
     <s v="INF2010"/>
     <n v="2"/>
     <x v="5"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="28"/>
@@ -1205,7 +2526,9 @@
     <s v="INF2010"/>
     <n v="3"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="29"/>
@@ -1213,7 +2536,9 @@
     <s v="INF2010"/>
     <n v="4"/>
     <x v="5"/>
-    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="30"/>
@@ -1221,7 +2546,9 @@
     <s v="INF2010"/>
     <n v="5"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="31"/>
@@ -1229,7 +2556,9 @@
     <s v="AR320"/>
     <n v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="32"/>
@@ -1237,7 +2566,9 @@
     <s v="AR320"/>
     <n v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="33"/>
@@ -1245,7 +2576,9 @@
     <s v="AR320"/>
     <n v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="34"/>
@@ -1253,7 +2586,9 @@
     <s v="AR320"/>
     <n v="4"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="35"/>
@@ -1261,7 +2596,9 @@
     <s v="AR320"/>
     <n v="5"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="36"/>
@@ -1269,7 +2606,9 @@
     <s v="AR320"/>
     <n v="1"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="37"/>
@@ -1277,7 +2616,9 @@
     <s v="AR320"/>
     <n v="2"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="38"/>
@@ -1285,7 +2626,9 @@
     <s v="AR320"/>
     <n v="3"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="39"/>
@@ -1293,7 +2636,9 @@
     <s v="AR320"/>
     <n v="4"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="40"/>
@@ -1301,7 +2646,9 @@
     <s v="AR320"/>
     <n v="5"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="41"/>
@@ -1309,7 +2656,9 @@
     <s v="AR320"/>
     <n v="1"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="42"/>
@@ -1317,7 +2666,9 @@
     <s v="AR320"/>
     <n v="2"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="43"/>
@@ -1325,7 +2676,9 @@
     <s v="AR320"/>
     <n v="3"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="44"/>
@@ -1333,7 +2686,9 @@
     <s v="AR320"/>
     <n v="4"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="45"/>
@@ -1341,7 +2696,9 @@
     <s v="AR320"/>
     <n v="5"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="46"/>
@@ -1349,7 +2706,9 @@
     <s v="AR320"/>
     <n v="1"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="47"/>
@@ -1357,7 +2716,9 @@
     <s v="AR320"/>
     <n v="2"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="48"/>
@@ -1365,7 +2726,9 @@
     <s v="AR320"/>
     <n v="3"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="49"/>
@@ -1373,7 +2736,9 @@
     <s v="AR320"/>
     <n v="4"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="50"/>
@@ -1381,7 +2746,9 @@
     <s v="AR320"/>
     <n v="5"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="51"/>
@@ -1389,7 +2756,9 @@
     <s v="AR320"/>
     <n v="1"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="52"/>
@@ -1397,7 +2766,9 @@
     <s v="AR320"/>
     <n v="2"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="53"/>
@@ -1405,7 +2776,9 @@
     <s v="AR320"/>
     <n v="3"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="54"/>
@@ -1413,7 +2786,9 @@
     <s v="AR320"/>
     <n v="4"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="55"/>
@@ -1421,7 +2796,9 @@
     <s v="AR320"/>
     <n v="5"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="56"/>
@@ -1429,7 +2806,9 @@
     <s v="AR320"/>
     <n v="1"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="57"/>
@@ -1437,7 +2816,9 @@
     <s v="AR320"/>
     <n v="2"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="58"/>
@@ -1445,7 +2826,9 @@
     <s v="AR320"/>
     <n v="3"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="59"/>
@@ -1453,7 +2836,9 @@
     <s v="AR320"/>
     <n v="4"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="60"/>
@@ -1461,7 +2846,9 @@
     <s v="AR320"/>
     <n v="5"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="61"/>
@@ -1469,7 +2856,9 @@
     <s v="IND4704"/>
     <n v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="62"/>
@@ -1477,7 +2866,9 @@
     <s v="IND4704"/>
     <n v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="63"/>
@@ -1485,7 +2876,9 @@
     <s v="IND4704"/>
     <n v="3"/>
     <x v="0"/>
-    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="64"/>
@@ -1493,7 +2886,9 @@
     <s v="IND4704"/>
     <n v="4"/>
     <x v="0"/>
-    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="65"/>
@@ -1501,7 +2896,9 @@
     <s v="IND4704"/>
     <n v="5"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="66"/>
@@ -1509,7 +2906,9 @@
     <s v="IND4704"/>
     <n v="1"/>
     <x v="1"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="67"/>
@@ -1517,7 +2916,9 @@
     <s v="IND4704"/>
     <n v="2"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="68"/>
@@ -1525,7 +2926,9 @@
     <s v="IND4704"/>
     <n v="3"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="69"/>
@@ -1533,7 +2936,9 @@
     <s v="IND4704"/>
     <n v="4"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="70"/>
@@ -1541,7 +2946,9 @@
     <s v="IND4704"/>
     <n v="5"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="71"/>
@@ -1549,7 +2956,9 @@
     <s v="IND4704"/>
     <n v="1"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="72"/>
@@ -1557,7 +2966,9 @@
     <s v="IND4704"/>
     <n v="2"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="73"/>
@@ -1565,7 +2976,9 @@
     <s v="IND4704"/>
     <n v="3"/>
     <x v="2"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="74"/>
@@ -1573,7 +2986,9 @@
     <s v="IND4704"/>
     <n v="4"/>
     <x v="2"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="75"/>
@@ -1581,7 +2996,9 @@
     <s v="IND4704"/>
     <n v="5"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="76"/>
@@ -1589,7 +3006,9 @@
     <s v="IND4704"/>
     <n v="1"/>
     <x v="3"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="77"/>
@@ -1597,7 +3016,9 @@
     <s v="IND4704"/>
     <n v="2"/>
     <x v="3"/>
-    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="78"/>
@@ -1605,7 +3026,9 @@
     <s v="IND4704"/>
     <n v="3"/>
     <x v="3"/>
-    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="79"/>
@@ -1613,7 +3036,9 @@
     <s v="IND4704"/>
     <n v="4"/>
     <x v="3"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="80"/>
@@ -1621,7 +3046,9 @@
     <s v="IND4704"/>
     <n v="5"/>
     <x v="3"/>
-    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="81"/>
@@ -1629,7 +3056,9 @@
     <s v="IND4704"/>
     <n v="1"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="82"/>
@@ -1637,7 +3066,9 @@
     <s v="IND4704"/>
     <n v="2"/>
     <x v="4"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="83"/>
@@ -1645,7 +3076,9 @@
     <s v="IND4704"/>
     <n v="3"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="84"/>
@@ -1653,7 +3086,9 @@
     <s v="IND4704"/>
     <n v="4"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="85"/>
@@ -1661,7 +3096,9 @@
     <s v="IND4704"/>
     <n v="5"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="86"/>
@@ -1669,7 +3106,9 @@
     <s v="IND4704"/>
     <n v="1"/>
     <x v="5"/>
-    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="87"/>
@@ -1677,7 +3116,9 @@
     <s v="IND4704"/>
     <n v="2"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="88"/>
@@ -1685,7 +3126,9 @@
     <s v="IND4704"/>
     <n v="3"/>
     <x v="5"/>
-    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="89"/>
@@ -1693,7 +3136,9 @@
     <s v="IND4704"/>
     <n v="4"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="90"/>
@@ -1701,7 +3146,9 @@
     <s v="IND4704"/>
     <n v="5"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="91"/>
@@ -1709,7 +3156,9 @@
     <s v="MTH1006"/>
     <n v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="92"/>
@@ -1717,7 +3166,9 @@
     <s v="MTH1006"/>
     <n v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="93"/>
@@ -1725,7 +3176,9 @@
     <s v="MTH1006"/>
     <n v="3"/>
     <x v="0"/>
-    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="94"/>
@@ -1733,7 +3186,9 @@
     <s v="MTH1006"/>
     <n v="4"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="95"/>
@@ -1741,7 +3196,9 @@
     <s v="MTH1006"/>
     <n v="5"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="96"/>
@@ -1749,7 +3206,9 @@
     <s v="MTH1006"/>
     <n v="1"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="97"/>
@@ -1757,7 +3216,9 @@
     <s v="MTH1006"/>
     <n v="2"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="98"/>
@@ -1765,7 +3226,9 @@
     <s v="MTH1006"/>
     <n v="3"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="99"/>
@@ -1773,7 +3236,9 @@
     <s v="MTH1006"/>
     <n v="4"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="100"/>
@@ -1781,7 +3246,9 @@
     <s v="MTH1006"/>
     <n v="5"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="101"/>
@@ -1789,7 +3256,9 @@
     <s v="MTH1006"/>
     <n v="1"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="102"/>
@@ -1797,7 +3266,9 @@
     <s v="MTH1006"/>
     <n v="2"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="103"/>
@@ -1805,7 +3276,9 @@
     <s v="MTH1006"/>
     <n v="3"/>
     <x v="2"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="104"/>
@@ -1813,7 +3286,9 @@
     <s v="MTH1006"/>
     <n v="4"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="105"/>
@@ -1821,7 +3296,9 @@
     <s v="MTH1006"/>
     <n v="5"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="106"/>
@@ -1829,7 +3306,9 @@
     <s v="MTH1006"/>
     <n v="1"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="107"/>
@@ -1837,7 +3316,9 @@
     <s v="MTH1006"/>
     <n v="2"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="108"/>
@@ -1845,7 +3326,9 @@
     <s v="MTH1006"/>
     <n v="3"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="109"/>
@@ -1853,7 +3336,9 @@
     <s v="MTH1006"/>
     <n v="4"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="110"/>
@@ -1861,7 +3346,9 @@
     <s v="MTH1006"/>
     <n v="5"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="111"/>
@@ -1869,7 +3356,9 @@
     <s v="MTH1006"/>
     <n v="1"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="112"/>
@@ -1877,7 +3366,9 @@
     <s v="MTH1006"/>
     <n v="2"/>
     <x v="4"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="113"/>
@@ -1885,7 +3376,9 @@
     <s v="MTH1006"/>
     <n v="3"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="114"/>
@@ -1893,7 +3386,9 @@
     <s v="MTH1006"/>
     <n v="4"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="115"/>
@@ -1901,7 +3396,9 @@
     <s v="MTH1006"/>
     <n v="5"/>
     <x v="4"/>
-    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="116"/>
@@ -1909,7 +3406,9 @@
     <s v="MTH1006"/>
     <n v="1"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="117"/>
@@ -1917,7 +3416,9 @@
     <s v="MTH1006"/>
     <n v="2"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="118"/>
@@ -1925,7 +3426,9 @@
     <s v="MTH1006"/>
     <n v="3"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="119"/>
@@ -1933,7 +3436,9 @@
     <s v="MTH1006"/>
     <n v="4"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="120"/>
@@ -1941,7 +3446,9 @@
     <s v="MTH1006"/>
     <n v="5"/>
     <x v="5"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="121"/>
@@ -1949,7 +3456,9 @@
     <s v="MEC1210"/>
     <n v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="122"/>
@@ -1957,7 +3466,9 @@
     <s v="MEC1210"/>
     <n v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="123"/>
@@ -1965,7 +3476,9 @@
     <s v="MEC1210"/>
     <n v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="124"/>
@@ -1973,7 +3486,9 @@
     <s v="MEC1210"/>
     <n v="4"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="125"/>
@@ -1981,7 +3496,9 @@
     <s v="MEC1210"/>
     <n v="5"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="126"/>
@@ -1989,7 +3506,9 @@
     <s v="MEC1210"/>
     <n v="1"/>
     <x v="1"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="127"/>
@@ -1997,7 +3516,9 @@
     <s v="MEC1210"/>
     <n v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="128"/>
@@ -2005,7 +3526,9 @@
     <s v="MEC1210"/>
     <n v="3"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="129"/>
@@ -2013,7 +3536,9 @@
     <s v="MEC1210"/>
     <n v="4"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="130"/>
@@ -2021,7 +3546,9 @@
     <s v="MEC1210"/>
     <n v="5"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="131"/>
@@ -2029,7 +3556,9 @@
     <s v="MEC1210"/>
     <n v="1"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="132"/>
@@ -2037,7 +3566,9 @@
     <s v="MEC1210"/>
     <n v="2"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="133"/>
@@ -2045,7 +3576,9 @@
     <s v="MEC1210"/>
     <n v="3"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="134"/>
@@ -2053,7 +3586,9 @@
     <s v="MEC1210"/>
     <n v="4"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="135"/>
@@ -2061,7 +3596,9 @@
     <s v="MEC1210"/>
     <n v="5"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="136"/>
@@ -2069,7 +3606,9 @@
     <s v="MEC1210"/>
     <n v="1"/>
     <x v="3"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="137"/>
@@ -2077,7 +3616,9 @@
     <s v="MEC1210"/>
     <n v="2"/>
     <x v="3"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="138"/>
@@ -2085,7 +3626,9 @@
     <s v="MEC1210"/>
     <n v="3"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="139"/>
@@ -2093,7 +3636,9 @@
     <s v="MEC1210"/>
     <n v="4"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="140"/>
@@ -2101,7 +3646,9 @@
     <s v="MEC1210"/>
     <n v="5"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="141"/>
@@ -2109,7 +3656,9 @@
     <s v="MEC1210"/>
     <n v="1"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="142"/>
@@ -2117,7 +3666,9 @@
     <s v="MEC1210"/>
     <n v="2"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="143"/>
@@ -2125,7 +3676,9 @@
     <s v="MEC1210"/>
     <n v="3"/>
     <x v="4"/>
-    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="144"/>
@@ -2133,7 +3686,9 @@
     <s v="MEC1210"/>
     <n v="4"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="145"/>
@@ -2141,7 +3696,9 @@
     <s v="MEC1210"/>
     <n v="5"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="146"/>
@@ -2149,7 +3706,9 @@
     <s v="MEC1210"/>
     <n v="1"/>
     <x v="5"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="147"/>
@@ -2157,7 +3716,9 @@
     <s v="MEC1210"/>
     <n v="2"/>
     <x v="5"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="148"/>
@@ -2165,7 +3726,9 @@
     <s v="MEC1210"/>
     <n v="3"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="149"/>
@@ -2173,7 +3736,9 @@
     <s v="MEC1210"/>
     <n v="4"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="150"/>
@@ -2181,7 +3746,9 @@
     <s v="MEC1210"/>
     <n v="5"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="151"/>
@@ -2189,7 +3756,9 @@
     <s v="MEC2115"/>
     <n v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="152"/>
@@ -2197,7 +3766,9 @@
     <s v="MEC2115"/>
     <n v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="153"/>
@@ -2205,7 +3776,9 @@
     <s v="MEC2115"/>
     <n v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="154"/>
@@ -2213,7 +3786,9 @@
     <s v="MEC2115"/>
     <n v="4"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="155"/>
@@ -2221,7 +3796,9 @@
     <s v="MEC2115"/>
     <n v="5"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="156"/>
@@ -2229,7 +3806,9 @@
     <s v="MEC2115"/>
     <n v="1"/>
     <x v="1"/>
-    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="157"/>
@@ -2237,7 +3816,9 @@
     <s v="MEC2115"/>
     <n v="2"/>
     <x v="1"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="158"/>
@@ -2245,7 +3826,9 @@
     <s v="MEC2115"/>
     <n v="3"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="159"/>
@@ -2253,7 +3836,9 @@
     <s v="MEC2115"/>
     <n v="4"/>
     <x v="1"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="160"/>
@@ -2261,7 +3846,9 @@
     <s v="MEC2115"/>
     <n v="5"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="161"/>
@@ -2269,7 +3856,9 @@
     <s v="MEC2115"/>
     <n v="1"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="162"/>
@@ -2277,7 +3866,9 @@
     <s v="MEC2115"/>
     <n v="2"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="163"/>
@@ -2285,7 +3876,9 @@
     <s v="MEC2115"/>
     <n v="3"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="164"/>
@@ -2293,7 +3886,9 @@
     <s v="MEC2115"/>
     <n v="4"/>
     <x v="2"/>
-    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="165"/>
@@ -2301,7 +3896,9 @@
     <s v="MEC2115"/>
     <n v="5"/>
     <x v="2"/>
-    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="166"/>
@@ -2309,7 +3906,9 @@
     <s v="MEC2115"/>
     <n v="1"/>
     <x v="3"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="167"/>
@@ -2317,7 +3916,9 @@
     <s v="MEC2115"/>
     <n v="2"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="168"/>
@@ -2325,7 +3926,9 @@
     <s v="MEC2115"/>
     <n v="3"/>
     <x v="3"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="169"/>
@@ -2333,7 +3936,9 @@
     <s v="MEC2115"/>
     <n v="4"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="170"/>
@@ -2341,7 +3946,9 @@
     <s v="MEC2115"/>
     <n v="5"/>
     <x v="3"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="171"/>
@@ -2349,7 +3956,9 @@
     <s v="MEC2115"/>
     <n v="1"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="172"/>
@@ -2357,7 +3966,9 @@
     <s v="MEC2115"/>
     <n v="2"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="173"/>
@@ -2365,7 +3976,9 @@
     <s v="MEC2115"/>
     <n v="3"/>
     <x v="4"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="174"/>
@@ -2373,7 +3986,9 @@
     <s v="MEC2115"/>
     <n v="4"/>
     <x v="4"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="175"/>
@@ -2381,7 +3996,9 @@
     <s v="MEC2115"/>
     <n v="5"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="176"/>
@@ -2389,7 +4006,9 @@
     <s v="MEC2115"/>
     <n v="1"/>
     <x v="5"/>
-    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="177"/>
@@ -2397,7 +4016,9 @@
     <s v="MEC2115"/>
     <n v="2"/>
     <x v="5"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="178"/>
@@ -2405,7 +4026,9 @@
     <s v="MEC2115"/>
     <n v="3"/>
     <x v="5"/>
-    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="179"/>
@@ -2413,7 +4036,9 @@
     <s v="MEC2115"/>
     <n v="4"/>
     <x v="5"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="180"/>
@@ -2421,15 +4046,160 @@
     <s v="MEC2115"/>
     <n v="5"/>
     <x v="5"/>
-    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D29A9AEB-9174-46A7-A61E-63ED2C975534}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F6:J23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="7"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id" fld="0" subtotal="count" baseField="5" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -2451,6 +4221,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -2494,7 +4266,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Note" fld="5" subtotal="average" baseField="4" baseItem="0"/>
+    <dataField name="Average of Note" fld="7" subtotal="average" baseField="4" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2571,9 +4343,9 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4BF9DD66-AD1B-4D66-B72C-B1C00E8CD6CB}" name="resultats" displayName="resultats" ref="A1:F181" totalsRowShown="0">
-  <autoFilter ref="A1:F181" xr:uid="{47F141B5-45CD-4665-A9C3-1AA52A3C34E7}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4BF9DD66-AD1B-4D66-B72C-B1C00E8CD6CB}" name="resultats" displayName="resultats" ref="A1:H181" totalsRowShown="0">
+  <autoFilter ref="A1:H181" xr:uid="{47F141B5-45CD-4665-A9C3-1AA52A3C34E7}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{64DD2EDC-12DE-48C0-A867-7C817F4ED21F}" name="id">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
@@ -2581,6 +4353,8 @@
     <tableColumn id="2" xr3:uid="{52BB146A-D684-4525-95C2-863A85AAC960}" name="Cours"/>
     <tableColumn id="3" xr3:uid="{26848456-897C-49DA-AF7B-28DA308FF60B}" name="Rang"/>
     <tableColumn id="4" xr3:uid="{C5D9F88A-0740-4273-804E-5917510FF111}" name="Methode"/>
+    <tableColumn id="8" xr3:uid="{DE1404B4-1A26-4A16-A4B8-848460DBB56F}" name="Methode 2"/>
+    <tableColumn id="7" xr3:uid="{5B734CCA-8075-475D-9E02-8A4137C6BE0C}" name="LSA"/>
     <tableColumn id="5" xr3:uid="{D1FDA2DC-766B-453C-AF1D-51798704C21E}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2724,7 +4498,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3026,22 +4800,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +4856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3123,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +4938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3205,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3246,7 +5020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3287,7 +5061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.4</v>
       </c>
@@ -3352,232 +5126,232 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D27" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="D28" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D30" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D31" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D32" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D33" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D34" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D35" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D36" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D37" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D38" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D39" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D40" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D41" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D42" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D43" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D44" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D45" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D46" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D47" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D48" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D49" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D50" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3595,16 +5369,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3617,34 +5391,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CD6A43-0763-4EC0-BB42-E304A873C144}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +5459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3726,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3767,7 +5541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -3808,7 +5582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3849,7 +5623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -3890,7 +5664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -3934,12 +5708,12 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3988,7 +5762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4014,7 +5788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4040,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>4</v>
       </c>
@@ -4066,7 +5840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>5</v>
       </c>
@@ -4092,12 +5866,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -4111,13 +5885,13 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4137,7 +5911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4157,7 +5931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -4177,7 +5951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4218,30 +5992,30 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4282,7 +6056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4323,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4364,7 +6138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -4405,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -4446,7 +6220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -4487,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.6</v>
       </c>
@@ -4535,12 +6309,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +6334,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4592,7 +6366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4624,7 +6398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4638,7 +6412,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
         <v>74</v>
@@ -4656,7 +6430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>4</v>
       </c>
@@ -4673,7 +6447,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
         <v>69</v>
@@ -4688,7 +6462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4702,13 +6476,13 @@
         <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
         <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -4720,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="K23">
         <f>AVERAGE(K18:K22)</f>
         <v>3.8</v>
@@ -4755,27 +6529,27 @@
       <selection activeCell="H5" sqref="H5:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +6590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -4857,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -4898,7 +6672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4939,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -4980,7 +6754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -5045,30 +6819,30 @@
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5109,7 +6883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -5150,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5191,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -5232,7 +7006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -5273,7 +7047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -5338,38 +7112,38 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5234375" customWidth="1"/>
+    <col min="3" max="3" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="48.89453125" customWidth="1"/>
+    <col min="8" max="8" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +7184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -5451,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5492,7 +7266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -5533,7 +7307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -5574,7 +7348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -5615,12 +7389,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -5640,7 +7414,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5663,7 +7437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5686,7 +7460,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5709,7 +7483,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5726,13 +7500,13 @@
         <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5774,19 +7548,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBE396-7256-413C-88E3-204C4A5F543B}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5803,10 +7579,16 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -5823,11 +7605,17 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -5844,11 +7632,17 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f>ROW()-1</f>
         <v>3</v>
@@ -5865,11 +7659,17 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>ROW()-1</f>
         <v>4</v>
@@ -5886,11 +7686,17 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f>ROW()-1</f>
         <v>5</v>
@@ -5907,11 +7713,17 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" ref="A7:A11" si="0">ROW()-1</f>
         <v>6</v>
@@ -5928,11 +7740,17 @@
       <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5949,11 +7767,17 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5970,11 +7794,17 @@
       <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5991,11 +7821,17 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6012,11 +7848,17 @@
       <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" ref="A12:A16" si="1">ROW()-1</f>
         <v>11</v>
@@ -6033,11 +7875,17 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6054,11 +7902,17 @@
       <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6075,11 +7929,17 @@
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6096,11 +7956,17 @@
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6117,11 +7983,17 @@
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" ref="A17:A21" si="2">ROW()-1</f>
         <v>16</v>
@@ -6138,11 +8010,17 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -6159,11 +8037,17 @@
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -6180,11 +8064,17 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -6201,11 +8091,17 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -6222,11 +8118,17 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" ref="A22:A26" si="3">ROW()-1</f>
         <v>21</v>
@@ -6243,11 +8145,17 @@
       <c r="E22" t="s">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -6264,11 +8172,17 @@
       <c r="E23" t="s">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -6285,11 +8199,17 @@
       <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -6306,11 +8226,17 @@
       <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -6327,11 +8253,17 @@
       <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f t="shared" ref="A27:A31" si="4">ROW()-1</f>
         <v>26</v>
@@ -6348,11 +8280,17 @@
       <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -6369,11 +8307,17 @@
       <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -6390,11 +8334,17 @@
       <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -6411,11 +8361,17 @@
       <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -6432,11 +8388,17 @@
       <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <f t="shared" ref="A32:A61" si="5">ROW()-1</f>
         <v>31</v>
@@ -6453,11 +8415,17 @@
       <c r="E32" t="s">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -6474,11 +8442,17 @@
       <c r="E33" t="s">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -6495,11 +8469,17 @@
       <c r="E34" t="s">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -6516,11 +8496,17 @@
       <c r="E35" t="s">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -6537,11 +8523,17 @@
       <c r="E36" t="s">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -6558,11 +8550,17 @@
       <c r="E37" t="s">
         <v>1</v>
       </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <f t="shared" si="5"/>
         <v>37</v>
@@ -6579,11 +8577,17 @@
       <c r="E38" t="s">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <f t="shared" si="5"/>
         <v>38</v>
@@ -6600,11 +8604,17 @@
       <c r="E39" t="s">
         <v>1</v>
       </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <f t="shared" si="5"/>
         <v>39</v>
@@ -6621,11 +8631,17 @@
       <c r="E40" t="s">
         <v>1</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -6642,11 +8658,17 @@
       <c r="E41" t="s">
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -6663,11 +8685,17 @@
       <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <f t="shared" si="5"/>
         <v>42</v>
@@ -6684,11 +8712,17 @@
       <c r="E43" t="s">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" t="s">
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f t="shared" si="5"/>
         <v>43</v>
@@ -6705,11 +8739,17 @@
       <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <f t="shared" si="5"/>
         <v>44</v>
@@ -6726,11 +8766,17 @@
       <c r="E45" t="s">
         <v>2</v>
       </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -6747,11 +8793,17 @@
       <c r="E46" t="s">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" t="s">
+        <v>200</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -6768,11 +8820,17 @@
       <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <f t="shared" si="5"/>
         <v>47</v>
@@ -6789,11 +8847,17 @@
       <c r="E48" t="s">
         <v>3</v>
       </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <f t="shared" si="5"/>
         <v>48</v>
@@ -6810,11 +8874,17 @@
       <c r="E49" t="s">
         <v>3</v>
       </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" t="s">
+        <v>201</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f t="shared" si="5"/>
         <v>49</v>
@@ -6831,11 +8901,17 @@
       <c r="E50" t="s">
         <v>3</v>
       </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" t="s">
+        <v>201</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -6852,11 +8928,17 @@
       <c r="E51" t="s">
         <v>3</v>
       </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <f t="shared" si="5"/>
         <v>51</v>
@@ -6873,11 +8955,17 @@
       <c r="E52" t="s">
         <v>4</v>
       </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <f t="shared" si="5"/>
         <v>52</v>
@@ -6894,11 +8982,17 @@
       <c r="E53" t="s">
         <v>4</v>
       </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>53</v>
@@ -6915,11 +9009,17 @@
       <c r="E54" t="s">
         <v>4</v>
       </c>
-      <c r="F54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>54</v>
@@ -6936,11 +9036,17 @@
       <c r="E55" t="s">
         <v>4</v>
       </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -6957,11 +9063,17 @@
       <c r="E56" t="s">
         <v>4</v>
       </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>56</v>
@@ -6978,11 +9090,17 @@
       <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>57</v>
@@ -6999,11 +9117,17 @@
       <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="F58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" t="s">
+        <v>201</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -7020,11 +9144,17 @@
       <c r="E59" t="s">
         <v>18</v>
       </c>
-      <c r="F59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -7041,11 +9171,17 @@
       <c r="E60" t="s">
         <v>18</v>
       </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" t="s">
+        <v>201</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -7062,11 +9198,17 @@
       <c r="E61" t="s">
         <v>18</v>
       </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <f t="shared" ref="A62:A91" si="6">ROW()-1</f>
         <v>61</v>
@@ -7083,11 +9225,17 @@
       <c r="E62" t="s">
         <v>0</v>
       </c>
-      <c r="F62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -7104,11 +9252,17 @@
       <c r="E63" t="s">
         <v>0</v>
       </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -7125,11 +9279,17 @@
       <c r="E64" t="s">
         <v>0</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -7146,11 +9306,17 @@
       <c r="E65" t="s">
         <v>0</v>
       </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>197</v>
+      </c>
+      <c r="G65" t="s">
+        <v>200</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -7167,11 +9333,17 @@
       <c r="E66" t="s">
         <v>0</v>
       </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>197</v>
+      </c>
+      <c r="G66" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -7188,11 +9360,17 @@
       <c r="E67" t="s">
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -7209,11 +9387,17 @@
       <c r="E68" t="s">
         <v>1</v>
       </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" t="s">
+        <v>200</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -7230,11 +9414,17 @@
       <c r="E69" t="s">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" t="s">
+        <v>200</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -7251,11 +9441,17 @@
       <c r="E70" t="s">
         <v>1</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -7272,11 +9468,17 @@
       <c r="E71" t="s">
         <v>1</v>
       </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" t="s">
+        <v>200</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -7293,11 +9495,17 @@
       <c r="E72" t="s">
         <v>2</v>
       </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>198</v>
+      </c>
+      <c r="G72" t="s">
+        <v>200</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -7314,11 +9522,17 @@
       <c r="E73" t="s">
         <v>2</v>
       </c>
-      <c r="F73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" t="s">
+        <v>200</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -7335,11 +9549,17 @@
       <c r="E74" t="s">
         <v>2</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>198</v>
+      </c>
+      <c r="G74" t="s">
+        <v>200</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -7356,11 +9576,17 @@
       <c r="E75" t="s">
         <v>2</v>
       </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>198</v>
+      </c>
+      <c r="G75" t="s">
+        <v>200</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -7377,11 +9603,17 @@
       <c r="E76" t="s">
         <v>2</v>
       </c>
-      <c r="F76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -7398,11 +9630,17 @@
       <c r="E77" t="s">
         <v>3</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77" t="s">
+        <v>201</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -7419,11 +9657,17 @@
       <c r="E78" t="s">
         <v>3</v>
       </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>197</v>
+      </c>
+      <c r="G78" t="s">
+        <v>201</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -7440,11 +9684,17 @@
       <c r="E79" t="s">
         <v>3</v>
       </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" t="s">
+        <v>201</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -7461,11 +9711,17 @@
       <c r="E80" t="s">
         <v>3</v>
       </c>
-      <c r="F80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" t="s">
+        <v>201</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -7482,11 +9738,17 @@
       <c r="E81" t="s">
         <v>3</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>197</v>
+      </c>
+      <c r="G81" t="s">
+        <v>201</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -7503,11 +9765,17 @@
       <c r="E82" t="s">
         <v>4</v>
       </c>
-      <c r="F82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" t="s">
+        <v>201</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -7524,11 +9792,17 @@
       <c r="E83" t="s">
         <v>4</v>
       </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" t="s">
+        <v>201</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -7545,11 +9819,17 @@
       <c r="E84" t="s">
         <v>4</v>
       </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84" t="s">
+        <v>201</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -7566,11 +9846,17 @@
       <c r="E85" t="s">
         <v>4</v>
       </c>
-      <c r="F85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" t="s">
+        <v>201</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -7587,11 +9873,17 @@
       <c r="E86" t="s">
         <v>4</v>
       </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" t="s">
+        <v>201</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -7608,11 +9900,17 @@
       <c r="E87" t="s">
         <v>18</v>
       </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87" t="s">
+        <v>201</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -7629,11 +9927,17 @@
       <c r="E88" t="s">
         <v>18</v>
       </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" t="s">
+        <v>201</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -7650,11 +9954,17 @@
       <c r="E89" t="s">
         <v>18</v>
       </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>198</v>
+      </c>
+      <c r="G89" t="s">
+        <v>201</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -7671,11 +9981,17 @@
       <c r="E90" t="s">
         <v>18</v>
       </c>
-      <c r="F90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>198</v>
+      </c>
+      <c r="G90" t="s">
+        <v>201</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -7692,11 +10008,17 @@
       <c r="E91" t="s">
         <v>18</v>
       </c>
-      <c r="F91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>198</v>
+      </c>
+      <c r="G91" t="s">
+        <v>201</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <f t="shared" ref="A92:A123" si="7">ROW()-1</f>
         <v>91</v>
@@ -7713,11 +10035,17 @@
       <c r="E92" t="s">
         <v>0</v>
       </c>
-      <c r="F92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" t="s">
+        <v>200</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <f t="shared" si="7"/>
         <v>92</v>
@@ -7734,11 +10062,17 @@
       <c r="E93" t="s">
         <v>0</v>
       </c>
-      <c r="F93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <f t="shared" si="7"/>
         <v>93</v>
@@ -7755,11 +10089,17 @@
       <c r="E94" t="s">
         <v>0</v>
       </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" t="s">
+        <v>200</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <f t="shared" si="7"/>
         <v>94</v>
@@ -7776,11 +10116,17 @@
       <c r="E95" t="s">
         <v>0</v>
       </c>
-      <c r="F95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" t="s">
+        <v>200</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -7797,11 +10143,17 @@
       <c r="E96" t="s">
         <v>0</v>
       </c>
-      <c r="F96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>197</v>
+      </c>
+      <c r="G96" t="s">
+        <v>200</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -7818,11 +10170,17 @@
       <c r="E97" t="s">
         <v>1</v>
       </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>199</v>
+      </c>
+      <c r="G97" t="s">
+        <v>200</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -7839,11 +10197,17 @@
       <c r="E98" t="s">
         <v>1</v>
       </c>
-      <c r="F98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" t="s">
+        <v>200</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -7860,11 +10224,17 @@
       <c r="E99" t="s">
         <v>1</v>
       </c>
-      <c r="F99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" t="s">
+        <v>200</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -7881,11 +10251,17 @@
       <c r="E100" t="s">
         <v>1</v>
       </c>
-      <c r="F100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>199</v>
+      </c>
+      <c r="G100" t="s">
+        <v>200</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -7902,11 +10278,17 @@
       <c r="E101" t="s">
         <v>1</v>
       </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>199</v>
+      </c>
+      <c r="G101" t="s">
+        <v>200</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -7923,11 +10305,17 @@
       <c r="E102" t="s">
         <v>2</v>
       </c>
-      <c r="F102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>198</v>
+      </c>
+      <c r="G102" t="s">
+        <v>200</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -7944,11 +10332,17 @@
       <c r="E103" t="s">
         <v>2</v>
       </c>
-      <c r="F103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>198</v>
+      </c>
+      <c r="G103" t="s">
+        <v>200</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -7965,11 +10359,17 @@
       <c r="E104" t="s">
         <v>2</v>
       </c>
-      <c r="F104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>198</v>
+      </c>
+      <c r="G104" t="s">
+        <v>200</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -7986,11 +10386,17 @@
       <c r="E105" t="s">
         <v>2</v>
       </c>
-      <c r="F105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G105" t="s">
+        <v>200</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -8007,11 +10413,17 @@
       <c r="E106" t="s">
         <v>2</v>
       </c>
-      <c r="F106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G106" t="s">
+        <v>200</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -8028,11 +10440,17 @@
       <c r="E107" t="s">
         <v>3</v>
       </c>
-      <c r="F107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>197</v>
+      </c>
+      <c r="G107" t="s">
+        <v>201</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -8049,11 +10467,17 @@
       <c r="E108" t="s">
         <v>3</v>
       </c>
-      <c r="F108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>197</v>
+      </c>
+      <c r="G108" t="s">
+        <v>201</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -8070,11 +10494,17 @@
       <c r="E109" t="s">
         <v>3</v>
       </c>
-      <c r="F109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>197</v>
+      </c>
+      <c r="G109" t="s">
+        <v>201</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -8091,11 +10521,17 @@
       <c r="E110" t="s">
         <v>3</v>
       </c>
-      <c r="F110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>197</v>
+      </c>
+      <c r="G110" t="s">
+        <v>201</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -8112,11 +10548,17 @@
       <c r="E111" t="s">
         <v>3</v>
       </c>
-      <c r="F111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>197</v>
+      </c>
+      <c r="G111" t="s">
+        <v>201</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -8133,11 +10575,17 @@
       <c r="E112" t="s">
         <v>4</v>
       </c>
-      <c r="F112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>199</v>
+      </c>
+      <c r="G112" t="s">
+        <v>201</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -8154,11 +10602,17 @@
       <c r="E113" t="s">
         <v>4</v>
       </c>
-      <c r="F113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>199</v>
+      </c>
+      <c r="G113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -8175,11 +10629,17 @@
       <c r="E114" t="s">
         <v>4</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G114" t="s">
+        <v>201</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -8196,11 +10656,17 @@
       <c r="E115" t="s">
         <v>4</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>199</v>
+      </c>
+      <c r="G115" t="s">
+        <v>201</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -8217,11 +10683,17 @@
       <c r="E116" t="s">
         <v>4</v>
       </c>
-      <c r="F116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" t="s">
+        <v>201</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -8238,11 +10710,17 @@
       <c r="E117" t="s">
         <v>18</v>
       </c>
-      <c r="F117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>198</v>
+      </c>
+      <c r="G117" t="s">
+        <v>201</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -8259,11 +10737,17 @@
       <c r="E118" t="s">
         <v>18</v>
       </c>
-      <c r="F118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>198</v>
+      </c>
+      <c r="G118" t="s">
+        <v>201</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -8280,11 +10764,17 @@
       <c r="E119" t="s">
         <v>18</v>
       </c>
-      <c r="F119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G119" t="s">
+        <v>201</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -8301,11 +10791,17 @@
       <c r="E120" t="s">
         <v>18</v>
       </c>
-      <c r="F120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>198</v>
+      </c>
+      <c r="G120" t="s">
+        <v>201</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -8322,11 +10818,17 @@
       <c r="E121" t="s">
         <v>18</v>
       </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>198</v>
+      </c>
+      <c r="G121" t="s">
+        <v>201</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <f t="shared" si="7"/>
         <v>121</v>
@@ -8343,11 +10845,17 @@
       <c r="E122" t="s">
         <v>0</v>
       </c>
-      <c r="F122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>197</v>
+      </c>
+      <c r="G122" t="s">
+        <v>200</v>
+      </c>
+      <c r="H122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <f t="shared" si="7"/>
         <v>122</v>
@@ -8364,11 +10872,17 @@
       <c r="E123" t="s">
         <v>0</v>
       </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>197</v>
+      </c>
+      <c r="G123" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <f t="shared" ref="A124:A155" si="8">ROW()-1</f>
         <v>123</v>
@@ -8385,11 +10899,17 @@
       <c r="E124" t="s">
         <v>0</v>
       </c>
-      <c r="F124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>197</v>
+      </c>
+      <c r="G124" t="s">
+        <v>200</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <f t="shared" si="8"/>
         <v>124</v>
@@ -8406,11 +10926,17 @@
       <c r="E125" t="s">
         <v>0</v>
       </c>
-      <c r="F125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>197</v>
+      </c>
+      <c r="G125" t="s">
+        <v>200</v>
+      </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <f t="shared" si="8"/>
         <v>125</v>
@@ -8427,11 +10953,17 @@
       <c r="E126" t="s">
         <v>0</v>
       </c>
-      <c r="F126">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
+        <v>197</v>
+      </c>
+      <c r="G126" t="s">
+        <v>200</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <f t="shared" si="8"/>
         <v>126</v>
@@ -8448,11 +10980,17 @@
       <c r="E127" t="s">
         <v>1</v>
       </c>
-      <c r="F127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
+        <v>199</v>
+      </c>
+      <c r="G127" t="s">
+        <v>200</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <f t="shared" si="8"/>
         <v>127</v>
@@ -8469,11 +11007,17 @@
       <c r="E128" t="s">
         <v>1</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>199</v>
+      </c>
+      <c r="G128" t="s">
+        <v>200</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <f t="shared" si="8"/>
         <v>128</v>
@@ -8490,11 +11034,17 @@
       <c r="E129" t="s">
         <v>1</v>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>199</v>
+      </c>
+      <c r="G129" t="s">
+        <v>200</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -8511,11 +11061,17 @@
       <c r="E130" t="s">
         <v>1</v>
       </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
+        <v>199</v>
+      </c>
+      <c r="G130" t="s">
+        <v>200</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <f t="shared" si="8"/>
         <v>130</v>
@@ -8532,11 +11088,17 @@
       <c r="E131" t="s">
         <v>1</v>
       </c>
-      <c r="F131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
+        <v>199</v>
+      </c>
+      <c r="G131" t="s">
+        <v>200</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <f t="shared" si="8"/>
         <v>131</v>
@@ -8553,11 +11115,17 @@
       <c r="E132" t="s">
         <v>2</v>
       </c>
-      <c r="F132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
+        <v>198</v>
+      </c>
+      <c r="G132" t="s">
+        <v>200</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -8574,11 +11142,17 @@
       <c r="E133" t="s">
         <v>2</v>
       </c>
-      <c r="F133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
+        <v>198</v>
+      </c>
+      <c r="G133" t="s">
+        <v>200</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -8595,11 +11169,17 @@
       <c r="E134" t="s">
         <v>2</v>
       </c>
-      <c r="F134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
+        <v>198</v>
+      </c>
+      <c r="G134" t="s">
+        <v>200</v>
+      </c>
+      <c r="H134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <f t="shared" si="8"/>
         <v>134</v>
@@ -8616,11 +11196,17 @@
       <c r="E135" t="s">
         <v>2</v>
       </c>
-      <c r="F135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
+        <v>198</v>
+      </c>
+      <c r="G135" t="s">
+        <v>200</v>
+      </c>
+      <c r="H135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <f t="shared" si="8"/>
         <v>135</v>
@@ -8637,11 +11223,17 @@
       <c r="E136" t="s">
         <v>2</v>
       </c>
-      <c r="F136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
+        <v>198</v>
+      </c>
+      <c r="G136" t="s">
+        <v>200</v>
+      </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -8658,11 +11250,17 @@
       <c r="E137" t="s">
         <v>3</v>
       </c>
-      <c r="F137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
+        <v>197</v>
+      </c>
+      <c r="G137" t="s">
+        <v>201</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <f t="shared" si="8"/>
         <v>137</v>
@@ -8679,11 +11277,17 @@
       <c r="E138" t="s">
         <v>3</v>
       </c>
-      <c r="F138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
+        <v>197</v>
+      </c>
+      <c r="G138" t="s">
+        <v>201</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <f t="shared" si="8"/>
         <v>138</v>
@@ -8700,11 +11304,17 @@
       <c r="E139" t="s">
         <v>3</v>
       </c>
-      <c r="F139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
+        <v>197</v>
+      </c>
+      <c r="G139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <f t="shared" si="8"/>
         <v>139</v>
@@ -8721,11 +11331,17 @@
       <c r="E140" t="s">
         <v>3</v>
       </c>
-      <c r="F140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G140" t="s">
+        <v>201</v>
+      </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <f t="shared" si="8"/>
         <v>140</v>
@@ -8742,11 +11358,17 @@
       <c r="E141" t="s">
         <v>3</v>
       </c>
-      <c r="F141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
+        <v>197</v>
+      </c>
+      <c r="G141" t="s">
+        <v>201</v>
+      </c>
+      <c r="H141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <f t="shared" si="8"/>
         <v>141</v>
@@ -8763,11 +11385,17 @@
       <c r="E142" t="s">
         <v>4</v>
       </c>
-      <c r="F142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F142" t="s">
+        <v>199</v>
+      </c>
+      <c r="G142" t="s">
+        <v>201</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <f t="shared" si="8"/>
         <v>142</v>
@@ -8784,11 +11412,17 @@
       <c r="E143" t="s">
         <v>4</v>
       </c>
-      <c r="F143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>199</v>
+      </c>
+      <c r="G143" t="s">
+        <v>201</v>
+      </c>
+      <c r="H143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <f t="shared" si="8"/>
         <v>143</v>
@@ -8805,11 +11439,17 @@
       <c r="E144" t="s">
         <v>4</v>
       </c>
-      <c r="F144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
+        <v>199</v>
+      </c>
+      <c r="G144" t="s">
+        <v>201</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <f t="shared" si="8"/>
         <v>144</v>
@@ -8826,11 +11466,17 @@
       <c r="E145" t="s">
         <v>4</v>
       </c>
-      <c r="F145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
+        <v>199</v>
+      </c>
+      <c r="G145" t="s">
+        <v>201</v>
+      </c>
+      <c r="H145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <f t="shared" si="8"/>
         <v>145</v>
@@ -8847,11 +11493,17 @@
       <c r="E146" t="s">
         <v>4</v>
       </c>
-      <c r="F146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F146" t="s">
+        <v>199</v>
+      </c>
+      <c r="G146" t="s">
+        <v>201</v>
+      </c>
+      <c r="H146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <f t="shared" si="8"/>
         <v>146</v>
@@ -8868,11 +11520,17 @@
       <c r="E147" t="s">
         <v>18</v>
       </c>
-      <c r="F147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F147" t="s">
+        <v>198</v>
+      </c>
+      <c r="G147" t="s">
+        <v>201</v>
+      </c>
+      <c r="H147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <f t="shared" si="8"/>
         <v>147</v>
@@ -8889,11 +11547,17 @@
       <c r="E148" t="s">
         <v>18</v>
       </c>
-      <c r="F148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
+        <v>198</v>
+      </c>
+      <c r="G148" t="s">
+        <v>201</v>
+      </c>
+      <c r="H148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <f t="shared" si="8"/>
         <v>148</v>
@@ -8910,11 +11574,17 @@
       <c r="E149" t="s">
         <v>18</v>
       </c>
-      <c r="F149">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
+        <v>198</v>
+      </c>
+      <c r="G149" t="s">
+        <v>201</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <f t="shared" si="8"/>
         <v>149</v>
@@ -8931,11 +11601,17 @@
       <c r="E150" t="s">
         <v>18</v>
       </c>
-      <c r="F150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
+        <v>198</v>
+      </c>
+      <c r="G150" t="s">
+        <v>201</v>
+      </c>
+      <c r="H150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <f t="shared" si="8"/>
         <v>150</v>
@@ -8952,11 +11628,17 @@
       <c r="E151" t="s">
         <v>18</v>
       </c>
-      <c r="F151">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F151" t="s">
+        <v>198</v>
+      </c>
+      <c r="G151" t="s">
+        <v>201</v>
+      </c>
+      <c r="H151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <f t="shared" si="8"/>
         <v>151</v>
@@ -8973,11 +11655,17 @@
       <c r="E152" t="s">
         <v>0</v>
       </c>
-      <c r="F152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
+        <v>197</v>
+      </c>
+      <c r="G152" t="s">
+        <v>200</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <f t="shared" si="8"/>
         <v>152</v>
@@ -8994,11 +11682,17 @@
       <c r="E153" t="s">
         <v>0</v>
       </c>
-      <c r="F153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F153" t="s">
+        <v>197</v>
+      </c>
+      <c r="G153" t="s">
+        <v>200</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <f t="shared" si="8"/>
         <v>153</v>
@@ -9015,11 +11709,17 @@
       <c r="E154" t="s">
         <v>0</v>
       </c>
-      <c r="F154">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F154" t="s">
+        <v>197</v>
+      </c>
+      <c r="G154" t="s">
+        <v>200</v>
+      </c>
+      <c r="H154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <f t="shared" si="8"/>
         <v>154</v>
@@ -9036,11 +11736,17 @@
       <c r="E155" t="s">
         <v>0</v>
       </c>
-      <c r="F155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F155" t="s">
+        <v>197</v>
+      </c>
+      <c r="G155" t="s">
+        <v>200</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <f t="shared" ref="A156:A181" si="9">ROW()-1</f>
         <v>155</v>
@@ -9057,11 +11763,17 @@
       <c r="E156" t="s">
         <v>0</v>
       </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F156" t="s">
+        <v>197</v>
+      </c>
+      <c r="G156" t="s">
+        <v>200</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <f t="shared" si="9"/>
         <v>156</v>
@@ -9078,11 +11790,17 @@
       <c r="E157" t="s">
         <v>1</v>
       </c>
-      <c r="F157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F157" t="s">
+        <v>199</v>
+      </c>
+      <c r="G157" t="s">
+        <v>200</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <f t="shared" si="9"/>
         <v>157</v>
@@ -9099,11 +11817,17 @@
       <c r="E158" t="s">
         <v>1</v>
       </c>
-      <c r="F158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F158" t="s">
+        <v>199</v>
+      </c>
+      <c r="G158" t="s">
+        <v>200</v>
+      </c>
+      <c r="H158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <f t="shared" si="9"/>
         <v>158</v>
@@ -9120,11 +11844,17 @@
       <c r="E159" t="s">
         <v>1</v>
       </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F159" t="s">
+        <v>199</v>
+      </c>
+      <c r="G159" t="s">
+        <v>200</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <f t="shared" si="9"/>
         <v>159</v>
@@ -9141,11 +11871,17 @@
       <c r="E160" t="s">
         <v>1</v>
       </c>
-      <c r="F160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
+        <v>199</v>
+      </c>
+      <c r="G160" t="s">
+        <v>200</v>
+      </c>
+      <c r="H160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <f t="shared" si="9"/>
         <v>160</v>
@@ -9162,11 +11898,17 @@
       <c r="E161" t="s">
         <v>1</v>
       </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F161" t="s">
+        <v>199</v>
+      </c>
+      <c r="G161" t="s">
+        <v>200</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <f t="shared" si="9"/>
         <v>161</v>
@@ -9183,11 +11925,17 @@
       <c r="E162" t="s">
         <v>2</v>
       </c>
-      <c r="F162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F162" t="s">
+        <v>198</v>
+      </c>
+      <c r="G162" t="s">
+        <v>200</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <f t="shared" si="9"/>
         <v>162</v>
@@ -9204,11 +11952,17 @@
       <c r="E163" t="s">
         <v>2</v>
       </c>
-      <c r="F163">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F163" t="s">
+        <v>198</v>
+      </c>
+      <c r="G163" t="s">
+        <v>200</v>
+      </c>
+      <c r="H163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <f t="shared" si="9"/>
         <v>163</v>
@@ -9225,11 +11979,17 @@
       <c r="E164" t="s">
         <v>2</v>
       </c>
-      <c r="F164">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F164" t="s">
+        <v>198</v>
+      </c>
+      <c r="G164" t="s">
+        <v>200</v>
+      </c>
+      <c r="H164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <f t="shared" si="9"/>
         <v>164</v>
@@ -9246,11 +12006,17 @@
       <c r="E165" t="s">
         <v>2</v>
       </c>
-      <c r="F165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F165" t="s">
+        <v>198</v>
+      </c>
+      <c r="G165" t="s">
+        <v>200</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <f t="shared" si="9"/>
         <v>165</v>
@@ -9267,11 +12033,17 @@
       <c r="E166" t="s">
         <v>2</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F166" t="s">
+        <v>198</v>
+      </c>
+      <c r="G166" t="s">
+        <v>200</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <f t="shared" si="9"/>
         <v>166</v>
@@ -9288,11 +12060,17 @@
       <c r="E167" t="s">
         <v>3</v>
       </c>
-      <c r="F167">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F167" t="s">
+        <v>197</v>
+      </c>
+      <c r="G167" t="s">
+        <v>201</v>
+      </c>
+      <c r="H167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <f t="shared" si="9"/>
         <v>167</v>
@@ -9309,11 +12087,17 @@
       <c r="E168" t="s">
         <v>3</v>
       </c>
-      <c r="F168">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F168" t="s">
+        <v>197</v>
+      </c>
+      <c r="G168" t="s">
+        <v>201</v>
+      </c>
+      <c r="H168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <f t="shared" si="9"/>
         <v>168</v>
@@ -9330,11 +12114,17 @@
       <c r="E169" t="s">
         <v>3</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F169" t="s">
+        <v>197</v>
+      </c>
+      <c r="G169" t="s">
+        <v>201</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <f t="shared" si="9"/>
         <v>169</v>
@@ -9351,11 +12141,17 @@
       <c r="E170" t="s">
         <v>3</v>
       </c>
-      <c r="F170">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F170" t="s">
+        <v>197</v>
+      </c>
+      <c r="G170" t="s">
+        <v>201</v>
+      </c>
+      <c r="H170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <f t="shared" si="9"/>
         <v>170</v>
@@ -9372,11 +12168,17 @@
       <c r="E171" t="s">
         <v>3</v>
       </c>
-      <c r="F171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F171" t="s">
+        <v>197</v>
+      </c>
+      <c r="G171" t="s">
+        <v>201</v>
+      </c>
+      <c r="H171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <f t="shared" si="9"/>
         <v>171</v>
@@ -9393,11 +12195,17 @@
       <c r="E172" t="s">
         <v>4</v>
       </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F172" t="s">
+        <v>199</v>
+      </c>
+      <c r="G172" t="s">
+        <v>201</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <f t="shared" si="9"/>
         <v>172</v>
@@ -9414,11 +12222,17 @@
       <c r="E173" t="s">
         <v>4</v>
       </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F173" t="s">
+        <v>199</v>
+      </c>
+      <c r="G173" t="s">
+        <v>201</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <f t="shared" si="9"/>
         <v>173</v>
@@ -9435,11 +12249,17 @@
       <c r="E174" t="s">
         <v>4</v>
       </c>
-      <c r="F174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F174" t="s">
+        <v>199</v>
+      </c>
+      <c r="G174" t="s">
+        <v>201</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <f t="shared" si="9"/>
         <v>174</v>
@@ -9456,11 +12276,17 @@
       <c r="E175" t="s">
         <v>4</v>
       </c>
-      <c r="F175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F175" t="s">
+        <v>199</v>
+      </c>
+      <c r="G175" t="s">
+        <v>201</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <f t="shared" si="9"/>
         <v>175</v>
@@ -9477,11 +12303,17 @@
       <c r="E176" t="s">
         <v>4</v>
       </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F176" t="s">
+        <v>199</v>
+      </c>
+      <c r="G176" t="s">
+        <v>201</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <f t="shared" si="9"/>
         <v>176</v>
@@ -9498,11 +12330,17 @@
       <c r="E177" t="s">
         <v>18</v>
       </c>
-      <c r="F177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F177" t="s">
+        <v>198</v>
+      </c>
+      <c r="G177" t="s">
+        <v>201</v>
+      </c>
+      <c r="H177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <f t="shared" si="9"/>
         <v>177</v>
@@ -9519,11 +12357,17 @@
       <c r="E178" t="s">
         <v>18</v>
       </c>
-      <c r="F178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F178" t="s">
+        <v>198</v>
+      </c>
+      <c r="G178" t="s">
+        <v>201</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <f t="shared" si="9"/>
         <v>178</v>
@@ -9540,11 +12384,17 @@
       <c r="E179" t="s">
         <v>18</v>
       </c>
-      <c r="F179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F179" t="s">
+        <v>198</v>
+      </c>
+      <c r="G179" t="s">
+        <v>201</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <f t="shared" si="9"/>
         <v>179</v>
@@ -9561,11 +12411,17 @@
       <c r="E180" t="s">
         <v>18</v>
       </c>
-      <c r="F180">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F180" t="s">
+        <v>198</v>
+      </c>
+      <c r="G180" t="s">
+        <v>201</v>
+      </c>
+      <c r="H180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <f t="shared" si="9"/>
         <v>180</v>
@@ -9582,7 +12438,13 @@
       <c r="E181" t="s">
         <v>18</v>
       </c>
-      <c r="F181">
+      <c r="F181" t="s">
+        <v>198</v>
+      </c>
+      <c r="G181" t="s">
+        <v>201</v>
+      </c>
+      <c r="H181">
         <v>1</v>
       </c>
     </row>
@@ -9596,30 +12458,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6789FC-F8F8-4A93-9D72-5B0F3616F6CF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9628,10 +12499,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -9645,7 +12516,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -9659,7 +12530,7 @@
         <v>4.1333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -9673,7 +12544,7 @@
         <v>4.1333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -9686,8 +12557,14 @@
       <c r="D6" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -9700,8 +12577,23 @@
       <c r="D7" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -9714,10 +12606,25 @@
       <c r="D8" s="3">
         <v>2.9333333333333331</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="B9" s="3">
         <v>3.7111111111111112</v>
@@ -9728,9 +12635,263 @@
       <c r="D9" s="3">
         <v>3.8833333333333333</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3">
+        <v>37</v>
+      </c>
+      <c r="I20" s="3">
+        <v>26</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="3">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="3">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="3">
+        <v>60</v>
+      </c>
+      <c r="H23" s="3">
+        <v>60</v>
+      </c>
+      <c r="I23" s="3">
+        <v>60</v>
+      </c>
+      <c r="J23" s="3">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9742,13 +12903,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -9759,7 +12920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -9770,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -9781,7 +12942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9792,7 +12953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9803,7 +12964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9814,7 +12975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -9825,7 +12986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -9836,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9847,7 +13008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -9858,7 +13019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -9869,7 +13030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -9880,7 +13041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -9891,7 +13052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -9902,7 +13063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9913,7 +13074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9924,7 +13085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9935,7 +13096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -9946,7 +13107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -9957,7 +13118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -9968,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9979,7 +13140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -9990,7 +13151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -10001,7 +13162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -10012,7 +13173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -10023,7 +13184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -10034,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -10045,7 +13206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -10056,7 +13217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -10067,7 +13228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -10078,7 +13239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>17</v>
       </c>
